--- a/統計管制與最佳化方法概論/homework/my_homework/HW12/hw_12.xlsx
+++ b/統計管制與最佳化方法概論/homework/my_homework/HW12/hw_12.xlsx
@@ -5,16 +5,109 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOLab\Documents\研究所資料\統計管制與最佳化方法概論\homework\my_homework\HW12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Documents\institute_information\統計管制與最佳化方法概論\homework\my_homework\HW12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD307285-FBB1-402E-8610-D5A9CBA197BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F28BF60-3B02-4E73-9062-F50ACAEC2E07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CB8A175E-6191-4478-A7B3-8E35534C3B7C}"/>
+    <workbookView xWindow="3200" yWindow="3010" windowWidth="19200" windowHeight="11460" activeTab="1" xr2:uid="{CB8A175E-6191-4478-A7B3-8E35534C3B7C}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="工作表2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">工作表1!$Q$36:$S$36</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">工作表2!$C$28:$E$28</definedName>
+    <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">工作表1!$Q$36</definedName>
+    <definedName name="solver_lhs1" localSheetId="1" hidden="1">工作表2!$C$28</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">工作表1!$Q$36</definedName>
+    <definedName name="solver_lhs2" localSheetId="1" hidden="1">工作表2!$C$28</definedName>
+    <definedName name="solver_lhs3" localSheetId="0" hidden="1">工作表1!$R$36</definedName>
+    <definedName name="solver_lhs3" localSheetId="1" hidden="1">工作表2!$D$28</definedName>
+    <definedName name="solver_lhs4" localSheetId="0" hidden="1">工作表1!$R$36</definedName>
+    <definedName name="solver_lhs4" localSheetId="1" hidden="1">工作表2!$D$28</definedName>
+    <definedName name="solver_lhs5" localSheetId="0" hidden="1">工作表1!$S$36</definedName>
+    <definedName name="solver_lhs5" localSheetId="1" hidden="1">工作表2!$E$28</definedName>
+    <definedName name="solver_lhs6" localSheetId="0" hidden="1">工作表1!$S$36</definedName>
+    <definedName name="solver_lhs6" localSheetId="1" hidden="1">工作表2!$E$28</definedName>
+    <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">6</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">6</definedName>
+    <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">工作表1!$T$36</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">工作表2!$F$28</definedName>
+    <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel2" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel3" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel3" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel4" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel4" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel5" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel5" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel6" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel6" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rhs1" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">-1</definedName>
+    <definedName name="solver_rhs2" localSheetId="1" hidden="1">-1</definedName>
+    <definedName name="solver_rhs3" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rhs3" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rhs4" localSheetId="0" hidden="1">-1</definedName>
+    <definedName name="solver_rhs4" localSheetId="1" hidden="1">-1</definedName>
+    <definedName name="solver_rhs5" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rhs5" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rhs6" localSheetId="0" hidden="1">-1</definedName>
+    <definedName name="solver_rhs6" localSheetId="1" hidden="1">-1</definedName>
+    <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,25 +126,35 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="103">
   <si>
     <t>test</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>temperature</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pressure</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -105,10 +208,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>yield</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>E1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -134,10 +233,6 @@
   </si>
   <si>
     <t>E123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sample variance</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -424,6 +519,82 @@
   </si>
   <si>
     <t>b0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>average</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_i^2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b2</t>
+  </si>
+  <si>
+    <t>b3</t>
+  </si>
+  <si>
+    <t>coefficient</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>s_effect^2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t-test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_3,0.005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_3,0.995</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y_hat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SN_hat</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -552,7 +723,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -623,6 +794,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1151,7 +1328,1287 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>b</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>工作表1!$O$9</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>1.9678250627177531</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>工作表1!$O$9</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>1.9678250627177531</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表1!$P$26:$P$33</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>b0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>b1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>b2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>b3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>b12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>b23</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>b13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>b123</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$Q$26:$Q$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>49.868749999999991</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.734583333333335</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.55208333333333359</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4.036249999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.08125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.317083333333334</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.77791666666666737</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.23208333333333245</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C174-406C-9028-34F4038E3FD0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="986843311"/>
+        <c:axId val="986845391"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="986843311"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="986845391"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="986845391"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="986843311"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Effects</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表2!$C$20:$L$20</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>E1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>E2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>E3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>E12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>E23</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>E13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>E123</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表2!$C$21:$L$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4.1049207855529346</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.14022283984064288</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.431468532634689</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.37320298613974145</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.3798591363635779</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.7893246120579676E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0984387634756558</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-04BE-451F-B907-33FC071E7D68}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表2!$C$22:$L$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-04BE-451F-B907-33FC071E7D68}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="855515807"/>
+        <c:axId val="855534111"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="855515807"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="855534111"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="855534111"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="855515807"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>Q-Q plot</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>工作表2!$O$2:$O$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4.1049207855529346</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.14022283984064288</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.431468532634689</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.37320298613974145</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.3798591363635779</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.7893246120579676E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0984387634756558</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>工作表2!$Q$2:$Q$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.1848395099249342</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.1848395099249342</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.34211708918224021</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.34211708918224032</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-8.5482086029534915E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.5482086029534943E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DAD1-47D0-B48A-E96D2298C96D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>工作表2!$O$2:$O$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4.1049207855529346</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.14022283984064288</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.431468532634689</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.37320298613974145</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.3798591363635779</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.7893246120579676E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0984387634756558</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>工作表2!$O$2:$O$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4.1049207855529346</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.14022283984064288</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.431468532634689</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.37320298613974145</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.3798591363635779</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.7893246120579676E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0984387634756558</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DAD1-47D0-B48A-E96D2298C96D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1038015631"/>
+        <c:axId val="1038012719"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1038015631"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1038012719"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1038012719"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1038015631"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1707,20 +3164,1555 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>628649</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>171449</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>206375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>838199</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>514349</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1740,6 +4732,119 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>41275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>174625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="圖表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DF37E63-D2EA-4292-9031-627A392AAF9E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>117475</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="圖表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A3E318E-82F8-4902-9A04-08D05A8B905F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>15874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>488950</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="圖表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F076F37-B44D-46F0-907F-38A741CDC29F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2045,60 +5150,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA86B193-2B35-417B-B01D-578CD466CFC5}">
-  <dimension ref="B1:X35"/>
+  <dimension ref="B1:X38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F4" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+    <sheetView topLeftCell="O10" workbookViewId="0">
+      <selection activeCell="Q35" sqref="Q35:T36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="10" max="10" width="13.75" customWidth="1"/>
-    <col min="11" max="11" width="16.125" customWidth="1"/>
-    <col min="12" max="14" width="13.5" customWidth="1"/>
+    <col min="10" max="10" width="13.7265625" customWidth="1"/>
+    <col min="11" max="11" width="16.08984375" customWidth="1"/>
+    <col min="12" max="14" width="13.453125" customWidth="1"/>
     <col min="15" max="15" width="14" customWidth="1"/>
+    <col min="17" max="17" width="12.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1">
-        <v>1</v>
-      </c>
-      <c r="G1">
-        <v>2</v>
-      </c>
-      <c r="H1">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" t="s">
+        <v>85</v>
       </c>
       <c r="I1" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="J1" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="K1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
       <c r="O1" s="5"/>
       <c r="P1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="2" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:24" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2">
         <v>1</v>
       </c>
@@ -2136,7 +5242,7 @@
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
     </row>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B3">
         <v>2</v>
       </c>
@@ -2167,18 +5273,18 @@
         <v>1.1886333333333217</v>
       </c>
       <c r="K3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Q3" s="4"/>
     </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B4">
         <v>3</v>
       </c>
@@ -2216,13 +5322,13 @@
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
       <c r="P4" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="Q4" s="1">
         <v>0.98944603157237543</v>
       </c>
     </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B5">
         <v>4</v>
       </c>
@@ -2253,20 +5359,20 @@
         <v>8.6447999999999858</v>
       </c>
       <c r="K5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
       <c r="P5" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="Q5" s="1">
         <v>0.97900344939432205</v>
       </c>
     </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B6">
         <v>5</v>
       </c>
@@ -2305,13 +5411,13 @@
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
       <c r="P6" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="Q6" s="1">
         <v>0.96981745850433798</v>
       </c>
     </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B7">
         <v>6</v>
       </c>
@@ -2342,25 +5448,25 @@
         <v>16.257233333333328</v>
       </c>
       <c r="K7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="L7" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="R7" s="13">
         <v>3.3006009553817135</v>
       </c>
     </row>
-    <row r="8" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:24" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B8">
         <v>7</v>
       </c>
@@ -2406,13 +5512,13 @@
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="R8" s="2">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B9">
         <v>8</v>
       </c>
@@ -2443,100 +5549,103 @@
         <v>5.0052333333333312</v>
       </c>
       <c r="K9" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="L9">
         <f>K2*(K4-1)</f>
         <v>16</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="N9" s="1">
         <f>M19*K8^0.5</f>
         <v>3.9356501254355063</v>
       </c>
-      <c r="O9" s="1"/>
+      <c r="O9" s="1">
+        <f>N9/2</f>
+        <v>1.9678250627177531</v>
+      </c>
     </row>
-    <row r="10" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:24" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="L10" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="P10" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
         <v>16</v>
-      </c>
-      <c r="H11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" t="s">
-        <v>4</v>
-      </c>
-      <c r="J11" t="s">
-        <v>20</v>
       </c>
       <c r="K11">
         <f>SUMPRODUCT(B12:B35,I12:I35)/(4*3)</f>
         <v>21.46916666666667</v>
       </c>
       <c r="L11" s="1">
-        <f>(_xlfn.RANK.EQ(K11,$K$11:$K$17,1)-0.5)/7*100</f>
+        <f t="shared" ref="L11:L17" si="2">(_xlfn.RANK.EQ(K11,$K$11:$K$17,1)-0.5)/7*100</f>
         <v>78.571428571428569</v>
       </c>
       <c r="M11" s="1">
-        <f>_xlfn.NORM.INV(L11/100,0,$L$8)</f>
+        <f t="shared" ref="M11:M17" si="3">_xlfn.NORM.INV(L11/100,0,$L$8)</f>
         <v>1.0667050771423081</v>
       </c>
       <c r="P11" s="3"/>
       <c r="Q11" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="T11" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="U11" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B12">
         <f>C2</f>
         <v>-1</v>
       </c>
       <c r="C12">
-        <f t="shared" ref="C12:D12" si="2">D2</f>
+        <f t="shared" ref="C12:D12" si="4">D2</f>
         <v>-1</v>
       </c>
       <c r="D12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="E12">
@@ -2560,22 +5669,22 @@
         <v>61.43</v>
       </c>
       <c r="J12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K12">
         <f>SUMPRODUCT(C12:C35,I12:I35)/(4*3)</f>
         <v>1.1041666666666672</v>
       </c>
       <c r="L12" s="1">
-        <f>(_xlfn.RANK.EQ(K12,$K$11:$K$17,1)-0.5)/7*100</f>
+        <f t="shared" si="2"/>
         <v>35.714285714285715</v>
       </c>
       <c r="M12" s="1">
-        <f>_xlfn.NORM.INV(L12/100,0,$L$8)</f>
+        <f t="shared" si="3"/>
         <v>-0.49331539133300878</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="Q12" s="1">
         <v>7</v>
@@ -2593,56 +5702,56 @@
         <v>3.2000830664664587E-12</v>
       </c>
     </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B13">
-        <f t="shared" ref="B13:D13" si="3">C3</f>
+        <f t="shared" ref="B13:D13" si="5">C3</f>
         <v>1</v>
       </c>
       <c r="C13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
       <c r="D13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
       <c r="E13">
-        <f t="shared" ref="E13:E19" si="4">B13*C13</f>
+        <f t="shared" ref="E13:E19" si="6">B13*C13</f>
         <v>-1</v>
       </c>
       <c r="F13">
-        <f t="shared" ref="F13:F19" si="5">C13*D13</f>
+        <f t="shared" ref="F13:F19" si="7">C13*D13</f>
         <v>1</v>
       </c>
       <c r="G13">
-        <f t="shared" ref="G13:G19" si="6">B13*D13</f>
+        <f t="shared" ref="G13:G19" si="8">B13*D13</f>
         <v>-1</v>
       </c>
       <c r="H13">
-        <f t="shared" ref="H13:H19" si="7">B13*C13*D13</f>
+        <f t="shared" ref="H13:H19" si="9">B13*C13*D13</f>
         <v>1</v>
       </c>
       <c r="I13" s="8">
-        <f t="shared" ref="I13:I19" si="8">F3</f>
+        <f t="shared" ref="I13:I19" si="10">F3</f>
         <v>75.62</v>
       </c>
       <c r="J13" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="K13">
         <f>SUMPRODUCT(D12:D35,I12:I35)/(4*3)</f>
         <v>-8.072499999999998</v>
       </c>
       <c r="L13" s="1">
-        <f>(_xlfn.RANK.EQ(K13,$K$11:$K$17,1)-0.5)/7*100</f>
+        <f t="shared" si="2"/>
         <v>7.1428571428571423</v>
       </c>
       <c r="M13" s="1">
-        <f>_xlfn.NORM.INV(L13/100,0,$L$8)</f>
+        <f t="shared" si="3"/>
         <v>-1.9743508092834139</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="Q13" s="1">
         <v>16</v>
@@ -2656,56 +5765,56 @@
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
     </row>
-    <row r="14" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:24" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B14">
-        <f t="shared" ref="B14:D14" si="9">C4</f>
+        <f t="shared" ref="B14:D14" si="11">C4</f>
         <v>-1</v>
       </c>
       <c r="C14">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="H14">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="D14">
-        <f t="shared" si="9"/>
-        <v>-1</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="4"/>
-        <v>-1</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="5"/>
-        <v>-1</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
       <c r="I14" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>27.51</v>
       </c>
       <c r="J14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K14">
         <f>SUMPRODUCT(E12:E35,I12:I35)/(4*3)</f>
         <v>2.1625000000000001</v>
       </c>
       <c r="L14" s="1">
-        <f>(_xlfn.RANK.EQ(K14,$K$11:$K$17,1)-0.5)/7*100</f>
+        <f t="shared" si="2"/>
         <v>64.285714285714292</v>
       </c>
       <c r="M14" s="1">
-        <f>_xlfn.NORM.INV(L14/100,0,$L$8)</f>
+        <f t="shared" si="3"/>
         <v>0.49331539133300889</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="Q14" s="2">
         <v>23</v>
@@ -2717,179 +5826,179 @@
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
     </row>
-    <row r="15" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:24" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B15">
-        <f t="shared" ref="B15:D15" si="10">C5</f>
+        <f t="shared" ref="B15:D15" si="12">C5</f>
         <v>1</v>
       </c>
       <c r="C15">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="I15" s="8">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="10"/>
-        <v>-1</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="5"/>
-        <v>-1</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="6"/>
-        <v>-1</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="7"/>
-        <v>-1</v>
-      </c>
-      <c r="I15" s="8">
-        <f t="shared" si="8"/>
         <v>51.37</v>
       </c>
       <c r="J15" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="K15">
         <f>SUMPRODUCT(F12:F35,I12:I35)/(4*3)</f>
         <v>28.634166666666669</v>
       </c>
       <c r="L15" s="1">
-        <f>(_xlfn.RANK.EQ(K15,$K$11:$K$17,1)-0.5)/7*100</f>
+        <f t="shared" si="2"/>
         <v>92.857142857142861</v>
       </c>
       <c r="M15" s="1">
-        <f>_xlfn.NORM.INV(L15/100,0,$L$8)</f>
+        <f t="shared" si="3"/>
         <v>1.9743508092834146</v>
       </c>
     </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B16">
-        <f t="shared" ref="B16:D16" si="11">C6</f>
+        <f t="shared" ref="B16:D16" si="13">C6</f>
         <v>-1</v>
       </c>
       <c r="C16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-1</v>
       </c>
       <c r="D16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="E16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="F16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="G16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
       <c r="H16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="I16" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>24.8</v>
       </c>
       <c r="J16" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K16">
         <f>SUMPRODUCT(G12:G35,I12:I35)/(4*3)</f>
         <v>1.5558333333333347</v>
       </c>
       <c r="L16" s="1">
-        <f>(_xlfn.RANK.EQ(K16,$K$11:$K$17,1)-0.5)/7*100</f>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="M16" s="1">
-        <f>_xlfn.NORM.INV(L16/100,0,$L$8)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P16" s="3"/>
       <c r="Q16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="R16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="T16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="U16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="W16" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="R16" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="S16" s="3" t="s">
+      <c r="X16" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="T16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="U16" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="V16" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="W16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="X16" s="3" t="s">
-        <v>56</v>
-      </c>
     </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B17">
-        <f t="shared" ref="B17:D17" si="12">C7</f>
+        <f t="shared" ref="B17:D17" si="14">C7</f>
         <v>1</v>
       </c>
       <c r="C17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-1</v>
       </c>
       <c r="D17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="E17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
       <c r="F17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="G17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1</v>
       </c>
       <c r="I17" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>43.58</v>
       </c>
       <c r="J17" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K17">
         <f>SUMPRODUCT(H12:H35,I12:I35)/(4*3)</f>
         <v>-0.4641666666666649</v>
       </c>
       <c r="L17" s="1">
-        <f>(_xlfn.RANK.EQ(K17,$K$11:$K$17,1)-0.5)/7*100</f>
+        <f t="shared" si="2"/>
         <v>21.428571428571427</v>
       </c>
       <c r="M17" s="1">
-        <f>_xlfn.NORM.INV(L17/100,0,$L$8)</f>
+        <f t="shared" si="3"/>
         <v>-1.0667050771423081</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="Q17" s="1">
         <v>49.868750000000006</v>
@@ -2916,49 +6025,49 @@
         <v>51.836575062717763</v>
       </c>
     </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B18">
-        <f t="shared" ref="B18:D18" si="13">C8</f>
+        <f t="shared" ref="B18:D18" si="15">C8</f>
         <v>-1</v>
       </c>
       <c r="C18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="D18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="E18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
       <c r="F18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="G18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
       <c r="H18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1</v>
       </c>
       <c r="I18" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>45.2</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
       <c r="P18" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q18" s="1">
         <v>10.734583333333333</v>
@@ -2985,58 +6094,58 @@
         <v>12.702408396051094</v>
       </c>
     </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B19">
-        <f t="shared" ref="B19:D19" si="14">C9</f>
+        <f t="shared" ref="B19:D19" si="16">C9</f>
         <v>1</v>
       </c>
       <c r="C19">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="D19">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="E19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="F19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="G19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="I19" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>70.510000000000005</v>
       </c>
       <c r="J19" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="K19">
         <f>(K11-0)/$K$8^0.5</f>
         <v>15.933008639034604</v>
       </c>
       <c r="L19" s="18">
-        <f>_xlfn.T.INV(0.005,$L$9)</f>
+        <f t="shared" ref="L19:L25" si="17">_xlfn.T.INV(0.005,$L$9)</f>
         <v>-2.9207816224251002</v>
       </c>
       <c r="M19" s="7">
-        <f>_xlfn.T.INV(0.995,$L$9)</f>
+        <f t="shared" ref="M19:M25" si="18">_xlfn.T.INV(0.995,$L$9)</f>
         <v>2.9207816224250998</v>
       </c>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
       <c r="P19" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Q19" s="1">
         <v>0.55208333333333437</v>
@@ -3063,17 +6172,17 @@
         <v>2.5199083960510946</v>
       </c>
     </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B20">
         <f>C2</f>
         <v>-1</v>
       </c>
       <c r="C20">
-        <f t="shared" ref="C20:D20" si="15">D2</f>
+        <f t="shared" ref="C20:D20" si="19">D2</f>
         <v>-1</v>
       </c>
       <c r="D20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>-1</v>
       </c>
       <c r="E20">
@@ -3093,28 +6202,28 @@
         <v>-1</v>
       </c>
       <c r="I20" s="9">
-        <f>G2</f>
+        <f t="shared" ref="I20:I27" si="20">G2</f>
         <v>58.58</v>
       </c>
       <c r="J20" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="K20">
-        <f t="shared" ref="K20:K25" si="16">(K12-0)/$K$8^0.5</f>
+        <f t="shared" ref="K20:K25" si="21">(K12-0)/$K$8^0.5</f>
         <v>0.8194401446539944</v>
       </c>
       <c r="L20" s="18">
-        <f>_xlfn.T.INV(0.005,$L$9)</f>
+        <f t="shared" si="17"/>
         <v>-2.9207816224251002</v>
       </c>
       <c r="M20" s="7">
-        <f>_xlfn.T.INV(0.995,$L$9)</f>
+        <f t="shared" si="18"/>
         <v>2.9207816224250998</v>
       </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="Q20" s="1">
         <v>-4.0362499999999972</v>
@@ -3141,58 +6250,58 @@
         <v>-2.0684249372822361</v>
       </c>
     </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B21">
-        <f t="shared" ref="B21:D27" si="17">C3</f>
+        <f t="shared" ref="B21:D27" si="22">C3</f>
         <v>1</v>
       </c>
       <c r="C21">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+      <c r="E21">
+        <f t="shared" ref="E21:E27" si="23">B21*C21</f>
+        <v>-1</v>
+      </c>
+      <c r="F21">
+        <f t="shared" ref="F21:F27" si="24">C21*D21</f>
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <f t="shared" ref="G21:G27" si="25">B21*D21</f>
+        <v>-1</v>
+      </c>
+      <c r="H21">
+        <f t="shared" ref="H21:H27" si="26">B21*C21*D21</f>
+        <v>1</v>
+      </c>
+      <c r="I21" s="9">
+        <f t="shared" si="20"/>
+        <v>77.569999999999993</v>
+      </c>
+      <c r="J21" t="s">
+        <v>63</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="21"/>
+        <v>-5.990880514160934</v>
+      </c>
+      <c r="L21" s="18">
         <f t="shared" si="17"/>
-        <v>-1</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="17"/>
-        <v>-1</v>
-      </c>
-      <c r="E21">
-        <f t="shared" ref="E21:E27" si="18">B21*C21</f>
-        <v>-1</v>
-      </c>
-      <c r="F21">
-        <f t="shared" ref="F21:F27" si="19">C21*D21</f>
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <f t="shared" ref="G21:G27" si="20">B21*D21</f>
-        <v>-1</v>
-      </c>
-      <c r="H21">
-        <f t="shared" ref="H21:H27" si="21">B21*C21*D21</f>
-        <v>1</v>
-      </c>
-      <c r="I21" s="9">
-        <f>G3</f>
-        <v>77.569999999999993</v>
-      </c>
-      <c r="J21" t="s">
-        <v>68</v>
-      </c>
-      <c r="K21">
-        <f t="shared" si="16"/>
-        <v>-5.990880514160934</v>
-      </c>
-      <c r="L21" s="18">
-        <f>_xlfn.T.INV(0.005,$L$9)</f>
         <v>-2.9207816224251002</v>
       </c>
       <c r="M21" s="7">
-        <f>_xlfn.T.INV(0.995,$L$9)</f>
+        <f t="shared" si="18"/>
         <v>2.9207816224250998</v>
       </c>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="Q21" s="1">
         <v>1.0812500000000012</v>
@@ -3219,58 +6328,58 @@
         <v>3.0490750627177619</v>
       </c>
     </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B22">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="23"/>
+        <v>-1</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="I22" s="9">
+        <f t="shared" si="20"/>
+        <v>34.03</v>
+      </c>
+      <c r="J22" t="s">
+        <v>64</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="21"/>
+        <v>1.604865792737445</v>
+      </c>
+      <c r="L22" s="18">
         <f t="shared" si="17"/>
-        <v>-1</v>
-      </c>
-      <c r="C22">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="17"/>
-        <v>-1</v>
-      </c>
-      <c r="E22">
+        <v>-2.9207816224251002</v>
+      </c>
+      <c r="M22" s="7">
         <f t="shared" si="18"/>
-        <v>-1</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="19"/>
-        <v>-1</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="H22">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="I22" s="9">
-        <f>G4</f>
-        <v>34.03</v>
-      </c>
-      <c r="J22" t="s">
-        <v>69</v>
-      </c>
-      <c r="K22">
-        <f t="shared" si="16"/>
-        <v>1.604865792737445</v>
-      </c>
-      <c r="L22" s="18">
-        <f>_xlfn.T.INV(0.005,$L$9)</f>
-        <v>-2.9207816224251002</v>
-      </c>
-      <c r="M22" s="7">
-        <f>_xlfn.T.INV(0.995,$L$9)</f>
         <v>2.9207816224250998</v>
       </c>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Q22" s="1">
         <v>14.317083333333336</v>
@@ -3297,58 +6406,58 @@
         <v>16.284908396051097</v>
       </c>
     </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B23">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="25"/>
+        <v>-1</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="26"/>
+        <v>-1</v>
+      </c>
+      <c r="I23" s="9">
+        <f t="shared" si="20"/>
+        <v>48.49</v>
+      </c>
+      <c r="J23" t="s">
+        <v>65</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="21"/>
+        <v>21.250402121098787</v>
+      </c>
+      <c r="L23" s="18">
         <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="C23">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="17"/>
-        <v>-1</v>
-      </c>
-      <c r="E23">
+        <v>-2.9207816224251002</v>
+      </c>
+      <c r="M23" s="7">
         <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="19"/>
-        <v>-1</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="20"/>
-        <v>-1</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="21"/>
-        <v>-1</v>
-      </c>
-      <c r="I23" s="9">
-        <f>G5</f>
-        <v>48.49</v>
-      </c>
-      <c r="J23" t="s">
-        <v>70</v>
-      </c>
-      <c r="K23">
-        <f t="shared" si="16"/>
-        <v>21.250402121098787</v>
-      </c>
-      <c r="L23" s="18">
-        <f>_xlfn.T.INV(0.005,$L$9)</f>
-        <v>-2.9207816224251002</v>
-      </c>
-      <c r="M23" s="7">
-        <f>_xlfn.T.INV(0.995,$L$9)</f>
         <v>2.9207816224250998</v>
       </c>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Q23" s="1">
         <v>0.77791666666666759</v>
@@ -3375,58 +6484,58 @@
         <v>2.7457417293844277</v>
       </c>
     </row>
-    <row r="24" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:24" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B24">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="25"/>
+        <v>-1</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="I24" s="9">
+        <f t="shared" si="20"/>
+        <v>20.69</v>
+      </c>
+      <c r="J24" t="s">
+        <v>66</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="21"/>
+        <v>1.154637547221893</v>
+      </c>
+      <c r="L24" s="18">
         <f t="shared" si="17"/>
-        <v>-1</v>
-      </c>
-      <c r="C24">
-        <f t="shared" si="17"/>
-        <v>-1</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="E24">
+        <v>-2.9207816224251002</v>
+      </c>
+      <c r="M24" s="7">
         <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="19"/>
-        <v>-1</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="20"/>
-        <v>-1</v>
-      </c>
-      <c r="H24">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="I24" s="9">
-        <f>G6</f>
-        <v>20.69</v>
-      </c>
-      <c r="J24" t="s">
-        <v>71</v>
-      </c>
-      <c r="K24">
-        <f t="shared" si="16"/>
-        <v>1.154637547221893</v>
-      </c>
-      <c r="L24" s="18">
-        <f>_xlfn.T.INV(0.005,$L$9)</f>
-        <v>-2.9207816224251002</v>
-      </c>
-      <c r="M24" s="7">
-        <f>_xlfn.T.INV(0.995,$L$9)</f>
         <v>2.9207816224250998</v>
       </c>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="Q24" s="2">
         <v>-0.23208333333333375</v>
@@ -3453,181 +6562,203 @@
         <v>1.7357417293844271</v>
       </c>
     </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B25">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="23"/>
+        <v>-1</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="26"/>
+        <v>-1</v>
+      </c>
+      <c r="I25" s="9">
+        <f t="shared" si="20"/>
+        <v>44.31</v>
+      </c>
+      <c r="J25" t="s">
+        <v>67</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="21"/>
+        <v>-0.34447408345077202</v>
+      </c>
+      <c r="L25" s="18">
         <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="C25">
-        <f t="shared" si="17"/>
-        <v>-1</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="E25">
+        <v>-2.9207816224251002</v>
+      </c>
+      <c r="M25" s="7">
         <f t="shared" si="18"/>
-        <v>-1</v>
-      </c>
-      <c r="F25">
-        <f t="shared" si="19"/>
-        <v>-1</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="21"/>
-        <v>-1</v>
-      </c>
-      <c r="I25" s="9">
-        <f>G7</f>
-        <v>44.31</v>
-      </c>
-      <c r="J25" t="s">
-        <v>72</v>
-      </c>
-      <c r="K25">
-        <f t="shared" si="16"/>
-        <v>-0.34447408345077202</v>
-      </c>
-      <c r="L25" s="18">
-        <f>_xlfn.T.INV(0.005,$L$9)</f>
-        <v>-2.9207816224251002</v>
-      </c>
-      <c r="M25" s="7">
-        <f>_xlfn.T.INV(0.995,$L$9)</f>
         <v>2.9207816224250998</v>
       </c>
       <c r="N25" s="1"/>
       <c r="P25" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q25" s="23">
-        <f>1/24*SUM(F2:H9)</f>
-        <v>49.868749999999991</v>
+        <v>71</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>-1</v>
       </c>
       <c r="C26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="D26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="E26">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>-1</v>
       </c>
       <c r="F26">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="G26">
+        <f t="shared" si="25"/>
+        <v>-1</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="26"/>
+        <v>-1</v>
+      </c>
+      <c r="I26" s="9">
         <f t="shared" si="20"/>
-        <v>-1</v>
-      </c>
-      <c r="H26">
-        <f t="shared" si="21"/>
-        <v>-1</v>
-      </c>
-      <c r="I26" s="9">
-        <f>G8</f>
         <v>49.53</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="7"/>
       <c r="N26" s="1"/>
       <c r="P26" s="1" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="Q26" s="23">
-        <f>K11/2</f>
+        <f>1/24*SUM(F2:H9)</f>
+        <v>49.868749999999991</v>
+      </c>
+      <c r="R26">
+        <f>Q26-N9/2</f>
+        <v>47.900924937282241</v>
+      </c>
+      <c r="S26">
+        <f>Q26+N9/2</f>
+        <v>51.836575062717742</v>
+      </c>
+      <c r="T26" t="str">
+        <f>IF(OR(R26&gt;0,S26&lt;0),"reject","accept")</f>
+        <v>reject</v>
+      </c>
+    </row>
+    <row r="27" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B27">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="I27" s="9">
+        <f t="shared" si="20"/>
+        <v>74</v>
+      </c>
+      <c r="J27" t="s">
+        <v>72</v>
+      </c>
+      <c r="K27">
+        <f t="shared" ref="K27:K33" si="27">K11-$N$9</f>
+        <v>17.533516541231165</v>
+      </c>
+      <c r="L27" s="7">
+        <f t="shared" ref="L27:L33" si="28">K11+$N$9</f>
+        <v>25.404816792102174</v>
+      </c>
+      <c r="M27" s="7"/>
+      <c r="P27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q27" s="23">
+        <f t="shared" ref="Q27:Q33" si="29">K11/2</f>
         <v>10.734583333333335</v>
       </c>
+      <c r="R27" s="19">
+        <f t="shared" ref="R27:S33" si="30">K27/2</f>
+        <v>8.7667582706155827</v>
+      </c>
+      <c r="S27" s="20">
+        <f t="shared" si="30"/>
+        <v>12.702408396051087</v>
+      </c>
+      <c r="T27" t="str">
+        <f t="shared" ref="T27:T33" si="31">IF(OR(R27&gt;0,S27&lt;0),"reject","accept")</f>
+        <v>reject</v>
+      </c>
     </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B27">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="C27">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="E27">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="H27">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="I27" s="9">
-        <f>G9</f>
-        <v>74</v>
-      </c>
-      <c r="J27" t="s">
-        <v>77</v>
-      </c>
-      <c r="K27">
-        <f>K11-$N$9</f>
-        <v>17.533516541231165</v>
-      </c>
-      <c r="L27" s="7">
-        <f>K11+$N$9</f>
-        <v>25.404816792102174</v>
-      </c>
-      <c r="M27" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="N27" s="19">
-        <f>K27/2</f>
-        <v>8.7667582706155827</v>
-      </c>
-      <c r="O27" s="20">
-        <f>L27/2</f>
-        <v>12.702408396051087</v>
-      </c>
-      <c r="P27" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q27" s="1">
-        <f>K12/2</f>
-        <v>0.55208333333333359</v>
-      </c>
-    </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B28">
         <f>C2</f>
         <v>-1</v>
       </c>
       <c r="C28">
-        <f t="shared" ref="C28:D28" si="22">D2</f>
+        <f t="shared" ref="C28:D28" si="32">D2</f>
         <v>-1</v>
       </c>
       <c r="D28">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>-1</v>
       </c>
       <c r="E28">
@@ -3647,424 +6778,529 @@
         <v>-1</v>
       </c>
       <c r="I28" s="10">
-        <f>H2</f>
+        <f t="shared" ref="I28:I35" si="33">H2</f>
         <v>57.07</v>
       </c>
       <c r="J28" t="s">
+        <v>73</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="27"/>
+        <v>-2.8314834587688393</v>
+      </c>
+      <c r="L28" s="7">
+        <f t="shared" si="28"/>
+        <v>5.0398167921021733</v>
+      </c>
+      <c r="M28" s="7"/>
+      <c r="P28" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q28" s="1">
+        <f t="shared" si="29"/>
+        <v>0.55208333333333359</v>
+      </c>
+      <c r="R28" s="19">
+        <f t="shared" si="30"/>
+        <v>-1.4157417293844197</v>
+      </c>
+      <c r="S28" s="20">
+        <f t="shared" si="30"/>
+        <v>2.5199083960510866</v>
+      </c>
+      <c r="T28" t="str">
+        <f t="shared" si="31"/>
+        <v>accept</v>
+      </c>
+    </row>
+    <row r="29" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B29">
+        <f t="shared" ref="B29:D29" si="34">C3</f>
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="34"/>
+        <v>-1</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="34"/>
+        <v>-1</v>
+      </c>
+      <c r="E29">
+        <f t="shared" ref="E29:E35" si="35">B29*C29</f>
+        <v>-1</v>
+      </c>
+      <c r="F29">
+        <f t="shared" ref="F29:F35" si="36">C29*D29</f>
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <f t="shared" ref="G29:G35" si="37">B29*D29</f>
+        <v>-1</v>
+      </c>
+      <c r="H29">
+        <f t="shared" ref="H29:H35" si="38">B29*C29*D29</f>
+        <v>1</v>
+      </c>
+      <c r="I29" s="10">
+        <f t="shared" si="33"/>
+        <v>75.75</v>
+      </c>
+      <c r="J29" t="s">
+        <v>74</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="27"/>
+        <v>-12.008150125435504</v>
+      </c>
+      <c r="L29" s="7">
+        <f t="shared" si="28"/>
+        <v>-4.1368498745644917</v>
+      </c>
+      <c r="M29" s="7"/>
+      <c r="P29" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q29" s="23">
+        <f t="shared" si="29"/>
+        <v>-4.036249999999999</v>
+      </c>
+      <c r="R29" s="19">
+        <f t="shared" si="30"/>
+        <v>-6.0040750627177522</v>
+      </c>
+      <c r="S29" s="20">
+        <f t="shared" si="30"/>
+        <v>-2.0684249372822459</v>
+      </c>
+      <c r="T29" t="str">
+        <f t="shared" si="31"/>
+        <v>reject</v>
+      </c>
+      <c r="V29" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B30">
+        <f t="shared" ref="B30:D30" si="39">C4</f>
+        <v>-1</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="39"/>
+        <v>-1</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="35"/>
+        <v>-1</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="36"/>
+        <v>-1</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="38"/>
+        <v>1</v>
+      </c>
+      <c r="I30" s="10">
+        <f t="shared" si="33"/>
+        <v>25.07</v>
+      </c>
+      <c r="J30" t="s">
+        <v>75</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="27"/>
+        <v>-1.7731501254355062</v>
+      </c>
+      <c r="L30" s="7">
+        <f t="shared" si="28"/>
+        <v>6.0981501254355059</v>
+      </c>
+      <c r="M30" s="7"/>
+      <c r="P30" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q30" s="1">
+        <f t="shared" si="29"/>
+        <v>1.08125</v>
+      </c>
+      <c r="R30" s="19">
+        <f t="shared" si="30"/>
+        <v>-0.8865750627177531</v>
+      </c>
+      <c r="S30" s="20">
+        <f t="shared" si="30"/>
+        <v>3.049075062717753</v>
+      </c>
+      <c r="T30" t="str">
+        <f t="shared" si="31"/>
+        <v>accept</v>
+      </c>
+      <c r="V30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B31">
+        <f t="shared" ref="B31:D31" si="40">C5</f>
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="40"/>
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="40"/>
+        <v>-1</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="36"/>
+        <v>-1</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="37"/>
+        <v>-1</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="38"/>
+        <v>-1</v>
+      </c>
+      <c r="I31" s="10">
+        <f t="shared" si="33"/>
+        <v>54.37</v>
+      </c>
+      <c r="J31" t="s">
+        <v>76</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="27"/>
+        <v>24.698516541231164</v>
+      </c>
+      <c r="L31" s="7">
+        <f t="shared" si="28"/>
+        <v>32.569816792102174</v>
+      </c>
+      <c r="M31" s="7"/>
+      <c r="P31" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q31" s="23">
+        <f t="shared" si="29"/>
+        <v>14.317083333333334</v>
+      </c>
+      <c r="R31" s="19">
+        <f t="shared" si="30"/>
+        <v>12.349258270615582</v>
+      </c>
+      <c r="S31" s="20">
+        <f t="shared" si="30"/>
+        <v>16.284908396051087</v>
+      </c>
+      <c r="T31" t="str">
+        <f t="shared" si="31"/>
+        <v>reject</v>
+      </c>
+      <c r="V31" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B32">
+        <f t="shared" ref="B32:D32" si="41">C6</f>
+        <v>-1</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="41"/>
+        <v>-1</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="41"/>
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="36"/>
+        <v>-1</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="37"/>
+        <v>-1</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="38"/>
+        <v>1</v>
+      </c>
+      <c r="I32" s="10">
+        <f t="shared" si="33"/>
+        <v>15.41</v>
+      </c>
+      <c r="J32" t="s">
+        <v>77</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="27"/>
+        <v>-2.3798167921021713</v>
+      </c>
+      <c r="L32" s="7">
+        <f t="shared" si="28"/>
+        <v>5.4914834587688413</v>
+      </c>
+      <c r="M32" s="7"/>
+      <c r="P32" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q32" s="1">
+        <f t="shared" si="29"/>
+        <v>0.77791666666666737</v>
+      </c>
+      <c r="R32" s="19">
+        <f t="shared" si="30"/>
+        <v>-1.1899083960510857</v>
+      </c>
+      <c r="S32" s="20">
+        <f t="shared" si="30"/>
+        <v>2.7457417293844206</v>
+      </c>
+      <c r="T32" t="str">
+        <f t="shared" si="31"/>
+        <v>accept</v>
+      </c>
+      <c r="V32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B33">
+        <f t="shared" ref="B33:D33" si="42">C7</f>
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="42"/>
+        <v>-1</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="42"/>
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="35"/>
+        <v>-1</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="36"/>
+        <v>-1</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="38"/>
+        <v>-1</v>
+      </c>
+      <c r="I33" s="10">
+        <f t="shared" si="33"/>
+        <v>36.99</v>
+      </c>
+      <c r="J33" t="s">
         <v>78</v>
       </c>
-      <c r="K28">
-        <f>K12-$N$9</f>
-        <v>-2.8314834587688393</v>
-      </c>
-      <c r="L28" s="7">
-        <f>K12+$N$9</f>
-        <v>5.0398167921021733</v>
-      </c>
-      <c r="M28" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="N28" s="19">
-        <f>K28/2</f>
-        <v>-1.4157417293844197</v>
-      </c>
-      <c r="O28" s="20">
-        <f t="shared" ref="O28:O33" si="23">L28/2</f>
-        <v>2.5199083960510866</v>
-      </c>
-      <c r="P28" s="5" t="s">
+      <c r="K33">
+        <f t="shared" si="27"/>
+        <v>-4.3998167921021709</v>
+      </c>
+      <c r="L33" s="7">
+        <f t="shared" si="28"/>
+        <v>3.4714834587688412</v>
+      </c>
+      <c r="M33" s="7"/>
+      <c r="P33" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="Q28" s="23">
-        <f>K13/2</f>
-        <v>-4.036249999999999</v>
+      <c r="Q33" s="1">
+        <f t="shared" si="29"/>
+        <v>-0.23208333333333245</v>
+      </c>
+      <c r="R33" s="19">
+        <f t="shared" si="30"/>
+        <v>-2.1999083960510855</v>
+      </c>
+      <c r="S33" s="20">
+        <f t="shared" si="30"/>
+        <v>1.7357417293844206</v>
+      </c>
+      <c r="T33" t="str">
+        <f t="shared" si="31"/>
+        <v>accept</v>
       </c>
     </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B29">
-        <f t="shared" ref="B29:D29" si="24">C3</f>
-        <v>1</v>
-      </c>
-      <c r="C29">
-        <f t="shared" si="24"/>
-        <v>-1</v>
-      </c>
-      <c r="D29">
-        <f t="shared" si="24"/>
-        <v>-1</v>
-      </c>
-      <c r="E29">
-        <f t="shared" ref="E29:E35" si="25">B29*C29</f>
-        <v>-1</v>
-      </c>
-      <c r="F29">
-        <f t="shared" ref="F29:F35" si="26">C29*D29</f>
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <f t="shared" ref="G29:G35" si="27">B29*D29</f>
-        <v>-1</v>
-      </c>
-      <c r="H29">
-        <f t="shared" ref="H29:H35" si="28">B29*C29*D29</f>
-        <v>1</v>
-      </c>
-      <c r="I29" s="10">
-        <f>H3</f>
-        <v>75.75</v>
-      </c>
-      <c r="J29" t="s">
-        <v>79</v>
-      </c>
-      <c r="K29">
-        <f>K13-$N$9</f>
-        <v>-12.008150125435504</v>
-      </c>
-      <c r="L29" s="7">
-        <f>K13+$N$9</f>
-        <v>-4.1368498745644917</v>
-      </c>
-      <c r="M29" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="N29" s="19">
-        <f>K29/2</f>
-        <v>-6.0040750627177522</v>
-      </c>
-      <c r="O29" s="20">
-        <f t="shared" si="23"/>
-        <v>-2.0684249372822459</v>
-      </c>
-      <c r="P29" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q29" s="1">
-        <f>K14/2</f>
-        <v>1.08125</v>
-      </c>
-    </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B30">
-        <f t="shared" ref="B30:D30" si="29">C4</f>
-        <v>-1</v>
-      </c>
-      <c r="C30">
-        <f t="shared" si="29"/>
-        <v>1</v>
-      </c>
-      <c r="D30">
-        <f t="shared" si="29"/>
-        <v>-1</v>
-      </c>
-      <c r="E30">
-        <f t="shared" si="25"/>
-        <v>-1</v>
-      </c>
-      <c r="F30">
-        <f t="shared" si="26"/>
-        <v>-1</v>
-      </c>
-      <c r="G30">
-        <f t="shared" si="27"/>
-        <v>1</v>
-      </c>
-      <c r="H30">
-        <f t="shared" si="28"/>
-        <v>1</v>
-      </c>
-      <c r="I30" s="10">
-        <f>H4</f>
-        <v>25.07</v>
-      </c>
-      <c r="J30" t="s">
-        <v>80</v>
-      </c>
-      <c r="K30">
-        <f>K14-$N$9</f>
-        <v>-1.7731501254355062</v>
-      </c>
-      <c r="L30" s="7">
-        <f>K14+$N$9</f>
-        <v>6.0981501254355059</v>
-      </c>
-      <c r="M30" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="N30" s="19">
-        <f>K30/2</f>
-        <v>-0.8865750627177531</v>
-      </c>
-      <c r="O30" s="20">
-        <f t="shared" si="23"/>
-        <v>3.049075062717753</v>
-      </c>
-      <c r="P30" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q30" s="23">
-        <f>K15/2</f>
-        <v>14.317083333333334</v>
-      </c>
-    </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B31">
-        <f t="shared" ref="B31:D31" si="30">C5</f>
-        <v>1</v>
-      </c>
-      <c r="C31">
-        <f t="shared" si="30"/>
-        <v>1</v>
-      </c>
-      <c r="D31">
-        <f t="shared" si="30"/>
-        <v>-1</v>
-      </c>
-      <c r="E31">
-        <f t="shared" si="25"/>
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <f t="shared" si="26"/>
-        <v>-1</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="27"/>
-        <v>-1</v>
-      </c>
-      <c r="H31">
-        <f t="shared" si="28"/>
-        <v>-1</v>
-      </c>
-      <c r="I31" s="10">
-        <f>H5</f>
-        <v>54.37</v>
-      </c>
-      <c r="J31" t="s">
-        <v>81</v>
-      </c>
-      <c r="K31">
-        <f>K15-$N$9</f>
-        <v>24.698516541231164</v>
-      </c>
-      <c r="L31" s="7">
-        <f>K15+$N$9</f>
-        <v>32.569816792102174</v>
-      </c>
-      <c r="M31" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="N31" s="19">
-        <f>K31/2</f>
-        <v>12.349258270615582</v>
-      </c>
-      <c r="O31" s="20">
-        <f t="shared" si="23"/>
-        <v>16.284908396051087</v>
-      </c>
-      <c r="P31" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q31" s="1">
-        <f>K16/2</f>
-        <v>0.77791666666666737</v>
-      </c>
-    </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B32">
-        <f t="shared" ref="B32:D32" si="31">C6</f>
-        <v>-1</v>
-      </c>
-      <c r="C32">
-        <f t="shared" si="31"/>
-        <v>-1</v>
-      </c>
-      <c r="D32">
-        <f t="shared" si="31"/>
-        <v>1</v>
-      </c>
-      <c r="E32">
-        <f t="shared" si="25"/>
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <f t="shared" si="26"/>
-        <v>-1</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="27"/>
-        <v>-1</v>
-      </c>
-      <c r="H32">
-        <f t="shared" si="28"/>
-        <v>1</v>
-      </c>
-      <c r="I32" s="10">
-        <f>H6</f>
-        <v>15.41</v>
-      </c>
-      <c r="J32" t="s">
-        <v>82</v>
-      </c>
-      <c r="K32">
-        <f>K16-$N$9</f>
-        <v>-2.3798167921021713</v>
-      </c>
-      <c r="L32" s="7">
-        <f>K16+$N$9</f>
-        <v>5.4914834587688413</v>
-      </c>
-      <c r="M32" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="N32" s="19">
-        <f>K32/2</f>
-        <v>-1.1899083960510857</v>
-      </c>
-      <c r="O32" s="20">
-        <f t="shared" si="23"/>
-        <v>2.7457417293844206</v>
-      </c>
-      <c r="P32" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q32" s="1">
-        <f>K17/2</f>
-        <v>-0.23208333333333245</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B33">
-        <f t="shared" ref="B33:D33" si="32">C7</f>
-        <v>1</v>
-      </c>
-      <c r="C33">
-        <f t="shared" si="32"/>
-        <v>-1</v>
-      </c>
-      <c r="D33">
-        <f t="shared" si="32"/>
-        <v>1</v>
-      </c>
-      <c r="E33">
-        <f t="shared" si="25"/>
-        <v>-1</v>
-      </c>
-      <c r="F33">
-        <f t="shared" si="26"/>
-        <v>-1</v>
-      </c>
-      <c r="G33">
-        <f t="shared" si="27"/>
-        <v>1</v>
-      </c>
-      <c r="H33">
-        <f t="shared" si="28"/>
-        <v>-1</v>
-      </c>
-      <c r="I33" s="10">
-        <f>H7</f>
-        <v>36.99</v>
-      </c>
-      <c r="J33" t="s">
-        <v>83</v>
-      </c>
-      <c r="K33">
-        <f>K17-$N$9</f>
-        <v>-4.3998167921021709</v>
-      </c>
-      <c r="L33" s="7">
-        <f>K17+$N$9</f>
-        <v>3.4714834587688412</v>
-      </c>
-      <c r="M33" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="N33" s="19">
-        <f>K33/2</f>
-        <v>-2.1999083960510855</v>
-      </c>
-      <c r="O33" s="20">
-        <f t="shared" si="23"/>
-        <v>1.7357417293844206</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B34">
-        <f t="shared" ref="B34:D34" si="33">C8</f>
+        <f t="shared" ref="B34:D34" si="43">C8</f>
         <v>-1</v>
       </c>
       <c r="C34">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="35"/>
+        <v>-1</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="37"/>
+        <v>-1</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="38"/>
+        <v>-1</v>
+      </c>
+      <c r="I34" s="10">
         <f t="shared" si="33"/>
-        <v>1</v>
-      </c>
-      <c r="D34">
-        <f t="shared" si="33"/>
-        <v>1</v>
-      </c>
-      <c r="E34">
-        <f t="shared" si="25"/>
-        <v>-1</v>
-      </c>
-      <c r="F34">
-        <f t="shared" si="26"/>
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <f t="shared" si="27"/>
-        <v>-1</v>
-      </c>
-      <c r="H34">
-        <f t="shared" si="28"/>
-        <v>-1</v>
-      </c>
-      <c r="I34" s="10">
-        <f>H8</f>
         <v>50.29</v>
       </c>
       <c r="M34" s="7"/>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B35">
-        <f t="shared" ref="B35:D35" si="34">C9</f>
+        <f t="shared" ref="B35:D35" si="44">C9</f>
         <v>1</v>
       </c>
       <c r="C35">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="D35">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="E35">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="F35">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="G35">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="H35">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="I35" s="10">
-        <f>H9</f>
+        <f t="shared" si="33"/>
         <v>74.680000000000007</v>
       </c>
       <c r="M35" s="7"/>
+      <c r="Q35" t="s">
+        <v>3</v>
+      </c>
+      <c r="R35" t="s">
+        <v>5</v>
+      </c>
+      <c r="S35" t="s">
+        <v>7</v>
+      </c>
+      <c r="T35" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="Q36">
+        <v>1</v>
+      </c>
+      <c r="R36">
+        <v>-1</v>
+      </c>
+      <c r="S36">
+        <v>-1</v>
+      </c>
+      <c r="T36">
+        <f>Q26+Q27*Q36+S36*Q29+Q31*R36*S36</f>
+        <v>78.956666666666649</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B37" t="str" cm="1">
+        <f t="array" ref="B37:H38">TRANSPOSE(J11:K17)</f>
+        <v>E1</v>
+      </c>
+      <c r="C37" t="str">
+        <v>E2</v>
+      </c>
+      <c r="D37" t="str">
+        <v>E3</v>
+      </c>
+      <c r="E37" t="str">
+        <v>E12</v>
+      </c>
+      <c r="F37" t="str">
+        <v>E23</v>
+      </c>
+      <c r="G37" t="str">
+        <v>E13</v>
+      </c>
+      <c r="H37" t="str">
+        <v>E123</v>
+      </c>
+    </row>
+    <row r="38" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B38">
+        <v>21.46916666666667</v>
+      </c>
+      <c r="C38">
+        <v>1.1041666666666672</v>
+      </c>
+      <c r="D38">
+        <v>-8.072499999999998</v>
+      </c>
+      <c r="E38">
+        <v>2.1625000000000001</v>
+      </c>
+      <c r="F38">
+        <v>28.634166666666669</v>
+      </c>
+      <c r="G38">
+        <v>1.5558333333333347</v>
+      </c>
+      <c r="H38">
+        <v>-0.4641666666666649</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="K19:K25">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
       <formula>$L$19</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
       <formula>$M$19</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4072,4 +7308,1077 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D9BEF8B-69CA-4F86-AD0A-3E25766E2F37}">
+  <dimension ref="B1:Q28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27:F28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="9" max="11" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L1" t="s">
+        <v>94</v>
+      </c>
+      <c r="P1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>-1</v>
+      </c>
+      <c r="D2">
+        <v>-1</v>
+      </c>
+      <c r="E2">
+        <v>-1</v>
+      </c>
+      <c r="F2">
+        <v>61.43</v>
+      </c>
+      <c r="G2">
+        <v>58.58</v>
+      </c>
+      <c r="H2">
+        <v>57.07</v>
+      </c>
+      <c r="I2">
+        <f>100-F2</f>
+        <v>38.57</v>
+      </c>
+      <c r="J2">
+        <f t="shared" ref="J2:K2" si="0">100-G2</f>
+        <v>41.42</v>
+      </c>
+      <c r="K2">
+        <f t="shared" si="0"/>
+        <v>42.93</v>
+      </c>
+      <c r="L2" cm="1">
+        <f t="array" ref="L2">-10*LOG10(SUM((I2:K2)^2)/3)</f>
+        <v>-32.25847180659887</v>
+      </c>
+      <c r="N2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2">
+        <f>C21</f>
+        <v>4.1049207855529346</v>
+      </c>
+      <c r="P2">
+        <f>((_xlfn.RANK.EQ(O2,$O$2:$O$8,1)-0.5)/7)*100</f>
+        <v>78.571428571428569</v>
+      </c>
+      <c r="Q2">
+        <f>_xlfn.NORM.INV(P2/100,0,$N$21)</f>
+        <v>0.1848395099249342</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>-1</v>
+      </c>
+      <c r="E3">
+        <v>-1</v>
+      </c>
+      <c r="F3">
+        <v>75.62</v>
+      </c>
+      <c r="G3">
+        <v>77.569999999999993</v>
+      </c>
+      <c r="H3">
+        <v>75.75</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I9" si="1">100-F3</f>
+        <v>24.379999999999995</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J9" si="2">100-G3</f>
+        <v>22.430000000000007</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K9" si="3">100-H3</f>
+        <v>24.25</v>
+      </c>
+      <c r="L3" cm="1">
+        <f t="array" ref="L3">-10*LOG10(SUM((I3:K3)^2)/3)</f>
+        <v>-27.4962084898306</v>
+      </c>
+      <c r="N3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O3">
+        <f>D21</f>
+        <v>-0.14022283984064288</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P8" si="4">((_xlfn.RANK.EQ(O3,$O$2:$O$8,1)-0.5)/7)*100</f>
+        <v>21.428571428571427</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q8" si="5">_xlfn.NORM.INV(P3/100,0,$N$21)</f>
+        <v>-0.1848395099249342</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>-1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>-1</v>
+      </c>
+      <c r="F4">
+        <v>27.51</v>
+      </c>
+      <c r="G4">
+        <v>34.03</v>
+      </c>
+      <c r="H4">
+        <v>25.07</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>72.489999999999995</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="2"/>
+        <v>65.97</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="3"/>
+        <v>74.930000000000007</v>
+      </c>
+      <c r="L4" cm="1">
+        <f t="array" ref="L4">-10*LOG10(SUM((I4:K4)^2)/3)</f>
+        <v>-37.053318005467176</v>
+      </c>
+      <c r="N4" t="s">
+        <v>96</v>
+      </c>
+      <c r="O4">
+        <f>E21</f>
+        <v>-1.431468532634689</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="4"/>
+        <v>7.1428571428571423</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="5"/>
+        <v>-0.34211708918224021</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>-1</v>
+      </c>
+      <c r="F5">
+        <v>51.37</v>
+      </c>
+      <c r="G5">
+        <v>48.49</v>
+      </c>
+      <c r="H5">
+        <v>54.37</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>48.63</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="2"/>
+        <v>51.51</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="3"/>
+        <v>45.63</v>
+      </c>
+      <c r="L5" cm="1">
+        <f t="array" ref="L5">-10*LOG10(SUM((I5:K5)^2)/3)</f>
+        <v>-33.741526243370735</v>
+      </c>
+      <c r="N5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O5">
+        <f>F21</f>
+        <v>0.37320298613974145</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>-1</v>
+      </c>
+      <c r="D6">
+        <v>-1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>24.8</v>
+      </c>
+      <c r="G6">
+        <v>20.69</v>
+      </c>
+      <c r="H6">
+        <v>15.41</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>75.2</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="2"/>
+        <v>79.31</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="3"/>
+        <v>84.59</v>
+      </c>
+      <c r="L6" cm="1">
+        <f t="array" ref="L6">-10*LOG10(SUM((I6:K6)^2)/3)</f>
+        <v>-38.039253958242064</v>
+      </c>
+      <c r="N6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6">
+        <f>G21</f>
+        <v>5.3798591363635779</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="4"/>
+        <v>92.857142857142861</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="5"/>
+        <v>0.34211708918224032</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>-1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>43.58</v>
+      </c>
+      <c r="G7">
+        <v>44.31</v>
+      </c>
+      <c r="H7">
+        <v>36.99</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>56.42</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="2"/>
+        <v>55.69</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="3"/>
+        <v>63.01</v>
+      </c>
+      <c r="L7" cm="1">
+        <f t="array" ref="L7">-10*LOG10(SUM((I7:K7)^2)/3)</f>
+        <v>-35.338081676183947</v>
+      </c>
+      <c r="N7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7">
+        <f>H21</f>
+        <v>6.7893246120579676E-2</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="4"/>
+        <v>35.714285714285715</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="5"/>
+        <v>-8.5482086029534915E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>-1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>45.2</v>
+      </c>
+      <c r="G8">
+        <v>49.53</v>
+      </c>
+      <c r="H8">
+        <v>50.29</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>54.8</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="2"/>
+        <v>50.47</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="3"/>
+        <v>49.71</v>
+      </c>
+      <c r="L8" cm="1">
+        <f t="array" ref="L8">-10*LOG10(SUM((I8:K8)^2)/3)</f>
+        <v>-34.271259411334526</v>
+      </c>
+      <c r="N8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O8">
+        <f>L21</f>
+        <v>1.0984387634756558</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="4"/>
+        <v>64.285714285714292</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="5"/>
+        <v>8.5482086029534943E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>70.510000000000005</v>
+      </c>
+      <c r="G9">
+        <v>74</v>
+      </c>
+      <c r="H9">
+        <v>74.680000000000007</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>29.489999999999995</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="3"/>
+        <v>25.319999999999993</v>
+      </c>
+      <c r="L9" cm="1">
+        <f t="array" ref="L9">-10*LOG10(SUM((I9:K9)^2)/3)</f>
+        <v>-28.626803630045615</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" t="s">
+        <v>15</v>
+      </c>
+      <c r="M11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <f>C2</f>
+        <v>-1</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ref="D12:E12" si="6">D2</f>
+        <v>-1</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="F12">
+        <f>C12*D12</f>
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <f>D12*E12</f>
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <f>C12*E12</f>
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <f>C12*D12*E12</f>
+        <v>-1</v>
+      </c>
+      <c r="M12">
+        <f>L2</f>
+        <v>-32.25847180659887</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13:E13" si="7">C3</f>
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="F13">
+        <f t="shared" ref="F13:F19" si="8">C13*D13</f>
+        <v>-1</v>
+      </c>
+      <c r="G13">
+        <f t="shared" ref="G13:G19" si="9">D13*E13</f>
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <f t="shared" ref="H13:H19" si="10">C13*E13</f>
+        <v>-1</v>
+      </c>
+      <c r="L13">
+        <f t="shared" ref="L13:L19" si="11">C13*D13*E13</f>
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <f t="shared" ref="M13:M19" si="12">L3</f>
+        <v>-27.4962084898306</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ref="C14:E14" si="13">C4</f>
+        <v>-1</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="12"/>
+        <v>-37.053318005467176</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ref="C15:E15" si="14">C5</f>
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="12"/>
+        <v>-33.741526243370735</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ref="C16:E16" si="15">C6</f>
+        <v>-1</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="12"/>
+        <v>-38.039253958242064</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ref="C17:E17" si="16">C7</f>
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="12"/>
+        <v>-35.338081676183947</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B18">
+        <v>7</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ref="C18:E18" si="17">C8</f>
+        <v>-1</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="12"/>
+        <v>-34.271259411334526</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B19">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ref="C19:E19" si="18">C9</f>
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="12"/>
+        <v>-28.626803630045615</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" t="s">
+        <v>95</v>
+      </c>
+      <c r="E20" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L20" t="s">
+        <v>22</v>
+      </c>
+      <c r="M20" t="s">
+        <v>97</v>
+      </c>
+      <c r="N20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="C21">
+        <f>SUMPRODUCT(C12:C19,$M$12:$M$19)/4</f>
+        <v>4.1049207855529346</v>
+      </c>
+      <c r="D21" s="24">
+        <f t="shared" ref="D21:L21" si="19">SUMPRODUCT(D12:D19,$M$12:$M$19)/4</f>
+        <v>-0.14022283984064288</v>
+      </c>
+      <c r="E21" s="24">
+        <f t="shared" si="19"/>
+        <v>-1.431468532634689</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="19"/>
+        <v>0.37320298613974145</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="19"/>
+        <v>5.3798591363635779</v>
+      </c>
+      <c r="H21" s="24">
+        <f t="shared" si="19"/>
+        <v>6.7893246120579676E-2</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="19"/>
+        <v>1.0984387634756558</v>
+      </c>
+      <c r="M21">
+        <f>(D21^2+F21^2+H21^2)/3</f>
+        <v>5.4517468848461419E-2</v>
+      </c>
+      <c r="N21">
+        <f>M21^0.5</f>
+        <v>0.23348976176368294</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22" t="s">
+        <v>99</v>
+      </c>
+      <c r="N22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23">
+        <f>(C21-0)/$N$21</f>
+        <v>17.580731397154626</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ref="D23:L23" si="20">(D21-0)/$N$21</f>
+        <v>-0.60055241301142637</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="20"/>
+        <v>-6.1307550353470788</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="20"/>
+        <v>1.598369809968214</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="20"/>
+        <v>23.041092233451252</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="20"/>
+        <v>0.290776116296247</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="20"/>
+        <v>4.7044408079331355</v>
+      </c>
+      <c r="M23">
+        <f>_xlfn.T.INV(0.005,3)</f>
+        <v>-5.8409093097333571</v>
+      </c>
+      <c r="N23">
+        <f>_xlfn.T.INV(0.995,3)</f>
+        <v>5.8409093097333553</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24" t="s">
+        <v>89</v>
+      </c>
+      <c r="F24" t="s">
+        <v>55</v>
+      </c>
+      <c r="G24" t="s">
+        <v>56</v>
+      </c>
+      <c r="H24" t="s">
+        <v>56</v>
+      </c>
+      <c r="L24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B25" s="25">
+        <f>SUM(L2:L9)/8</f>
+        <v>-33.353115402634195</v>
+      </c>
+      <c r="C25" s="25">
+        <f>C21/2</f>
+        <v>2.0524603927764673</v>
+      </c>
+      <c r="D25">
+        <f t="shared" ref="D25:L25" si="21">D21/2</f>
+        <v>-7.0111419920321438E-2</v>
+      </c>
+      <c r="E25" s="25">
+        <f t="shared" si="21"/>
+        <v>-0.71573426631734449</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="21"/>
+        <v>0.18660149306987073</v>
+      </c>
+      <c r="G25" s="25">
+        <f t="shared" si="21"/>
+        <v>2.689929568181789</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="21"/>
+        <v>3.3946623060289838E-2</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="21"/>
+        <v>0.54921938173782792</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="C27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>-1</v>
+      </c>
+      <c r="E28">
+        <v>-1</v>
+      </c>
+      <c r="F28">
+        <f>B25+C25*C28+E25*E28+G25*D28*E28</f>
+        <v>-27.894991175358594</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="C23:L23">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>$M$23</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+      <formula>$N$23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/統計管制與最佳化方法概論/homework/my_homework/HW12/hw_12.xlsx
+++ b/統計管制與最佳化方法概論/homework/my_homework/HW12/hw_12.xlsx
@@ -5,20 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Documents\institute_information\統計管制與最佳化方法概論\homework\my_homework\HW12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOLab\Documents\研究所資料\統計管制與最佳化方法概論\homework\my_homework\HW12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F28BF60-3B02-4E73-9062-F50ACAEC2E07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{786A0E9D-66A0-417C-B787-00F9D7781984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3200" yWindow="3010" windowWidth="19200" windowHeight="11460" activeTab="1" xr2:uid="{CB8A175E-6191-4478-A7B3-8E35534C3B7C}"/>
+    <workbookView xWindow="5550" yWindow="2265" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{CB8A175E-6191-4478-A7B3-8E35534C3B7C}"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
-    <sheet name="工作表2" sheetId="2" r:id="rId2"/>
+    <sheet name="1-1" sheetId="1" r:id="rId1"/>
+    <sheet name="1-2" sheetId="2" r:id="rId2"/>
+    <sheet name="2-1" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="0" hidden="1">工作表1!$Q$36:$S$36</definedName>
-    <definedName name="solver_adj" localSheetId="1" hidden="1">工作表2!$C$28:$E$28</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">'1-1'!$Q$36:$S$36</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">'1-2'!$C$28:$E$28</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
@@ -29,18 +30,18 @@
     <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="0" hidden="1">工作表1!$Q$36</definedName>
-    <definedName name="solver_lhs1" localSheetId="1" hidden="1">工作表2!$C$28</definedName>
-    <definedName name="solver_lhs2" localSheetId="0" hidden="1">工作表1!$Q$36</definedName>
-    <definedName name="solver_lhs2" localSheetId="1" hidden="1">工作表2!$C$28</definedName>
-    <definedName name="solver_lhs3" localSheetId="0" hidden="1">工作表1!$R$36</definedName>
-    <definedName name="solver_lhs3" localSheetId="1" hidden="1">工作表2!$D$28</definedName>
-    <definedName name="solver_lhs4" localSheetId="0" hidden="1">工作表1!$R$36</definedName>
-    <definedName name="solver_lhs4" localSheetId="1" hidden="1">工作表2!$D$28</definedName>
-    <definedName name="solver_lhs5" localSheetId="0" hidden="1">工作表1!$S$36</definedName>
-    <definedName name="solver_lhs5" localSheetId="1" hidden="1">工作表2!$E$28</definedName>
-    <definedName name="solver_lhs6" localSheetId="0" hidden="1">工作表1!$S$36</definedName>
-    <definedName name="solver_lhs6" localSheetId="1" hidden="1">工作表2!$E$28</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">'1-1'!$Q$36</definedName>
+    <definedName name="solver_lhs1" localSheetId="1" hidden="1">'1-2'!$C$28</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">'1-1'!$Q$36</definedName>
+    <definedName name="solver_lhs2" localSheetId="1" hidden="1">'1-2'!$C$28</definedName>
+    <definedName name="solver_lhs3" localSheetId="0" hidden="1">'1-1'!$R$36</definedName>
+    <definedName name="solver_lhs3" localSheetId="1" hidden="1">'1-2'!$D$28</definedName>
+    <definedName name="solver_lhs4" localSheetId="0" hidden="1">'1-1'!$R$36</definedName>
+    <definedName name="solver_lhs4" localSheetId="1" hidden="1">'1-2'!$D$28</definedName>
+    <definedName name="solver_lhs5" localSheetId="0" hidden="1">'1-1'!$S$36</definedName>
+    <definedName name="solver_lhs5" localSheetId="1" hidden="1">'1-2'!$E$28</definedName>
+    <definedName name="solver_lhs6" localSheetId="0" hidden="1">'1-1'!$S$36</definedName>
+    <definedName name="solver_lhs6" localSheetId="1" hidden="1">'1-2'!$E$28</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
@@ -57,8 +58,8 @@
     <definedName name="solver_num" localSheetId="1" hidden="1">6</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">工作表1!$T$36</definedName>
-    <definedName name="solver_opt" localSheetId="1" hidden="1">工作表2!$F$28</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">'1-1'!$T$36</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">'1-2'!$F$28</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
@@ -149,7 +150,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="131">
   <si>
     <t>test</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -595,6 +596,112 @@
   </si>
   <si>
     <t>SN_hat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X1</t>
+  </si>
+  <si>
+    <t>X2</t>
+  </si>
+  <si>
+    <t>Run1</t>
+  </si>
+  <si>
+    <t>Run2</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>var</t>
+  </si>
+  <si>
+    <t>x4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x3x4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x1x4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x2x4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x1x2x4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x2x3x4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x1x2x3x4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effects</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E124</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x1x3x4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E134</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_E^2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_5,0.005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_5,0.995</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p-value</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -689,7 +796,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -717,13 +824,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -802,11 +935,47 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -963,7 +1132,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>工作表1!$M$11:$M$17</c:f>
+              <c:f>'1-1'!$M$11:$M$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -993,7 +1162,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>工作表1!$K$11:$K$17</c:f>
+              <c:f>'1-1'!$K$11:$K$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1033,7 +1202,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表1!$K$11:$K$17</c:f>
+              <c:f>'1-1'!$K$11:$K$17</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -1074,7 +1243,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>工作表1!$K$11:$K$17</c:f>
+              <c:f>'1-1'!$K$11:$K$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1104,7 +1273,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>工作表1!$K$11:$K$17</c:f>
+              <c:f>'1-1'!$K$11:$K$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1413,7 +1582,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>工作表1!$O$9</c:f>
+                <c:f>'1-1'!$O$9</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
@@ -1425,7 +1594,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>工作表1!$O$9</c:f>
+                <c:f>'1-1'!$O$9</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
@@ -1451,7 +1620,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>工作表1!$P$26:$P$33</c:f>
+              <c:f>'1-1'!$P$26:$P$33</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -1483,7 +1652,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$Q$26:$Q$33</c:f>
+              <c:f>'1-1'!$Q$26:$Q$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1763,7 +1932,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>工作表2!$C$20:$L$20</c:f>
+              <c:f>'1-2'!$C$20:$L$20</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -1792,7 +1961,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表2!$C$21:$L$21</c:f>
+              <c:f>'1-2'!$C$21:$L$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1844,7 +2013,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>工作表2!$C$22:$L$22</c:f>
+              <c:f>'1-2'!$C$22:$L$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2154,7 +2323,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>工作表2!$O$2:$O$8</c:f>
+              <c:f>'1-2'!$O$2:$O$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2184,7 +2353,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>工作表2!$Q$2:$Q$8</c:f>
+              <c:f>'1-2'!$Q$2:$Q$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2236,7 +2405,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>工作表2!$O$2:$O$8</c:f>
+              <c:f>'1-2'!$O$2:$O$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2266,7 +2435,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>工作表2!$O$2:$O$8</c:f>
+              <c:f>'1-2'!$O$2:$O$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -5156,16 +5325,16 @@
       <selection activeCell="Q35" sqref="Q35:T36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="13.7265625" customWidth="1"/>
-    <col min="11" max="11" width="16.08984375" customWidth="1"/>
-    <col min="12" max="14" width="13.453125" customWidth="1"/>
+    <col min="10" max="10" width="13.75" customWidth="1"/>
+    <col min="11" max="11" width="16.125" customWidth="1"/>
+    <col min="12" max="14" width="13.5" customWidth="1"/>
     <col min="15" max="15" width="14" customWidth="1"/>
-    <col min="17" max="17" width="12.36328125" customWidth="1"/>
+    <col min="17" max="17" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -5204,7 +5373,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="2:24" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>1</v>
       </c>
@@ -5242,7 +5411,7 @@
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
     </row>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>2</v>
       </c>
@@ -5284,7 +5453,7 @@
       </c>
       <c r="Q3" s="4"/>
     </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>3</v>
       </c>
@@ -5328,7 +5497,7 @@
         <v>0.98944603157237543</v>
       </c>
     </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>4</v>
       </c>
@@ -5372,7 +5541,7 @@
         <v>0.97900344939432205</v>
       </c>
     </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>5</v>
       </c>
@@ -5417,7 +5586,7 @@
         <v>0.96981745850433798</v>
       </c>
     </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>6</v>
       </c>
@@ -5466,7 +5635,7 @@
         <v>3.3006009553817135</v>
       </c>
     </row>
-    <row r="8" spans="2:24" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>7</v>
       </c>
@@ -5518,7 +5687,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>8</v>
       </c>
@@ -5567,7 +5736,7 @@
         <v>1.9678250627177531</v>
       </c>
     </row>
-    <row r="10" spans="2:24" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L10" s="1" t="s">
         <v>79</v>
       </c>
@@ -5578,7 +5747,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>3</v>
       </c>
@@ -5635,7 +5804,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B12">
         <f>C2</f>
         <v>-1</v>
@@ -5702,7 +5871,7 @@
         <v>3.2000830664664587E-12</v>
       </c>
     </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B13">
         <f t="shared" ref="B13:D13" si="5">C3</f>
         <v>1</v>
@@ -5765,7 +5934,7 @@
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
     </row>
-    <row r="14" spans="2:24" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14">
         <f t="shared" ref="B14:D14" si="11">C4</f>
         <v>-1</v>
@@ -5826,7 +5995,7 @@
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
     </row>
-    <row r="15" spans="2:24" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15">
         <f t="shared" ref="B15:D15" si="12">C5</f>
         <v>1</v>
@@ -5875,7 +6044,7 @@
         <v>1.9743508092834146</v>
       </c>
     </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B16">
         <f t="shared" ref="B16:D16" si="13">C6</f>
         <v>-1</v>
@@ -5949,7 +6118,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B17">
         <f t="shared" ref="B17:D17" si="14">C7</f>
         <v>1</v>
@@ -6025,7 +6194,7 @@
         <v>51.836575062717763</v>
       </c>
     </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B18">
         <f t="shared" ref="B18:D18" si="15">C8</f>
         <v>-1</v>
@@ -6094,7 +6263,7 @@
         <v>12.702408396051094</v>
       </c>
     </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B19">
         <f t="shared" ref="B19:D19" si="16">C9</f>
         <v>1</v>
@@ -6172,7 +6341,7 @@
         <v>2.5199083960510946</v>
       </c>
     </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B20">
         <f>C2</f>
         <v>-1</v>
@@ -6250,7 +6419,7 @@
         <v>-2.0684249372822361</v>
       </c>
     </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B21">
         <f t="shared" ref="B21:D27" si="22">C3</f>
         <v>1</v>
@@ -6328,7 +6497,7 @@
         <v>3.0490750627177619</v>
       </c>
     </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B22">
         <f t="shared" si="22"/>
         <v>-1</v>
@@ -6406,7 +6575,7 @@
         <v>16.284908396051097</v>
       </c>
     </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B23">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -6484,7 +6653,7 @@
         <v>2.7457417293844277</v>
       </c>
     </row>
-    <row r="24" spans="2:24" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24">
         <f t="shared" si="22"/>
         <v>-1</v>
@@ -6562,7 +6731,7 @@
         <v>1.7357417293844271</v>
       </c>
     </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B25">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -6627,7 +6796,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B26">
         <f t="shared" si="22"/>
         <v>-1</v>
@@ -6683,7 +6852,7 @@
         <v>reject</v>
       </c>
     </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B27">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -6748,7 +6917,7 @@
         <v>reject</v>
       </c>
     </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B28">
         <f>C2</f>
         <v>-1</v>
@@ -6813,7 +6982,7 @@
         <v>accept</v>
       </c>
     </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B29">
         <f t="shared" ref="B29:D29" si="34">C3</f>
         <v>1</v>
@@ -6881,7 +7050,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B30">
         <f t="shared" ref="B30:D30" si="39">C4</f>
         <v>-1</v>
@@ -6949,7 +7118,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B31">
         <f t="shared" ref="B31:D31" si="40">C5</f>
         <v>1</v>
@@ -7017,7 +7186,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B32">
         <f t="shared" ref="B32:D32" si="41">C6</f>
         <v>-1</v>
@@ -7085,7 +7254,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B33">
         <f t="shared" ref="B33:D33" si="42">C7</f>
         <v>1</v>
@@ -7150,7 +7319,7 @@
         <v>accept</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B34">
         <f t="shared" ref="B34:D34" si="43">C8</f>
         <v>-1</v>
@@ -7185,7 +7354,7 @@
       </c>
       <c r="M34" s="7"/>
     </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B35">
         <f t="shared" ref="B35:D35" si="44">C9</f>
         <v>1</v>
@@ -7232,7 +7401,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:20" x14ac:dyDescent="0.25">
       <c r="Q36">
         <v>1</v>
       </c>
@@ -7247,7 +7416,7 @@
         <v>78.956666666666649</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B37" t="str" cm="1">
         <f t="array" ref="B37:H38">TRANSPOSE(J11:K17)</f>
         <v>E1</v>
@@ -7271,7 +7440,7 @@
         <v>E123</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>21.46916666666667</v>
       </c>
@@ -7297,10 +7466,10 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="K19:K25">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
       <formula>$L$19</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThan">
       <formula>$M$19</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7314,16 +7483,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D9BEF8B-69CA-4F86-AD0A-3E25766E2F37}">
   <dimension ref="B1:Q28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C27" sqref="C27:F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="9" max="11" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -7355,7 +7524,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>1</v>
       </c>
@@ -7409,7 +7578,7 @@
         <v>0.1848395099249342</v>
       </c>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>2</v>
       </c>
@@ -7463,7 +7632,7 @@
         <v>-0.1848395099249342</v>
       </c>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>3</v>
       </c>
@@ -7517,7 +7686,7 @@
         <v>-0.34211708918224021</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>4</v>
       </c>
@@ -7571,7 +7740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>5</v>
       </c>
@@ -7625,7 +7794,7 @@
         <v>0.34211708918224032</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>6</v>
       </c>
@@ -7679,7 +7848,7 @@
         <v>-8.5482086029534915E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>7</v>
       </c>
@@ -7733,7 +7902,7 @@
         <v>8.5482086029534943E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>8</v>
       </c>
@@ -7772,7 +7941,7 @@
         <v>-28.626803630045615</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>0</v>
       </c>
@@ -7801,7 +7970,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>1</v>
       </c>
@@ -7838,7 +8007,7 @@
         <v>-32.25847180659887</v>
       </c>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>2</v>
       </c>
@@ -7875,7 +8044,7 @@
         <v>-27.4962084898306</v>
       </c>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>3</v>
       </c>
@@ -7912,7 +8081,7 @@
         <v>-37.053318005467176</v>
       </c>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>4</v>
       </c>
@@ -7949,7 +8118,7 @@
         <v>-33.741526243370735</v>
       </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>5</v>
       </c>
@@ -7986,7 +8155,7 @@
         <v>-38.039253958242064</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>6</v>
       </c>
@@ -8023,7 +8192,7 @@
         <v>-35.338081676183947</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>7</v>
       </c>
@@ -8060,7 +8229,7 @@
         <v>-34.271259411334526</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>8</v>
       </c>
@@ -8097,7 +8266,7 @@
         <v>-28.626803630045615</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>16</v>
       </c>
@@ -8126,7 +8295,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C21">
         <f>SUMPRODUCT(C12:C19,$M$12:$M$19)/4</f>
         <v>4.1049207855529346</v>
@@ -8176,7 +8345,7 @@
         <v>0.23348976176368294</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C22">
         <v>0</v>
       </c>
@@ -8214,7 +8383,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>98</v>
       </c>
@@ -8267,7 +8436,7 @@
         <v>5.8409093097333553</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>82</v>
       </c>
@@ -8293,7 +8462,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="25">
         <f>SUM(L2:L9)/8</f>
         <v>-33.353115402634195</v>
@@ -8339,7 +8508,7 @@
         <v>0.54921938173782792</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>3</v>
       </c>
@@ -8353,7 +8522,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C28">
         <v>1</v>
       </c>
@@ -8371,14 +8540,1955 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C23:L23">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
       <formula>$M$23</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
       <formula>$N$23</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5508E73-7190-449A-8923-B8B0FDD3E2C3}">
+  <dimension ref="A1:R40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:K39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>-1</v>
+      </c>
+      <c r="C2">
+        <v>-1</v>
+      </c>
+      <c r="D2">
+        <v>-1</v>
+      </c>
+      <c r="E2">
+        <v>-1</v>
+      </c>
+      <c r="F2">
+        <v>-1.44</v>
+      </c>
+      <c r="G2">
+        <v>-0.08</v>
+      </c>
+      <c r="H2">
+        <f>AVERAGE(F2:G2)</f>
+        <v>-0.76</v>
+      </c>
+      <c r="I2">
+        <f>_xlfn.VAR.S(F2:G2)</f>
+        <v>0.92480000000000007</v>
+      </c>
+      <c r="J2">
+        <f>10*LOG(H2^2/I2)</f>
+        <v>-2.0442063651487121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>-1</v>
+      </c>
+      <c r="D3">
+        <v>-1</v>
+      </c>
+      <c r="E3">
+        <v>-1</v>
+      </c>
+      <c r="F3">
+        <v>-1.79</v>
+      </c>
+      <c r="G3">
+        <v>-1.01</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H17" si="0">AVERAGE(F3:G3)</f>
+        <v>-1.4</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I17" si="1">_xlfn.VAR.S(F3:G3)</f>
+        <v>0.30420000000000025</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J17" si="2">10*LOG(H3^2/I3)</f>
+        <v>8.0909686163949601</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>-1</v>
+      </c>
+      <c r="E4">
+        <v>-1</v>
+      </c>
+      <c r="F4">
+        <v>0.39</v>
+      </c>
+      <c r="G4">
+        <v>0.17</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>2.4199999999999999E-2</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="2"/>
+        <v>5.1050069670400724</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>-1</v>
+      </c>
+      <c r="E5">
+        <v>-1</v>
+      </c>
+      <c r="F5">
+        <v>-0.5</v>
+      </c>
+      <c r="G5">
+        <v>-0.24</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>-0.37</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>3.3799999999999997E-2</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="2"/>
+        <v>6.0748674785633527</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>-1</v>
+      </c>
+      <c r="C6">
+        <v>-1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>-1</v>
+      </c>
+      <c r="F6">
+        <v>-0.2</v>
+      </c>
+      <c r="G6">
+        <v>0.17</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>6.8450000000000011E-2</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="2"/>
+        <v>-24.831909343586464</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>-1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>-1</v>
+      </c>
+      <c r="F7">
+        <v>-0.79</v>
+      </c>
+      <c r="G7">
+        <v>-0.64</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>-0.71500000000000008</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>1.124999999999976E-2</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="2"/>
+        <v>16.574595611547892</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>-1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>-1</v>
+      </c>
+      <c r="F8">
+        <v>1.22</v>
+      </c>
+      <c r="G8">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>0.44179999999999997</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="2"/>
+        <v>1.0489681524798404</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>-1</v>
+      </c>
+      <c r="F9">
+        <v>0.21</v>
+      </c>
+      <c r="G9">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>0.245</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>2.4500000000000077E-3</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="2"/>
+        <v>13.89166084364531</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>-1</v>
+      </c>
+      <c r="C10">
+        <v>-1</v>
+      </c>
+      <c r="D10">
+        <v>-1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>-0.4</v>
+      </c>
+      <c r="G10">
+        <v>-0.65</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>-0.52500000000000002</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="2"/>
+        <v>9.4546858513181977</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>-1</v>
+      </c>
+      <c r="D11">
+        <v>-1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>-0.63</v>
+      </c>
+      <c r="G11">
+        <v>-1.19</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>-0.90999999999999992</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>0.15680000000000027</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="2"/>
+        <v>7.2273672629376673</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>-1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>-1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.47</v>
+      </c>
+      <c r="G12">
+        <v>0.44</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>0.45499999999999996</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>4.4999999999999912E-4</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="2"/>
+        <v>26.628102795388816</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>-1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>-0.01</v>
+      </c>
+      <c r="G13">
+        <v>-0.03</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>-0.02</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>1.9999999999999998E-4</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="2"/>
+        <v>3.010299956639813</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>-1</v>
+      </c>
+      <c r="C14">
+        <v>-1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1.29</v>
+      </c>
+      <c r="G14">
+        <v>0.64</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>0.96500000000000008</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>0.21124999999999972</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="2"/>
+        <v>6.4425790906585583</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>-1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>-1.17</v>
+      </c>
+      <c r="G15">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>-0.5149999999999999</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>0.85805000000000009</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="2"/>
+        <v>-5.0989813756516558</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>-1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.48</v>
+      </c>
+      <c r="G16">
+        <v>1.06</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>0.77</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>0.16820000000000013</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="2"/>
+        <v>5.4715545888307009</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.4</v>
+      </c>
+      <c r="G17">
+        <v>0.34</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>0.37</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>1.8E-3</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="2"/>
+        <v>18.811309430306839</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" t="s">
+        <v>109</v>
+      </c>
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" t="s">
+        <v>111</v>
+      </c>
+      <c r="I19" t="s">
+        <v>11</v>
+      </c>
+      <c r="J19" t="s">
+        <v>112</v>
+      </c>
+      <c r="K19" t="s">
+        <v>110</v>
+      </c>
+      <c r="L19" t="s">
+        <v>15</v>
+      </c>
+      <c r="M19" t="s">
+        <v>113</v>
+      </c>
+      <c r="N19" t="s">
+        <v>124</v>
+      </c>
+      <c r="O19" t="s">
+        <v>114</v>
+      </c>
+      <c r="P19" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>-1</v>
+      </c>
+      <c r="C20">
+        <v>-1</v>
+      </c>
+      <c r="D20">
+        <v>-1</v>
+      </c>
+      <c r="E20">
+        <v>-1</v>
+      </c>
+      <c r="F20">
+        <f>B20*C20</f>
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <f>B20*D20</f>
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <f>B20*E20</f>
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <f>C20*D20</f>
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <f>C20*E20</f>
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <f>D20*E20</f>
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <f>B20*C20*D20</f>
+        <v>-1</v>
+      </c>
+      <c r="M20">
+        <f>B20*C20*E20</f>
+        <v>-1</v>
+      </c>
+      <c r="N20">
+        <f>B20*D20*E20</f>
+        <v>-1</v>
+      </c>
+      <c r="O20">
+        <f>C20*D20*E20</f>
+        <v>-1</v>
+      </c>
+      <c r="P20">
+        <f>B20*C20*D20*E20</f>
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <f>J2</f>
+        <v>-2.0442063651487121</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>-1</v>
+      </c>
+      <c r="D21">
+        <v>-1</v>
+      </c>
+      <c r="E21">
+        <v>-1</v>
+      </c>
+      <c r="F21">
+        <f t="shared" ref="F21:F35" si="3">B21*C21</f>
+        <v>-1</v>
+      </c>
+      <c r="G21">
+        <f t="shared" ref="G21:G35" si="4">B21*D21</f>
+        <v>-1</v>
+      </c>
+      <c r="H21">
+        <f t="shared" ref="H21:H35" si="5">B21*E21</f>
+        <v>-1</v>
+      </c>
+      <c r="I21">
+        <f t="shared" ref="I21:I35" si="6">C21*D21</f>
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <f t="shared" ref="J21:J35" si="7">C21*E21</f>
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <f t="shared" ref="K21:K35" si="8">D21*E21</f>
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <f t="shared" ref="L21:L35" si="9">B21*C21*D21</f>
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <f t="shared" ref="M21:M35" si="10">B21*C21*E21</f>
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <f t="shared" ref="N21:N35" si="11">B21*D21*E21</f>
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <f t="shared" ref="O21:O35" si="12">C21*D21*E21</f>
+        <v>-1</v>
+      </c>
+      <c r="P21">
+        <f t="shared" ref="P21:P35" si="13">B21*C21*D21*E21</f>
+        <v>-1</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" ref="Q21:Q35" si="14">J3</f>
+        <v>8.0909686163949601</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>-1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>-1</v>
+      </c>
+      <c r="E22">
+        <v>-1</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="14"/>
+        <v>5.1050069670400724</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>-1</v>
+      </c>
+      <c r="E23">
+        <v>-1</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="14"/>
+        <v>6.0748674785633527</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>5</v>
+      </c>
+      <c r="B24">
+        <v>-1</v>
+      </c>
+      <c r="C24">
+        <v>-1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>-1</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="14"/>
+        <v>-24.831909343586464</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>-1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>-1</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="14"/>
+        <v>16.574595611547892</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>7</v>
+      </c>
+      <c r="B26">
+        <v>-1</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>-1</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="14"/>
+        <v>1.0489681524798404</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>8</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>-1</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="14"/>
+        <v>13.89166084364531</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>9</v>
+      </c>
+      <c r="B28">
+        <v>-1</v>
+      </c>
+      <c r="C28">
+        <v>-1</v>
+      </c>
+      <c r="D28">
+        <v>-1</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="14"/>
+        <v>9.4546858513181977</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>10</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>-1</v>
+      </c>
+      <c r="D29">
+        <v>-1</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="14"/>
+        <v>7.2273672629376673</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>11</v>
+      </c>
+      <c r="B30">
+        <v>-1</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>-1</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="14"/>
+        <v>26.628102795388816</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>12</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>-1</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="14"/>
+        <v>3.010299956639813</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>13</v>
+      </c>
+      <c r="B32">
+        <v>-1</v>
+      </c>
+      <c r="C32">
+        <v>-1</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="14"/>
+        <v>6.4425790906585583</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>14</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>-1</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="14"/>
+        <v>-5.0989813756516558</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>15</v>
+      </c>
+      <c r="B34">
+        <v>-1</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="14"/>
+        <v>5.4715545888307009</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>16</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="14"/>
+        <v>18.811309430306839</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>116</v>
+      </c>
+      <c r="B36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" t="s">
+        <v>117</v>
+      </c>
+      <c r="F36" t="s">
+        <v>19</v>
+      </c>
+      <c r="G36" t="s">
+        <v>21</v>
+      </c>
+      <c r="H36" t="s">
+        <v>118</v>
+      </c>
+      <c r="I36" t="s">
+        <v>20</v>
+      </c>
+      <c r="J36" t="s">
+        <v>119</v>
+      </c>
+      <c r="K36" t="s">
+        <v>120</v>
+      </c>
+      <c r="L36" t="s">
+        <v>22</v>
+      </c>
+      <c r="M36" t="s">
+        <v>121</v>
+      </c>
+      <c r="N36" t="s">
+        <v>125</v>
+      </c>
+      <c r="O36" t="s">
+        <v>122</v>
+      </c>
+      <c r="P36" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>126</v>
+      </c>
+      <c r="R36" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <f>SUMPRODUCT(B20:B35,$Q$20:$Q$35)/8</f>
+        <v>5.1634132609253989</v>
+      </c>
+      <c r="C37">
+        <f t="shared" ref="C37:P37" si="15">SUMPRODUCT(C20:C35,$Q$20:$Q$35)/8</f>
+        <v>8.0283338580530383</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="15"/>
+        <v>-3.9046644456128949</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="15"/>
+        <v>6.0046207049365847</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="15"/>
+        <v>-4.2797869595714246</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="15"/>
+        <v>8.8484347444410414</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="15"/>
+        <v>-11.175145023916301</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="15"/>
+        <v>3.505968400020552</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="15"/>
+        <v>0.94557012742281255</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="15"/>
+        <v>-1.2688340874221198</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="15"/>
+        <v>3.3591627205257928</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="15"/>
+        <v>5.1524947239258925</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="15"/>
+        <v>-1.9376057938671765</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="15"/>
+        <v>-1.0102392334310841</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="15"/>
+        <v>8.2087871690129148</v>
+      </c>
+      <c r="Q37" cm="1">
+        <f t="array" ref="Q37">SUM((L37:P37)^2)/5</f>
+        <v>21.998252474079312</v>
+      </c>
+      <c r="R37">
+        <f>Q37^0.5</f>
+        <v>4.6902294692348807</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>98</v>
+      </c>
+      <c r="B38">
+        <f>(B37-0)/$R$37</f>
+        <v>1.1008871303193848</v>
+      </c>
+      <c r="C38">
+        <f t="shared" ref="C38:K38" si="16">(C37-0)/$R$37</f>
+        <v>1.7117145143354158</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="16"/>
+        <v>-0.83251032198428121</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="16"/>
+        <v>1.2802402834068844</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="16"/>
+        <v>-0.91248988725269942</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="16"/>
+        <v>1.8865675554856147</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="16"/>
+        <v>-2.3826435566145778</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="16"/>
+        <v>0.7475046632617065</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="16"/>
+        <v>0.20160423570428504</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="16"/>
+        <v>-0.27052708097651035</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>130</v>
+      </c>
+      <c r="B39">
+        <f>IF(_xlfn.T.DIST(B37,5,1)&gt;0.5,(1-_xlfn.T.DIST(B37,5,1))*2,_xlfn.T.DIST(B37,5,1)*2)</f>
+        <v>3.5745139247873592E-3</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ref="C39:K39" si="17">IF(_xlfn.T.DIST(C37,5,1)&gt;0.5,(1-_xlfn.T.DIST(C37,5,1))*2,_xlfn.T.DIST(C37,5,1)*2)</f>
+        <v>4.8480146406526536E-4</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="17"/>
+        <v>1.1355811123537271E-2</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="17"/>
+        <v>1.8397886366192662E-3</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="17"/>
+        <v>7.8651038810831943E-3</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="17"/>
+        <v>3.0641083091875743E-4</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="17"/>
+        <v>1.0011102377068635E-4</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="17"/>
+        <v>1.7174483602127033E-2</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="17"/>
+        <v>0.38778622202613411</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="17"/>
+        <v>0.2603597047125048</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="B40" s="27">
+        <f>_xlfn.T.INV(0.005,5)</f>
+        <v>-4.0321429835552278</v>
+      </c>
+      <c r="C40" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="D40" s="27">
+        <f>_xlfn.T.INV(0.995,5)</f>
+        <v>4.0321429835552269</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B38:K39">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>$B$40</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+      <formula>$D$40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/統計管制與最佳化方法概論/homework/my_homework/HW12/hw_12.xlsx
+++ b/統計管制與最佳化方法概論/homework/my_homework/HW12/hw_12.xlsx
@@ -8,106 +8,204 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOLab\Documents\研究所資料\統計管制與最佳化方法概論\homework\my_homework\HW12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{786A0E9D-66A0-417C-B787-00F9D7781984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA898317-3ACA-4F32-BEFF-A842123A184F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5550" yWindow="2265" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{CB8A175E-6191-4478-A7B3-8E35534C3B7C}"/>
+    <workbookView xWindow="240" yWindow="1695" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{CB8A175E-6191-4478-A7B3-8E35534C3B7C}"/>
   </bookViews>
   <sheets>
     <sheet name="1-1" sheetId="1" r:id="rId1"/>
     <sheet name="1-2" sheetId="2" r:id="rId2"/>
     <sheet name="2-1" sheetId="3" r:id="rId3"/>
+    <sheet name="2-1 check" sheetId="4" r:id="rId4"/>
+    <sheet name="2-2" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="0" hidden="1">'1-1'!$Q$36:$S$36</definedName>
     <definedName name="solver_adj" localSheetId="1" hidden="1">'1-2'!$C$28:$E$28</definedName>
+    <definedName name="solver_adj" localSheetId="2" hidden="1">'2-1'!$B$56:$E$56</definedName>
+    <definedName name="solver_adj" localSheetId="4" hidden="1">'2-2'!$B$61:$D$61</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="4" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="4" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">'1-1'!$Q$36</definedName>
     <definedName name="solver_lhs1" localSheetId="1" hidden="1">'1-2'!$C$28</definedName>
+    <definedName name="solver_lhs1" localSheetId="2" hidden="1">'2-1'!$B$56</definedName>
+    <definedName name="solver_lhs1" localSheetId="4" hidden="1">'2-2'!$B$61</definedName>
     <definedName name="solver_lhs2" localSheetId="0" hidden="1">'1-1'!$Q$36</definedName>
     <definedName name="solver_lhs2" localSheetId="1" hidden="1">'1-2'!$C$28</definedName>
+    <definedName name="solver_lhs2" localSheetId="2" hidden="1">'2-1'!$B$56</definedName>
+    <definedName name="solver_lhs2" localSheetId="4" hidden="1">'2-2'!$B$61</definedName>
     <definedName name="solver_lhs3" localSheetId="0" hidden="1">'1-1'!$R$36</definedName>
     <definedName name="solver_lhs3" localSheetId="1" hidden="1">'1-2'!$D$28</definedName>
+    <definedName name="solver_lhs3" localSheetId="2" hidden="1">'2-1'!$C$56</definedName>
+    <definedName name="solver_lhs3" localSheetId="4" hidden="1">'2-2'!$C$61</definedName>
     <definedName name="solver_lhs4" localSheetId="0" hidden="1">'1-1'!$R$36</definedName>
     <definedName name="solver_lhs4" localSheetId="1" hidden="1">'1-2'!$D$28</definedName>
+    <definedName name="solver_lhs4" localSheetId="2" hidden="1">'2-1'!$C$56</definedName>
+    <definedName name="solver_lhs4" localSheetId="4" hidden="1">'2-2'!$C$61</definedName>
     <definedName name="solver_lhs5" localSheetId="0" hidden="1">'1-1'!$S$36</definedName>
     <definedName name="solver_lhs5" localSheetId="1" hidden="1">'1-2'!$E$28</definedName>
+    <definedName name="solver_lhs5" localSheetId="2" hidden="1">'2-1'!$D$56</definedName>
+    <definedName name="solver_lhs5" localSheetId="4" hidden="1">'2-2'!$D$61</definedName>
     <definedName name="solver_lhs6" localSheetId="0" hidden="1">'1-1'!$S$36</definedName>
     <definedName name="solver_lhs6" localSheetId="1" hidden="1">'1-2'!$E$28</definedName>
+    <definedName name="solver_lhs6" localSheetId="2" hidden="1">'2-1'!$D$56</definedName>
+    <definedName name="solver_lhs6" localSheetId="4" hidden="1">'2-2'!$D$61</definedName>
+    <definedName name="solver_lhs7" localSheetId="2" hidden="1">'2-1'!$E$56</definedName>
+    <definedName name="solver_lhs8" localSheetId="2" hidden="1">'2-1'!$E$56</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="4" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="4" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="4" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="4" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">6</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">6</definedName>
+    <definedName name="solver_num" localSheetId="2" hidden="1">8</definedName>
+    <definedName name="solver_num" localSheetId="4" hidden="1">6</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">'1-1'!$T$36</definedName>
     <definedName name="solver_opt" localSheetId="1" hidden="1">'1-2'!$F$28</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">'2-1'!$F$56</definedName>
+    <definedName name="solver_opt" localSheetId="4" hidden="1">'2-2'!$E$61</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="4" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel2" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_rel2" localSheetId="4" hidden="1">3</definedName>
     <definedName name="solver_rel3" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel3" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel3" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rel3" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_rel4" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel4" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel4" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_rel4" localSheetId="4" hidden="1">3</definedName>
     <definedName name="solver_rel5" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel5" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel5" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rel5" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_rel6" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel6" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel6" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_rel6" localSheetId="4" hidden="1">3</definedName>
+    <definedName name="solver_rel7" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rel8" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rhs1" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rhs1" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rhs1" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_rhs2" localSheetId="0" hidden="1">-1</definedName>
     <definedName name="solver_rhs2" localSheetId="1" hidden="1">-1</definedName>
+    <definedName name="solver_rhs2" localSheetId="2" hidden="1">-1</definedName>
+    <definedName name="solver_rhs2" localSheetId="4" hidden="1">-1</definedName>
     <definedName name="solver_rhs3" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rhs3" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rhs3" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rhs3" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_rhs4" localSheetId="0" hidden="1">-1</definedName>
     <definedName name="solver_rhs4" localSheetId="1" hidden="1">-1</definedName>
+    <definedName name="solver_rhs4" localSheetId="2" hidden="1">-1</definedName>
+    <definedName name="solver_rhs4" localSheetId="4" hidden="1">-1</definedName>
     <definedName name="solver_rhs5" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rhs5" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rhs5" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rhs5" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_rhs6" localSheetId="0" hidden="1">-1</definedName>
     <definedName name="solver_rhs6" localSheetId="1" hidden="1">-1</definedName>
+    <definedName name="solver_rhs6" localSheetId="2" hidden="1">-1</definedName>
+    <definedName name="solver_rhs6" localSheetId="4" hidden="1">-1</definedName>
+    <definedName name="solver_rhs7" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rhs8" localSheetId="2" hidden="1">-1</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="4" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="4" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="4" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="4" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="4" hidden="1">3</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="4" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="4" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -128,7 +226,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -150,7 +248,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="150">
   <si>
     <t>test</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -704,6 +802,72 @@
     <t>p-value</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>t_5,0.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_5,0.95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b4</t>
+  </si>
+  <si>
+    <t>b14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b124</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b134</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x4</t>
+  </si>
+  <si>
+    <t>x1x4</t>
+  </si>
+  <si>
+    <t>x2x4</t>
+  </si>
+  <si>
+    <t>x3x4</t>
+  </si>
+  <si>
+    <t>x1x2x4</t>
+  </si>
+  <si>
+    <t>x1x3x4</t>
+  </si>
+  <si>
+    <t>x2x3x4</t>
+  </si>
+  <si>
+    <t>x1x2x3x4</t>
+  </si>
 </sst>
 </file>
 
@@ -945,17 +1109,7 @@
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2657,6 +2811,1834 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>Q-Q plot</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2-1'!$V$2:$V$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.8072414066441036</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.8611104263027665</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.1635117030665367</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1635117030665367</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4.8611104263027665</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.714740953705669</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-7.7147409537056744</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.58938055216341467</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.58938055216341401</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.8072414066441036</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2-1'!$T$2:$T$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5.1634132609253989</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0283338580530383</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.9046644456128949</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0046207049365847</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4.2797869595714246</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.8484347444410414</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-11.175145023916301</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.505968400020552</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.94557012742281255</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.2688340874221198</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0B46-438F-977B-A43AF6213951}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2-1'!$T$2:$T$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5.1634132609253989</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0283338580530383</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.9046644456128949</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0046207049365847</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4.2797869595714246</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.8484347444410414</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-11.175145023916301</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.505968400020552</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.94557012742281255</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.2688340874221198</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2-1'!$T$2:$T$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5.1634132609253989</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0283338580530383</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.9046644456128949</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0046207049365847</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4.2797869595714246</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.8484347444410414</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-11.175145023916301</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.505968400020552</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.94557012742281255</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.2688340874221198</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0B46-438F-977B-A43AF6213951}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1774422783"/>
+        <c:axId val="1774417791"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1774422783"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1774417791"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1774417791"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1774422783"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>90% confidence intervals</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2-1'!$B$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2-1'!$B$43:$B$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>-4.2876260016149566</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.1634132609253989</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.614452523465754</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2-1'!$B$47:$B$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CD9E-4FE5-B54C-B56232DDB216}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2-1'!$C$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2-1'!$C$43:$C$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>-1.4227054044873171</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0283338580530383</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.479373120593394</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2-1'!$C$47:$C$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-CD9E-4FE5-B54C-B56232DDB216}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2-1'!$D$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2-1'!$D$43:$D$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>-13.35570370815325</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3.9046644456128949</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.5463748169274609</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2-1'!$D$47:$D$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-CD9E-4FE5-B54C-B56232DDB216}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2-1'!$E$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2-1'!$E$43:$E$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>-3.4464185576037707</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0046207049365847</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.45565996747694</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2-1'!$E$47:$E$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-CD9E-4FE5-B54C-B56232DDB216}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2-1'!$F$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2-1'!$F$43:$F$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>-13.73082622211178</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.2797869595714246</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.1712523029689308</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2-1'!$F$47:$F$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-CD9E-4FE5-B54C-B56232DDB216}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2-1'!$G$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2-1'!$G$43:$G$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>-0.60260451809931403</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.8484347444410414</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.299474006981399</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2-1'!$G$47:$G$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-CD9E-4FE5-B54C-B56232DDB216}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2-1'!$H$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E14</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2-1'!$H$43:$H$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>-20.626184286456656</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-11.175145023916301</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.7241057613759452</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2-1'!$H$47:$H$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-CD9E-4FE5-B54C-B56232DDB216}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2-1'!$I$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E23</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2-1'!$I$43:$I$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>-5.9450708625198034</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.505968400020552</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.957007662560908</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2-1'!$I$47:$I$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-CD9E-4FE5-B54C-B56232DDB216}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2-1'!$J$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E24</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2-1'!$J$43:$J$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>-8.5054691351175435</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94557012742281255</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.396609389963167</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2-1'!$J$47:$J$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-CD9E-4FE5-B54C-B56232DDB216}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2-1'!$K$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E34</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2-1'!$K$43:$K$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>-10.719873349962475</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.2688340874221198</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.1822051751182361</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2-1'!$K$47:$K$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-CD9E-4FE5-B54C-B56232DDB216}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2-1'!$L$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E123</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2-1'!$L$43:$L$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>-6.0918765420145622</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3591627205257928</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.810201983066149</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2-1'!$L$47:$L$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-CD9E-4FE5-B54C-B56232DDB216}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2-1'!$M$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E124</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2-1'!$M$43:$M$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>-4.298544538614463</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.1524947239258925</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.603533986466248</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2-1'!$M$47:$M$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-CD9E-4FE5-B54C-B56232DDB216}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2-1'!$N$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E134</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2-1'!$N$43:$N$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>-11.388645056407531</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.9376057938671765</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.5134334686731794</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2-1'!$N$47:$N$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-CD9E-4FE5-B54C-B56232DDB216}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2-1'!$O$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E234</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2-1'!$O$43:$O$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>-10.46127849597144</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.0102392334310841</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.4408000291092709</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2-1'!$O$47:$O$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-CD9E-4FE5-B54C-B56232DDB216}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="14"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2-1'!$P$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E1234</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2-1'!$P$43:$P$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>-1.2422520935274406</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.2087871690129148</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.65982643155327</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2-1'!$P$47:$P$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000010-CD9E-4FE5-B54C-B56232DDB216}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1876447263"/>
+        <c:axId val="1876447679"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1876447263"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1876447679"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1876447679"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1876447263"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.86668446200346494"/>
+          <c:y val="0.12417527655959149"/>
+          <c:w val="0.11967363996811162"/>
+          <c:h val="0.78570697830922409"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2817,6 +4799,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4868,20 +6930,1052 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>171449</xdr:colOff>
+      <xdr:colOff>466724</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>206375</xdr:rowOff>
+      <xdr:rowOff>92075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>514349</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5002,6 +8096,83 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F076F37-B44D-46F0-907F-38A741CDC29F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>88444</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>125185</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>40819</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54BEDB25-61C9-487C-ABA8-12C3E063DD59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>142872</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>193220</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>299356</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="圖表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9C1B9DB-CCF1-486A-B523-3C69284F4E3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5321,8 +8492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA86B193-2B35-417B-B01D-578CD466CFC5}">
   <dimension ref="B1:X38"/>
   <sheetViews>
-    <sheetView topLeftCell="O10" workbookViewId="0">
-      <selection activeCell="Q35" sqref="Q35:T36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -5776,7 +8947,7 @@
         <v>16</v>
       </c>
       <c r="K11">
-        <f>SUMPRODUCT(B12:B35,I12:I35)/(4*3)</f>
+        <f>SUMPRODUCT(B12:B35,I12:I35)/(8/2*3)</f>
         <v>21.46916666666667</v>
       </c>
       <c r="L11" s="1">
@@ -5841,7 +9012,7 @@
         <v>17</v>
       </c>
       <c r="K12">
-        <f>SUMPRODUCT(C12:C35,I12:I35)/(4*3)</f>
+        <f>SUMPRODUCT(C12:C35,I12:I35)/(8/2*3)</f>
         <v>1.1041666666666672</v>
       </c>
       <c r="L12" s="1">
@@ -5908,7 +9079,7 @@
         <v>18</v>
       </c>
       <c r="K13">
-        <f>SUMPRODUCT(D12:D35,I12:I35)/(4*3)</f>
+        <f>SUMPRODUCT(D12:D35,I12:I35)/(8/2*3)</f>
         <v>-8.072499999999998</v>
       </c>
       <c r="L13" s="1">
@@ -5971,7 +9142,7 @@
         <v>19</v>
       </c>
       <c r="K14">
-        <f>SUMPRODUCT(E12:E35,I12:I35)/(4*3)</f>
+        <f>SUMPRODUCT(E12:E35,I12:I35)/(8/2*3)</f>
         <v>2.1625000000000001</v>
       </c>
       <c r="L14" s="1">
@@ -6032,7 +9203,7 @@
         <v>20</v>
       </c>
       <c r="K15">
-        <f>SUMPRODUCT(F12:F35,I12:I35)/(4*3)</f>
+        <f>SUMPRODUCT(F12:F35,I12:I35)/(8/2*3)</f>
         <v>28.634166666666669</v>
       </c>
       <c r="L15" s="1">
@@ -6081,7 +9252,7 @@
         <v>21</v>
       </c>
       <c r="K16">
-        <f>SUMPRODUCT(G12:G35,I12:I35)/(4*3)</f>
+        <f>SUMPRODUCT(G12:G35,I12:I35)/(8/2*3)</f>
         <v>1.5558333333333347</v>
       </c>
       <c r="L16" s="1">
@@ -6155,7 +9326,7 @@
         <v>22</v>
       </c>
       <c r="K17">
-        <f>SUMPRODUCT(H12:H35,I12:I35)/(4*3)</f>
+        <f>SUMPRODUCT(H12:H35,I12:I35)/(8/2*3)</f>
         <v>-0.4641666666666649</v>
       </c>
       <c r="L17" s="1">
@@ -8554,15 +11725,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5508E73-7190-449A-8923-B8B0FDD3E2C3}">
-  <dimension ref="A1:R40"/>
+  <dimension ref="A1:V56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:K39"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55:F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8593,8 +11764,14 @@
       <c r="J1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="U1" t="s">
+        <v>79</v>
+      </c>
+      <c r="V1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8628,8 +11805,23 @@
         <f>10*LOG(H2^2/I2)</f>
         <v>-2.0442063651487121</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="S2" t="s">
+        <v>16</v>
+      </c>
+      <c r="T2">
+        <f>B37</f>
+        <v>5.1634132609253989</v>
+      </c>
+      <c r="U2">
+        <f>(_xlfn.RANK.EQ(T2,$T$2:$T$11,1)-0.5)/10*100</f>
+        <v>65</v>
+      </c>
+      <c r="V2">
+        <f>_xlfn.NORM.INV(U2/100,0,$R$37)</f>
+        <v>1.8072414066441036</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8663,8 +11855,23 @@
         <f t="shared" ref="J3:J17" si="2">10*LOG(H3^2/I3)</f>
         <v>8.0909686163949601</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="S3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T3">
+        <f>C37</f>
+        <v>8.0283338580530383</v>
+      </c>
+      <c r="U3">
+        <f t="shared" ref="U3:U11" si="3">(_xlfn.RANK.EQ(T3,$T$2:$T$11,1)-0.5)/10*100</f>
+        <v>85</v>
+      </c>
+      <c r="V3">
+        <f t="shared" ref="V3:V11" si="4">_xlfn.NORM.INV(U3/100,0,$R$37)</f>
+        <v>4.8611104263027665</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8698,8 +11905,23 @@
         <f t="shared" si="2"/>
         <v>5.1050069670400724</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="S4" t="s">
+        <v>96</v>
+      </c>
+      <c r="T4">
+        <f>D37</f>
+        <v>-3.9046644456128949</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="4"/>
+        <v>-3.1635117030665367</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8733,8 +11955,23 @@
         <f t="shared" si="2"/>
         <v>6.0748674785633527</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="S5" t="s">
+        <v>131</v>
+      </c>
+      <c r="T5">
+        <f>E37</f>
+        <v>6.0046207049365847</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="4"/>
+        <v>3.1635117030665367</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -8768,8 +12005,23 @@
         <f t="shared" si="2"/>
         <v>-24.831909343586464</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="S6" t="s">
+        <v>19</v>
+      </c>
+      <c r="T6">
+        <f>F37</f>
+        <v>-4.2797869595714246</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="4"/>
+        <v>-4.8611104263027665</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -8803,8 +12055,23 @@
         <f t="shared" si="2"/>
         <v>16.574595611547892</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="S7" t="s">
+        <v>21</v>
+      </c>
+      <c r="T7">
+        <f>G37</f>
+        <v>8.8484347444410414</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="3"/>
+        <v>95</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="4"/>
+        <v>7.714740953705669</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -8838,8 +12105,23 @@
         <f t="shared" si="2"/>
         <v>1.0489681524798404</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="S8" t="s">
+        <v>118</v>
+      </c>
+      <c r="T8">
+        <f>H37</f>
+        <v>-11.175145023916301</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="4"/>
+        <v>-7.7147409537056744</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -8873,8 +12155,23 @@
         <f t="shared" si="2"/>
         <v>13.89166084364531</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="S9" t="s">
+        <v>20</v>
+      </c>
+      <c r="T9">
+        <f>I37</f>
+        <v>3.505968400020552</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="3"/>
+        <v>55.000000000000007</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="4"/>
+        <v>0.58938055216341467</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -8908,8 +12205,23 @@
         <f t="shared" si="2"/>
         <v>9.4546858513181977</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="S10" t="s">
+        <v>119</v>
+      </c>
+      <c r="T10">
+        <f>J37</f>
+        <v>0.94557012742281255</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="4"/>
+        <v>-0.58938055216341401</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -8943,8 +12255,23 @@
         <f t="shared" si="2"/>
         <v>7.2273672629376673</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="S11" t="s">
+        <v>120</v>
+      </c>
+      <c r="T11">
+        <f>K37</f>
+        <v>-1.2688340874221198</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="4"/>
+        <v>-1.8072414066441036</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -8979,7 +12306,7 @@
         <v>26.628102795388816</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -9014,7 +12341,7 @@
         <v>3.010299956639813</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -9049,7 +12376,7 @@
         <v>6.4425790906585583</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -9084,7 +12411,7 @@
         <v>-5.0989813756516558</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -9289,51 +12616,51 @@
         <v>-1</v>
       </c>
       <c r="F21">
-        <f t="shared" ref="F21:F35" si="3">B21*C21</f>
+        <f t="shared" ref="F21:F35" si="5">B21*C21</f>
         <v>-1</v>
       </c>
       <c r="G21">
-        <f t="shared" ref="G21:G35" si="4">B21*D21</f>
+        <f t="shared" ref="G21:G35" si="6">B21*D21</f>
         <v>-1</v>
       </c>
       <c r="H21">
-        <f t="shared" ref="H21:H35" si="5">B21*E21</f>
+        <f t="shared" ref="H21:H35" si="7">B21*E21</f>
         <v>-1</v>
       </c>
       <c r="I21">
-        <f t="shared" ref="I21:I35" si="6">C21*D21</f>
+        <f t="shared" ref="I21:I35" si="8">C21*D21</f>
         <v>1</v>
       </c>
       <c r="J21">
-        <f t="shared" ref="J21:J35" si="7">C21*E21</f>
+        <f t="shared" ref="J21:J35" si="9">C21*E21</f>
         <v>1</v>
       </c>
       <c r="K21">
-        <f t="shared" ref="K21:K35" si="8">D21*E21</f>
+        <f t="shared" ref="K21:K35" si="10">D21*E21</f>
         <v>1</v>
       </c>
       <c r="L21">
-        <f t="shared" ref="L21:L35" si="9">B21*C21*D21</f>
+        <f t="shared" ref="L21:L35" si="11">B21*C21*D21</f>
         <v>1</v>
       </c>
       <c r="M21">
-        <f t="shared" ref="M21:M35" si="10">B21*C21*E21</f>
+        <f t="shared" ref="M21:M35" si="12">B21*C21*E21</f>
         <v>1</v>
       </c>
       <c r="N21">
-        <f t="shared" ref="N21:N35" si="11">B21*D21*E21</f>
+        <f t="shared" ref="N21:N35" si="13">B21*D21*E21</f>
         <v>1</v>
       </c>
       <c r="O21">
-        <f t="shared" ref="O21:O35" si="12">C21*D21*E21</f>
+        <f t="shared" ref="O21:O35" si="14">C21*D21*E21</f>
         <v>-1</v>
       </c>
       <c r="P21">
-        <f t="shared" ref="P21:P35" si="13">B21*C21*D21*E21</f>
+        <f t="shared" ref="P21:P35" si="15">B21*C21*D21*E21</f>
         <v>-1</v>
       </c>
       <c r="Q21">
-        <f t="shared" ref="Q21:Q35" si="14">J3</f>
+        <f t="shared" ref="Q21:Q35" si="16">J3</f>
         <v>8.0909686163949601</v>
       </c>
     </row>
@@ -9354,51 +12681,51 @@
         <v>-1</v>
       </c>
       <c r="F22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
       <c r="G22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
       <c r="J22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1</v>
       </c>
       <c r="K22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="L22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="M22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="N22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-1</v>
       </c>
       <c r="O22">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="P22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-1</v>
       </c>
       <c r="Q22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>5.1050069670400724</v>
       </c>
     </row>
@@ -9419,51 +12746,51 @@
         <v>-1</v>
       </c>
       <c r="F23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
       <c r="H23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="I23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
       <c r="J23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1</v>
       </c>
       <c r="K23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="L23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-1</v>
       </c>
       <c r="M23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-1</v>
       </c>
       <c r="N23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="O23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="P23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="Q23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>6.0748674785633527</v>
       </c>
     </row>
@@ -9484,51 +12811,51 @@
         <v>-1</v>
       </c>
       <c r="F24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
       <c r="H24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
       <c r="J24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="K24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="L24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="M24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-1</v>
       </c>
       <c r="N24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="O24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="P24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-1</v>
       </c>
       <c r="Q24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-24.831909343586464</v>
       </c>
     </row>
@@ -9549,51 +12876,51 @@
         <v>-1</v>
       </c>
       <c r="F25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
       <c r="G25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="I25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
       <c r="J25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="K25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="L25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-1</v>
       </c>
       <c r="M25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="N25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-1</v>
       </c>
       <c r="O25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="P25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="Q25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>16.574595611547892</v>
       </c>
     </row>
@@ -9614,51 +12941,51 @@
         <v>-1</v>
       </c>
       <c r="F26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
       <c r="G26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
       <c r="H26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="J26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1</v>
       </c>
       <c r="K26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="L26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-1</v>
       </c>
       <c r="M26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="N26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="O26">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-1</v>
       </c>
       <c r="P26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="Q26">
-        <f t="shared" si="14"/>
+        <f>J8</f>
         <v>1.0489681524798404</v>
       </c>
     </row>
@@ -9679,51 +13006,51 @@
         <v>-1</v>
       </c>
       <c r="F27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="I27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="J27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1</v>
       </c>
       <c r="K27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="L27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="M27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-1</v>
       </c>
       <c r="N27">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-1</v>
       </c>
       <c r="O27">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-1</v>
       </c>
       <c r="P27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-1</v>
       </c>
       <c r="Q27">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>13.89166084364531</v>
       </c>
     </row>
@@ -9744,51 +13071,51 @@
         <v>1</v>
       </c>
       <c r="F28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="I28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="J28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1</v>
       </c>
       <c r="K28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="L28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-1</v>
       </c>
       <c r="M28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="N28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="O28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="P28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-1</v>
       </c>
       <c r="Q28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>9.4546858513181977</v>
       </c>
     </row>
@@ -9809,51 +13136,51 @@
         <v>1</v>
       </c>
       <c r="F29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
       <c r="G29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
       <c r="H29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="J29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1</v>
       </c>
       <c r="K29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="L29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="M29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-1</v>
       </c>
       <c r="N29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-1</v>
       </c>
       <c r="O29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="P29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="Q29">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>7.2273672629376673</v>
       </c>
     </row>
@@ -9874,51 +13201,51 @@
         <v>1</v>
       </c>
       <c r="F30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
       <c r="G30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="I30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
       <c r="J30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="K30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="L30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="M30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-1</v>
       </c>
       <c r="N30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="O30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-1</v>
       </c>
       <c r="P30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>26.628102795388816</v>
       </c>
     </row>
@@ -9939,51 +13266,51 @@
         <v>1</v>
       </c>
       <c r="F31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
       <c r="H31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
       <c r="J31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="K31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="L31">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-1</v>
       </c>
       <c r="M31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="N31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-1</v>
       </c>
       <c r="O31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-1</v>
       </c>
       <c r="P31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-1</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3.010299956639813</v>
       </c>
     </row>
@@ -10004,51 +13331,51 @@
         <v>1</v>
       </c>
       <c r="F32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
       <c r="H32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="I32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
       <c r="J32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1</v>
       </c>
       <c r="K32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="L32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="M32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="N32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-1</v>
       </c>
       <c r="O32">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-1</v>
       </c>
       <c r="P32">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>6.4425790906585583</v>
       </c>
     </row>
@@ -10069,51 +13396,51 @@
         <v>1</v>
       </c>
       <c r="F33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
       <c r="G33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
       <c r="J33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1</v>
       </c>
       <c r="K33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="L33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-1</v>
       </c>
       <c r="M33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-1</v>
       </c>
       <c r="N33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="O33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-1</v>
       </c>
       <c r="P33">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-1</v>
       </c>
       <c r="Q33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-5.0989813756516558</v>
       </c>
     </row>
@@ -10134,51 +13461,51 @@
         <v>1</v>
       </c>
       <c r="F34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
       <c r="G34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
       <c r="H34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="I34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="J34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="K34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="L34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-1</v>
       </c>
       <c r="M34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-1</v>
       </c>
       <c r="N34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-1</v>
       </c>
       <c r="O34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="P34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-1</v>
       </c>
       <c r="Q34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>5.4715545888307009</v>
       </c>
     </row>
@@ -10199,51 +13526,51 @@
         <v>1</v>
       </c>
       <c r="F35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="J35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="K35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="L35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="M35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="N35">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="O35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="P35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="Q35">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>18.811309430306839</v>
       </c>
     </row>
@@ -10309,59 +13636,59 @@
         <v>5.1634132609253989</v>
       </c>
       <c r="C37">
-        <f t="shared" ref="C37:P37" si="15">SUMPRODUCT(C20:C35,$Q$20:$Q$35)/8</f>
+        <f t="shared" ref="C37:P37" si="17">SUMPRODUCT(C20:C35,$Q$20:$Q$35)/8</f>
         <v>8.0283338580530383</v>
       </c>
       <c r="D37">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-3.9046644456128949</v>
       </c>
       <c r="E37">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>6.0046207049365847</v>
       </c>
       <c r="F37">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-4.2797869595714246</v>
       </c>
       <c r="G37">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>8.8484347444410414</v>
       </c>
       <c r="H37">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-11.175145023916301</v>
       </c>
       <c r="I37">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3.505968400020552</v>
       </c>
       <c r="J37">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.94557012742281255</v>
       </c>
       <c r="K37">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-1.2688340874221198</v>
       </c>
       <c r="L37">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3.3591627205257928</v>
       </c>
       <c r="M37">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5.1524947239258925</v>
       </c>
       <c r="N37">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-1.9376057938671765</v>
       </c>
       <c r="O37">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-1.0102392334310841</v>
       </c>
       <c r="P37">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>8.2087871690129148</v>
       </c>
       <c r="Q37" cm="1">
@@ -10382,40 +13709,60 @@
         <v>1.1008871303193848</v>
       </c>
       <c r="C38">
-        <f t="shared" ref="C38:K38" si="16">(C37-0)/$R$37</f>
+        <f t="shared" ref="C38:P38" si="18">(C37-0)/$R$37</f>
         <v>1.7117145143354158</v>
       </c>
       <c r="D38">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>-0.83251032198428121</v>
       </c>
       <c r="E38">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.2802402834068844</v>
       </c>
       <c r="F38">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>-0.91248988725269942</v>
       </c>
       <c r="G38">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.8865675554856147</v>
       </c>
       <c r="H38">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>-2.3826435566145778</v>
       </c>
       <c r="I38">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.7475046632617065</v>
       </c>
       <c r="J38">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.20160423570428504</v>
       </c>
       <c r="K38">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>-0.27052708097651035</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="18"/>
+        <v>0.71620434406459321</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="18"/>
+        <v>1.0985591979503768</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="18"/>
+        <v>-0.41311535108819719</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="18"/>
+        <v>-0.21539228305515826</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="18"/>
+        <v>1.750188817595745</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
@@ -10423,44 +13770,64 @@
         <v>130</v>
       </c>
       <c r="B39">
-        <f>IF(_xlfn.T.DIST(B37,5,1)&gt;0.5,(1-_xlfn.T.DIST(B37,5,1))*2,_xlfn.T.DIST(B37,5,1)*2)</f>
-        <v>3.5745139247873592E-3</v>
+        <f>IF(_xlfn.T.DIST(B38,5,1)&gt;0.5,(1-_xlfn.T.DIST(B38,5,1))*2,_xlfn.T.DIST(B38,5,1)*2)</f>
+        <v>0.32109943719317791</v>
       </c>
       <c r="C39">
-        <f t="shared" ref="C39:K39" si="17">IF(_xlfn.T.DIST(C37,5,1)&gt;0.5,(1-_xlfn.T.DIST(C37,5,1))*2,_xlfn.T.DIST(C37,5,1)*2)</f>
-        <v>4.8480146406526536E-4</v>
+        <f t="shared" ref="C39:K39" si="19">IF(_xlfn.T.DIST(C38,5,1)&gt;0.5,(1-_xlfn.T.DIST(C38,5,1))*2,_xlfn.T.DIST(C38,5,1)*2)</f>
+        <v>0.14763041955522649</v>
       </c>
       <c r="D39">
-        <f t="shared" si="17"/>
-        <v>1.1355811123537271E-2</v>
+        <f t="shared" si="19"/>
+        <v>0.44305501506302636</v>
       </c>
       <c r="E39">
-        <f t="shared" si="17"/>
-        <v>1.8397886366192662E-3</v>
+        <f t="shared" si="19"/>
+        <v>0.25663605994442973</v>
       </c>
       <c r="F39">
-        <f t="shared" si="17"/>
-        <v>7.8651038810831943E-3</v>
+        <f t="shared" si="19"/>
+        <v>0.40336254471909572</v>
       </c>
       <c r="G39">
-        <f t="shared" si="17"/>
-        <v>3.0641083091875743E-4</v>
+        <f t="shared" si="19"/>
+        <v>0.11787835344937903</v>
       </c>
       <c r="H39">
-        <f t="shared" si="17"/>
-        <v>1.0011102377068635E-4</v>
+        <f t="shared" si="19"/>
+        <v>6.2958471340582411E-2</v>
       </c>
       <c r="I39">
-        <f t="shared" si="17"/>
-        <v>1.7174483602127033E-2</v>
+        <f t="shared" si="19"/>
+        <v>0.48840155582216971</v>
       </c>
       <c r="J39">
-        <f t="shared" si="17"/>
-        <v>0.38778622202613411</v>
+        <f t="shared" si="19"/>
+        <v>0.84817155390451915</v>
       </c>
       <c r="K39">
-        <f t="shared" si="17"/>
-        <v>0.2603597047125048</v>
+        <f t="shared" si="19"/>
+        <v>0.79756657906085082</v>
+      </c>
+      <c r="L39">
+        <f t="shared" ref="L39" si="20">IF(_xlfn.T.DIST(L38,5,1)&gt;0.5,(1-_xlfn.T.DIST(L38,5,1))*2,_xlfn.T.DIST(L38,5,1)*2)</f>
+        <v>0.50591298515677185</v>
+      </c>
+      <c r="M39">
+        <f t="shared" ref="M39" si="21">IF(_xlfn.T.DIST(M38,5,1)&gt;0.5,(1-_xlfn.T.DIST(M38,5,1))*2,_xlfn.T.DIST(M38,5,1)*2)</f>
+        <v>0.32202221522421293</v>
+      </c>
+      <c r="N39">
+        <f t="shared" ref="N39" si="22">IF(_xlfn.T.DIST(N38,5,1)&gt;0.5,(1-_xlfn.T.DIST(N38,5,1))*2,_xlfn.T.DIST(N38,5,1)*2)</f>
+        <v>0.69664146306583485</v>
+      </c>
+      <c r="O39">
+        <f t="shared" ref="O39" si="23">IF(_xlfn.T.DIST(O38,5,1)&gt;0.5,(1-_xlfn.T.DIST(O38,5,1))*2,_xlfn.T.DIST(O38,5,1)*2)</f>
+        <v>0.83797193130472369</v>
+      </c>
+      <c r="P39">
+        <f t="shared" ref="P39" si="24">IF(_xlfn.T.DIST(P38,5,1)&gt;0.5,(1-_xlfn.T.DIST(P38,5,1))*2,_xlfn.T.DIST(P38,5,1)*2)</f>
+        <v>0.14048817255859802</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
@@ -10478,10 +13845,594 @@
         <f>_xlfn.T.INV(0.995,5)</f>
         <v>4.0321429835552269</v>
       </c>
+      <c r="E40" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="F40" s="27">
+        <f>_xlfn.T.INV(0.05,5)</f>
+        <v>-2.0150483733330233</v>
+      </c>
+      <c r="G40" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="H40" s="27">
+        <f>_xlfn.T.INV(0.95,5)</f>
+        <v>2.0150483733330233</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>15</v>
+      </c>
+      <c r="C42">
+        <v>14</v>
+      </c>
+      <c r="D42">
+        <v>13</v>
+      </c>
+      <c r="E42">
+        <v>12</v>
+      </c>
+      <c r="F42">
+        <v>11</v>
+      </c>
+      <c r="G42">
+        <v>10</v>
+      </c>
+      <c r="H42">
+        <v>9</v>
+      </c>
+      <c r="I42">
+        <v>8</v>
+      </c>
+      <c r="J42">
+        <v>7</v>
+      </c>
+      <c r="K42">
+        <v>6</v>
+      </c>
+      <c r="L42">
+        <v>5</v>
+      </c>
+      <c r="M42">
+        <v>4</v>
+      </c>
+      <c r="N42">
+        <v>3</v>
+      </c>
+      <c r="O42">
+        <v>2</v>
+      </c>
+      <c r="P42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <f>B37-$H$40*$R$37</f>
+        <v>-4.2876260016149566</v>
+      </c>
+      <c r="C43">
+        <f t="shared" ref="C43:P43" si="25">C37-$H$40*$R$37</f>
+        <v>-1.4227054044873171</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="25"/>
+        <v>-13.35570370815325</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="25"/>
+        <v>-3.4464185576037707</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="25"/>
+        <v>-13.73082622211178</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="25"/>
+        <v>-0.60260451809931403</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="25"/>
+        <v>-20.626184286456656</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="25"/>
+        <v>-5.9450708625198034</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="25"/>
+        <v>-8.5054691351175435</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="25"/>
+        <v>-10.719873349962475</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="25"/>
+        <v>-6.0918765420145622</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="25"/>
+        <v>-4.298544538614463</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="25"/>
+        <v>-11.388645056407531</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="25"/>
+        <v>-10.46127849597144</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="25"/>
+        <v>-1.2422520935274406</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <f>B37</f>
+        <v>5.1634132609253989</v>
+      </c>
+      <c r="C44">
+        <f t="shared" ref="C44:P44" si="26">C37</f>
+        <v>8.0283338580530383</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="26"/>
+        <v>-3.9046644456128949</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="26"/>
+        <v>6.0046207049365847</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="26"/>
+        <v>-4.2797869595714246</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="26"/>
+        <v>8.8484347444410414</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="26"/>
+        <v>-11.175145023916301</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="26"/>
+        <v>3.505968400020552</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="26"/>
+        <v>0.94557012742281255</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="26"/>
+        <v>-1.2688340874221198</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="26"/>
+        <v>3.3591627205257928</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="26"/>
+        <v>5.1524947239258925</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="26"/>
+        <v>-1.9376057938671765</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="26"/>
+        <v>-1.0102392334310841</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="26"/>
+        <v>8.2087871690129148</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <f>B37+$H$40*$R$37</f>
+        <v>14.614452523465754</v>
+      </c>
+      <c r="C45">
+        <f t="shared" ref="C45:P45" si="27">C37+$H$40*$R$37</f>
+        <v>17.479373120593394</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="27"/>
+        <v>5.5463748169274609</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="27"/>
+        <v>15.45565996747694</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="27"/>
+        <v>5.1712523029689308</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="27"/>
+        <v>18.299474006981399</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="27"/>
+        <v>-1.7241057613759452</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="27"/>
+        <v>12.957007662560908</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="27"/>
+        <v>10.396609389963167</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="27"/>
+        <v>8.1822051751182361</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="27"/>
+        <v>12.810201983066149</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="27"/>
+        <v>14.603533986466248</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="27"/>
+        <v>7.5134334686731794</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="27"/>
+        <v>8.4408000291092709</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="27"/>
+        <v>17.65982643155327</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <f>B42</f>
+        <v>15</v>
+      </c>
+      <c r="C47">
+        <f t="shared" ref="C47:P47" si="28">C42</f>
+        <v>14</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="28"/>
+        <v>13</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="28"/>
+        <v>12</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="28"/>
+        <v>11</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="28"/>
+        <v>10</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="28"/>
+        <v>9</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="28"/>
+        <v>8</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="28"/>
+        <v>7</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="28"/>
+        <v>6</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="28"/>
+        <v>5</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="28"/>
+        <v>4</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="28"/>
+        <v>3</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="28"/>
+        <v>2</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <f>B42</f>
+        <v>15</v>
+      </c>
+      <c r="C48">
+        <f t="shared" ref="C48:P48" si="29">C42</f>
+        <v>14</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="29"/>
+        <v>13</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="29"/>
+        <v>12</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="29"/>
+        <v>11</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="29"/>
+        <v>10</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="29"/>
+        <v>9</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="29"/>
+        <v>8</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="29"/>
+        <v>7</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="29"/>
+        <v>6</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="29"/>
+        <v>5</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="29"/>
+        <v>4</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="29"/>
+        <v>3</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="29"/>
+        <v>2</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <f>B48</f>
+        <v>15</v>
+      </c>
+      <c r="C49">
+        <f t="shared" ref="C49:P49" si="30">C48</f>
+        <v>14</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="30"/>
+        <v>13</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="30"/>
+        <v>12</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="30"/>
+        <v>11</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="30"/>
+        <v>10</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="30"/>
+        <v>9</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="30"/>
+        <v>8</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="30"/>
+        <v>7</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="30"/>
+        <v>6</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="30"/>
+        <v>5</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="30"/>
+        <v>4</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="30"/>
+        <v>3</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="30"/>
+        <v>2</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>82</v>
+      </c>
+      <c r="B51" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" t="s">
+        <v>54</v>
+      </c>
+      <c r="D51" t="s">
+        <v>89</v>
+      </c>
+      <c r="E51" t="s">
+        <v>134</v>
+      </c>
+      <c r="F51" t="s">
+        <v>55</v>
+      </c>
+      <c r="G51" t="s">
+        <v>57</v>
+      </c>
+      <c r="H51" t="s">
+        <v>135</v>
+      </c>
+      <c r="I51" t="s">
+        <v>56</v>
+      </c>
+      <c r="J51" t="s">
+        <v>136</v>
+      </c>
+      <c r="K51" t="s">
+        <v>137</v>
+      </c>
+      <c r="L51" t="s">
+        <v>58</v>
+      </c>
+      <c r="M51" t="s">
+        <v>138</v>
+      </c>
+      <c r="N51" t="s">
+        <v>139</v>
+      </c>
+      <c r="O51" t="s">
+        <v>140</v>
+      </c>
+      <c r="P51" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <f>SUM(Q20:Q35)/16</f>
+        <v>5.9910543475853233</v>
+      </c>
+      <c r="B52">
+        <f>B37/2</f>
+        <v>2.5817066304626994</v>
+      </c>
+      <c r="C52">
+        <f t="shared" ref="C52:P52" si="31">C37/2</f>
+        <v>4.0141669290265192</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="31"/>
+        <v>-1.9523322228064475</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="31"/>
+        <v>3.0023103524682924</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="31"/>
+        <v>-2.1398934797857123</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="31"/>
+        <v>4.4242173722205207</v>
+      </c>
+      <c r="H52">
+        <f>H37/2</f>
+        <v>-5.5875725119581503</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="31"/>
+        <v>1.752984200010276</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="31"/>
+        <v>0.47278506371140627</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="31"/>
+        <v>-0.63441704371105989</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="31"/>
+        <v>1.6795813602628964</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="31"/>
+        <v>2.5762473619629462</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="31"/>
+        <v>-0.96880289693358823</v>
+      </c>
+      <c r="O52">
+        <f t="shared" si="31"/>
+        <v>-0.50511961671554206</v>
+      </c>
+      <c r="P52">
+        <f t="shared" si="31"/>
+        <v>4.1043935845064574</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" t="s">
+        <v>109</v>
+      </c>
+      <c r="F55" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>-1</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>-1</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <f>A52+C52*C56+G52*B56*D56+H52*B56*E56+P52*B56*C56*D56*E56</f>
+        <v>24.121404745296971</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B38:K39">
+  <conditionalFormatting sqref="B38:P39">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>$B$40</formula>
     </cfRule>
@@ -10490,5 +14441,3459 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDB27449-15EC-488D-8C1E-44427377A40A}">
+  <dimension ref="A1:I32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="1">
+        <v>65535</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="1">
+        <v>15</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1954.7968601343034</v>
+      </c>
+      <c r="D12" s="1">
+        <v>130.31979067562023</v>
+      </c>
+      <c r="E12" s="1" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F12" s="1" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>65535</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="2">
+        <v>15</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1954.7968601343034</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="1">
+        <v>5.9910543475853233</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <v>65535</v>
+      </c>
+      <c r="E17" s="1" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F17" s="1">
+        <v>5.9910543475853233</v>
+      </c>
+      <c r="G17" s="1">
+        <v>5.9910543475853233</v>
+      </c>
+      <c r="H17" s="1">
+        <v>5.9910543475853233</v>
+      </c>
+      <c r="I17" s="1">
+        <v>5.9910543475853233</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2.5817066304627003</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>65535</v>
+      </c>
+      <c r="E18" s="1" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F18" s="1">
+        <v>2.5817066304627003</v>
+      </c>
+      <c r="G18" s="1">
+        <v>2.5817066304627003</v>
+      </c>
+      <c r="H18" s="1">
+        <v>2.5817066304627003</v>
+      </c>
+      <c r="I18" s="1">
+        <v>2.5817066304627003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="1">
+        <v>4.0141669290265183</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
+        <v>65535</v>
+      </c>
+      <c r="E19" s="1" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F19" s="1">
+        <v>4.0141669290265183</v>
+      </c>
+      <c r="G19" s="1">
+        <v>4.0141669290265183</v>
+      </c>
+      <c r="H19" s="1">
+        <v>4.0141669290265183</v>
+      </c>
+      <c r="I19" s="1">
+        <v>4.0141669290265183</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="1">
+        <v>-1.9523322228064461</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
+        <v>65535</v>
+      </c>
+      <c r="E20" s="1" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F20" s="1">
+        <v>-1.9523322228064461</v>
+      </c>
+      <c r="G20" s="1">
+        <v>-1.9523322228064461</v>
+      </c>
+      <c r="H20" s="1">
+        <v>-1.9523322228064461</v>
+      </c>
+      <c r="I20" s="1">
+        <v>-1.9523322228064461</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B21" s="1">
+        <v>3.0023103524682937</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>65535</v>
+      </c>
+      <c r="E21" s="1" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F21" s="1">
+        <v>3.0023103524682937</v>
+      </c>
+      <c r="G21" s="1">
+        <v>3.0023103524682937</v>
+      </c>
+      <c r="H21" s="1">
+        <v>3.0023103524682937</v>
+      </c>
+      <c r="I21" s="1">
+        <v>3.0023103524682937</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="1">
+        <v>-2.1398934797857168</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1">
+        <v>65535</v>
+      </c>
+      <c r="E22" s="1" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F22" s="1">
+        <v>-2.1398934797857168</v>
+      </c>
+      <c r="G22" s="1">
+        <v>-2.1398934797857168</v>
+      </c>
+      <c r="H22" s="1">
+        <v>-2.1398934797857168</v>
+      </c>
+      <c r="I22" s="1">
+        <v>-2.1398934797857168</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="1">
+        <v>4.4242173722205216</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
+        <v>65535</v>
+      </c>
+      <c r="E23" s="1" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F23" s="1">
+        <v>4.4242173722205216</v>
+      </c>
+      <c r="G23" s="1">
+        <v>4.4242173722205216</v>
+      </c>
+      <c r="H23" s="1">
+        <v>4.4242173722205216</v>
+      </c>
+      <c r="I23" s="1">
+        <v>4.4242173722205216</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B24" s="1">
+        <v>-5.5875725119581503</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1">
+        <v>65535</v>
+      </c>
+      <c r="E24" s="1" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F24" s="1">
+        <v>-5.5875725119581503</v>
+      </c>
+      <c r="G24" s="1">
+        <v>-5.5875725119581503</v>
+      </c>
+      <c r="H24" s="1">
+        <v>-5.5875725119581503</v>
+      </c>
+      <c r="I24" s="1">
+        <v>-5.5875725119581503</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1.7529842000102775</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1">
+        <v>65535</v>
+      </c>
+      <c r="E25" s="1" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1.7529842000102775</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1.7529842000102775</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1.7529842000102775</v>
+      </c>
+      <c r="I25" s="1">
+        <v>1.7529842000102775</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.47278506371140627</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1">
+        <v>65535</v>
+      </c>
+      <c r="E26" s="1" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0.47278506371140627</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0.47278506371140627</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0.47278506371140627</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0.47278506371140627</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B27" s="1">
+        <v>-0.63441704371106145</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1">
+        <v>65535</v>
+      </c>
+      <c r="E27" s="1" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F27" s="1">
+        <v>-0.63441704371106145</v>
+      </c>
+      <c r="G27" s="1">
+        <v>-0.63441704371106145</v>
+      </c>
+      <c r="H27" s="1">
+        <v>-0.63441704371106145</v>
+      </c>
+      <c r="I27" s="1">
+        <v>-0.63441704371106145</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1.6795813602628948</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1">
+        <v>65535</v>
+      </c>
+      <c r="E28" s="1" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1.6795813602628948</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1.6795813602628948</v>
+      </c>
+      <c r="H28" s="1">
+        <v>1.6795813602628948</v>
+      </c>
+      <c r="I28" s="1">
+        <v>1.6795813602628948</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B29" s="1">
+        <v>2.5762473619629476</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1">
+        <v>65535</v>
+      </c>
+      <c r="E29" s="1" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F29" s="1">
+        <v>2.5762473619629476</v>
+      </c>
+      <c r="G29" s="1">
+        <v>2.5762473619629476</v>
+      </c>
+      <c r="H29" s="1">
+        <v>2.5762473619629476</v>
+      </c>
+      <c r="I29" s="1">
+        <v>2.5762473619629476</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B30" s="1">
+        <v>-0.96880289693358945</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1">
+        <v>65535</v>
+      </c>
+      <c r="E30" s="1" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F30" s="1">
+        <v>-0.96880289693358945</v>
+      </c>
+      <c r="G30" s="1">
+        <v>-0.96880289693358945</v>
+      </c>
+      <c r="H30" s="1">
+        <v>-0.96880289693358945</v>
+      </c>
+      <c r="I30" s="1">
+        <v>-0.96880289693358945</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B31" s="1">
+        <v>-0.50511961671554306</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1">
+        <v>65535</v>
+      </c>
+      <c r="E31" s="1" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F31" s="1">
+        <v>-0.50511961671554306</v>
+      </c>
+      <c r="G31" s="1">
+        <v>-0.50511961671554306</v>
+      </c>
+      <c r="H31" s="1">
+        <v>-0.50511961671554306</v>
+      </c>
+      <c r="I31" s="1">
+        <v>-0.50511961671554306</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B32" s="2">
+        <v>4.1043935845064574</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0</v>
+      </c>
+      <c r="D32" s="2">
+        <v>65535</v>
+      </c>
+      <c r="E32" s="2" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F32" s="2">
+        <v>4.1043935845064574</v>
+      </c>
+      <c r="G32" s="2">
+        <v>4.1043935845064574</v>
+      </c>
+      <c r="H32" s="2">
+        <v>4.1043935845064574</v>
+      </c>
+      <c r="I32" s="2">
+        <v>4.1043935845064574</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEF42194-8B24-4BF4-9C6E-F07C86AABADE}">
+  <dimension ref="A1:Q61"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>-1</v>
+      </c>
+      <c r="C2">
+        <v>-1</v>
+      </c>
+      <c r="D2">
+        <v>-1</v>
+      </c>
+      <c r="E2">
+        <v>-1</v>
+      </c>
+      <c r="F2">
+        <v>-1.44</v>
+      </c>
+      <c r="G2">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>-1</v>
+      </c>
+      <c r="D3">
+        <v>-1</v>
+      </c>
+      <c r="E3">
+        <v>-1</v>
+      </c>
+      <c r="F3">
+        <v>-1.79</v>
+      </c>
+      <c r="G3">
+        <v>-1.01</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>-1</v>
+      </c>
+      <c r="E4">
+        <v>-1</v>
+      </c>
+      <c r="F4">
+        <v>0.39</v>
+      </c>
+      <c r="G4">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>-1</v>
+      </c>
+      <c r="E5">
+        <v>-1</v>
+      </c>
+      <c r="F5">
+        <v>-0.5</v>
+      </c>
+      <c r="G5">
+        <v>-0.24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>-1</v>
+      </c>
+      <c r="C6">
+        <v>-1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>-1</v>
+      </c>
+      <c r="F6">
+        <v>-0.2</v>
+      </c>
+      <c r="G6">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>-1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>-1</v>
+      </c>
+      <c r="F7">
+        <v>-0.79</v>
+      </c>
+      <c r="G7">
+        <v>-0.64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>-1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>-1</v>
+      </c>
+      <c r="F8">
+        <v>1.22</v>
+      </c>
+      <c r="G8">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>-1</v>
+      </c>
+      <c r="F9">
+        <v>0.21</v>
+      </c>
+      <c r="G9">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>-1</v>
+      </c>
+      <c r="C10">
+        <v>-1</v>
+      </c>
+      <c r="D10">
+        <v>-1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>-0.4</v>
+      </c>
+      <c r="G10">
+        <v>-0.65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>-1</v>
+      </c>
+      <c r="D11">
+        <v>-1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>-0.63</v>
+      </c>
+      <c r="G11">
+        <v>-1.19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>-1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>-1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.47</v>
+      </c>
+      <c r="G12">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>-1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>-0.01</v>
+      </c>
+      <c r="G13">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>-1</v>
+      </c>
+      <c r="C14">
+        <v>-1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1.29</v>
+      </c>
+      <c r="G14">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>-1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>-1.17</v>
+      </c>
+      <c r="G15">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>-1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.48</v>
+      </c>
+      <c r="G16">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.4</v>
+      </c>
+      <c r="G17">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" t="s">
+        <v>109</v>
+      </c>
+      <c r="F20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" t="s">
+        <v>111</v>
+      </c>
+      <c r="I20" t="s">
+        <v>11</v>
+      </c>
+      <c r="J20" t="s">
+        <v>112</v>
+      </c>
+      <c r="K20" t="s">
+        <v>110</v>
+      </c>
+      <c r="L20" t="s">
+        <v>15</v>
+      </c>
+      <c r="M20" t="s">
+        <v>124</v>
+      </c>
+      <c r="N20" t="s">
+        <v>113</v>
+      </c>
+      <c r="O20" t="s">
+        <v>114</v>
+      </c>
+      <c r="P20" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>-1</v>
+      </c>
+      <c r="C21">
+        <v>-1</v>
+      </c>
+      <c r="D21">
+        <v>-1</v>
+      </c>
+      <c r="E21">
+        <v>-1</v>
+      </c>
+      <c r="F21">
+        <f>B21*C21</f>
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <f>B21*D21</f>
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <f>B21*E21</f>
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <f>C21*D21</f>
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <f>C21*E21</f>
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <f>D21*E21</f>
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <f>B21*C21*D21</f>
+        <v>-1</v>
+      </c>
+      <c r="M21">
+        <f>B21*D21*E21</f>
+        <v>-1</v>
+      </c>
+      <c r="N21">
+        <f>B21*C21*E21</f>
+        <v>-1</v>
+      </c>
+      <c r="O21">
+        <f>C21*D21*E21</f>
+        <v>-1</v>
+      </c>
+      <c r="P21">
+        <f>B21*C21*D21*E21</f>
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <v>-1.44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>-1</v>
+      </c>
+      <c r="D22">
+        <v>-1</v>
+      </c>
+      <c r="E22">
+        <v>-1</v>
+      </c>
+      <c r="F22">
+        <f t="shared" ref="F22:F36" si="0">B22*C22</f>
+        <v>-1</v>
+      </c>
+      <c r="G22">
+        <f t="shared" ref="G22:G36" si="1">B22*D22</f>
+        <v>-1</v>
+      </c>
+      <c r="H22">
+        <f t="shared" ref="H22:H36" si="2">B22*E22</f>
+        <v>-1</v>
+      </c>
+      <c r="I22">
+        <f t="shared" ref="I22:I36" si="3">C22*D22</f>
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <f t="shared" ref="J22:J36" si="4">C22*E22</f>
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <f t="shared" ref="K22:K36" si="5">D22*E22</f>
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <f t="shared" ref="L22:L36" si="6">B22*C22*D22</f>
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <f t="shared" ref="M22:M36" si="7">B22*D22*E22</f>
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <f t="shared" ref="N22:N36" si="8">B22*C22*E22</f>
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <f t="shared" ref="O22:O36" si="9">C22*D22*E22</f>
+        <v>-1</v>
+      </c>
+      <c r="P22">
+        <f t="shared" ref="P22:P36" si="10">B22*C22*D22*E22</f>
+        <v>-1</v>
+      </c>
+      <c r="Q22">
+        <v>-1.79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>-1</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>-1</v>
+      </c>
+      <c r="E23">
+        <v>-1</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="Q23">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>4</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>-1</v>
+      </c>
+      <c r="E24">
+        <v>-1</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>5</v>
+      </c>
+      <c r="B25">
+        <v>-1</v>
+      </c>
+      <c r="C25">
+        <v>-1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>-1</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="Q25">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>6</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>-1</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>-1</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Q26">
+        <v>-0.79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>7</v>
+      </c>
+      <c r="B27">
+        <v>-1</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>-1</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Q27">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>8</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>-1</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="Q28">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>9</v>
+      </c>
+      <c r="B29">
+        <v>-1</v>
+      </c>
+      <c r="C29">
+        <v>-1</v>
+      </c>
+      <c r="D29">
+        <v>-1</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="Q29">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>10</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>-1</v>
+      </c>
+      <c r="D30">
+        <v>-1</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Q30">
+        <v>-0.63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>11</v>
+      </c>
+      <c r="B31">
+        <v>-1</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>-1</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Q31">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>12</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>-1</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="Q32">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>13</v>
+      </c>
+      <c r="B33">
+        <v>-1</v>
+      </c>
+      <c r="C33">
+        <v>-1</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Q33">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>14</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>-1</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="Q34">
+        <v>-1.17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>15</v>
+      </c>
+      <c r="B35">
+        <v>-1</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="Q35">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>16</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Q36">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <f>B21</f>
+        <v>-1</v>
+      </c>
+      <c r="C37">
+        <f t="shared" ref="C37:P37" si="11">C21</f>
+        <v>-1</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>2</v>
+      </c>
+      <c r="B38">
+        <f t="shared" ref="B38:P38" si="12">B22</f>
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="Q38">
+        <v>-1.01</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>3</v>
+      </c>
+      <c r="B39">
+        <f t="shared" ref="B39:P39" si="13">B23</f>
+        <v>-1</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="Q39">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>4</v>
+      </c>
+      <c r="B40">
+        <f t="shared" ref="B40:P40" si="14">B24</f>
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>-0.24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>5</v>
+      </c>
+      <c r="B41">
+        <f t="shared" ref="B41:P41" si="15">B25</f>
+        <v>-1</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="Q41">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>6</v>
+      </c>
+      <c r="B42">
+        <f t="shared" ref="B42:P42" si="16">B26</f>
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>-0.64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>7</v>
+      </c>
+      <c r="B43">
+        <f t="shared" ref="B43:P43" si="17">B27</f>
+        <v>-1</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="Q43">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>8</v>
+      </c>
+      <c r="B44">
+        <f t="shared" ref="B44:P44" si="18">B28</f>
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="Q44">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>9</v>
+      </c>
+      <c r="B45">
+        <f t="shared" ref="B45:P45" si="19">B29</f>
+        <v>-1</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="19"/>
+        <v>-1</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="19"/>
+        <v>-1</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="19"/>
+        <v>-1</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="19"/>
+        <v>-1</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="19"/>
+        <v>-1</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="19"/>
+        <v>-1</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="19"/>
+        <v>-1</v>
+      </c>
+      <c r="Q45">
+        <v>-0.65</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>10</v>
+      </c>
+      <c r="B46">
+        <f t="shared" ref="B46:P46" si="20">B30</f>
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="Q46">
+        <v>-1.19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>11</v>
+      </c>
+      <c r="B47">
+        <f t="shared" ref="B47:P47" si="21">B31</f>
+        <v>-1</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="21"/>
+        <v>-1</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="21"/>
+        <v>-1</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="21"/>
+        <v>-1</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="21"/>
+        <v>-1</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="21"/>
+        <v>-1</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="21"/>
+        <v>-1</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="21"/>
+        <v>-1</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="Q47">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>12</v>
+      </c>
+      <c r="B48">
+        <f t="shared" ref="B48:P48" si="22">B32</f>
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+      <c r="Q48">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>13</v>
+      </c>
+      <c r="B49">
+        <f t="shared" ref="B49:P49" si="23">B33</f>
+        <v>-1</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="23"/>
+        <v>-1</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="23"/>
+        <v>-1</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="23"/>
+        <v>-1</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="23"/>
+        <v>-1</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="23"/>
+        <v>-1</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="23"/>
+        <v>-1</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="23"/>
+        <v>-1</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="Q49">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>14</v>
+      </c>
+      <c r="B50">
+        <f t="shared" ref="B50:P50" si="24">B34</f>
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="P50">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="Q50">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>15</v>
+      </c>
+      <c r="B51">
+        <f t="shared" ref="B51:P51" si="25">B35</f>
+        <v>-1</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="25"/>
+        <v>-1</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="25"/>
+        <v>-1</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="25"/>
+        <v>-1</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="25"/>
+        <v>-1</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="25"/>
+        <v>-1</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="25"/>
+        <v>-1</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="P51">
+        <f t="shared" si="25"/>
+        <v>-1</v>
+      </c>
+      <c r="Q51">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>16</v>
+      </c>
+      <c r="B52">
+        <f t="shared" ref="B52:P52" si="26">B36</f>
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="O52">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="P52">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" t="s">
+        <v>18</v>
+      </c>
+      <c r="E54" t="s">
+        <v>117</v>
+      </c>
+      <c r="F54" t="s">
+        <v>19</v>
+      </c>
+      <c r="G54" t="s">
+        <v>21</v>
+      </c>
+      <c r="H54" t="s">
+        <v>118</v>
+      </c>
+      <c r="I54" t="s">
+        <v>20</v>
+      </c>
+      <c r="J54" t="s">
+        <v>119</v>
+      </c>
+      <c r="K54" t="s">
+        <v>120</v>
+      </c>
+      <c r="L54" t="s">
+        <v>22</v>
+      </c>
+      <c r="M54" t="s">
+        <v>125</v>
+      </c>
+      <c r="N54" t="s">
+        <v>125</v>
+      </c>
+      <c r="O54" t="s">
+        <v>122</v>
+      </c>
+      <c r="P54" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <f>SUMPRODUCT(B21:B52,$Q$21:$Q$52)/16</f>
+        <v>-0.65437499999999993</v>
+      </c>
+      <c r="C55">
+        <f t="shared" ref="C55:P55" si="27">SUMPRODUCT(C21:C52,$Q$21:$Q$52)/16</f>
+        <v>0.79437499999999994</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="27"/>
+        <v>0.63812500000000016</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="27"/>
+        <v>0.32187500000000002</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="27"/>
+        <v>0.14687500000000006</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="27"/>
+        <v>-0.11687499999999999</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="27"/>
+        <v>-3.0624999999999906E-2</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="27"/>
+        <v>-0.19062499999999996</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="27"/>
+        <v>-0.15437499999999998</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="27"/>
+        <v>9.3750000000000049E-3</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="27"/>
+        <v>0.17187499999999997</v>
+      </c>
+      <c r="M55">
+        <f t="shared" si="27"/>
+        <v>-0.13812500000000003</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="27"/>
+        <v>0.10062499999999998</v>
+      </c>
+      <c r="O55">
+        <f t="shared" si="27"/>
+        <v>-0.10437500000000004</v>
+      </c>
+      <c r="P55">
+        <f t="shared" si="27"/>
+        <v>0.12062499999999991</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>82</v>
+      </c>
+      <c r="B57" t="s">
+        <v>52</v>
+      </c>
+      <c r="C57" t="s">
+        <v>88</v>
+      </c>
+      <c r="D57" t="s">
+        <v>89</v>
+      </c>
+      <c r="E57" t="s">
+        <v>134</v>
+      </c>
+      <c r="F57" t="s">
+        <v>55</v>
+      </c>
+      <c r="G57" t="s">
+        <v>57</v>
+      </c>
+      <c r="H57" t="s">
+        <v>135</v>
+      </c>
+      <c r="I57" t="s">
+        <v>56</v>
+      </c>
+      <c r="J57" t="s">
+        <v>136</v>
+      </c>
+      <c r="K57" t="s">
+        <v>137</v>
+      </c>
+      <c r="L57" t="s">
+        <v>58</v>
+      </c>
+      <c r="M57" t="s">
+        <v>139</v>
+      </c>
+      <c r="N57" t="s">
+        <v>138</v>
+      </c>
+      <c r="O57" t="s">
+        <v>140</v>
+      </c>
+      <c r="P57" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <f>SUM(Q21:Q52)/32</f>
+        <v>-8.7187499999999987E-2</v>
+      </c>
+      <c r="B58">
+        <f>B55/2</f>
+        <v>-0.32718749999999996</v>
+      </c>
+      <c r="C58">
+        <f t="shared" ref="C58:P58" si="28">C55/2</f>
+        <v>0.39718749999999997</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="28"/>
+        <v>0.31906250000000008</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="28"/>
+        <v>0.16093750000000001</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="28"/>
+        <v>7.3437500000000031E-2</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="28"/>
+        <v>-5.8437499999999996E-2</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="28"/>
+        <v>-1.5312499999999953E-2</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="28"/>
+        <v>-9.5312499999999981E-2</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="28"/>
+        <v>-7.7187499999999992E-2</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="28"/>
+        <v>4.6875000000000024E-3</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="28"/>
+        <v>8.5937499999999986E-2</v>
+      </c>
+      <c r="M58">
+        <f t="shared" si="28"/>
+        <v>-6.9062500000000013E-2</v>
+      </c>
+      <c r="N58">
+        <f t="shared" si="28"/>
+        <v>5.0312499999999989E-2</v>
+      </c>
+      <c r="O58">
+        <f t="shared" si="28"/>
+        <v>-5.2187500000000019E-2</v>
+      </c>
+      <c r="P58">
+        <f t="shared" si="28"/>
+        <v>6.0312499999999956E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" t="s">
+        <v>7</v>
+      </c>
+      <c r="E60" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <f>B58*B61+C58*C61+D58*D61</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/統計管制與最佳化方法概論/homework/my_homework/HW12/hw_12.xlsx
+++ b/統計管制與最佳化方法概論/homework/my_homework/HW12/hw_12.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOLab\Documents\研究所資料\統計管制與最佳化方法概論\homework\my_homework\HW12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA898317-3ACA-4F32-BEFF-A842123A184F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E708BC69-B6BE-4CFD-9E6B-47A56BF2CCAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1695" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{CB8A175E-6191-4478-A7B3-8E35534C3B7C}"/>
+    <workbookView xWindow="2850" yWindow="5625" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{CB8A175E-6191-4478-A7B3-8E35534C3B7C}"/>
   </bookViews>
   <sheets>
     <sheet name="1-1" sheetId="1" r:id="rId1"/>
@@ -226,7 +226,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -1109,7 +1109,17 @@
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2912,6 +2922,378 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" altLang="zh-TW"/>
+                      <a:t>E1</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-2C55-4FDD-A297-95D3223E46E8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" altLang="zh-TW"/>
+                      <a:t>E2</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-2C55-4FDD-A297-95D3223E46E8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" altLang="zh-TW"/>
+                      <a:t>E3</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-2C55-4FDD-A297-95D3223E46E8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" altLang="zh-TW"/>
+                      <a:t>E4</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-2C55-4FDD-A297-95D3223E46E8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" altLang="zh-TW"/>
+                      <a:t>E12</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-2C55-4FDD-A297-95D3223E46E8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{1512CDCC-B884-4F89-8C72-F5A425892CCE}" type="CELLREF">
+                      <a:rPr lang="en-US" altLang="zh-TW"/>
+                      <a:pPr/>
+                      <a:t>[CELLREF]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{1512CDCC-B884-4F89-8C72-F5A425892CCE}</c15:txfldGUID>
+                      <c15:f>'2-1'!$S$7</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>E13</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-2C55-4FDD-A297-95D3223E46E8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" altLang="zh-TW"/>
+                      <a:t>E14</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-2C55-4FDD-A297-95D3223E46E8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" altLang="zh-TW"/>
+                      <a:t>E23</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-2C55-4FDD-A297-95D3223E46E8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{5B781122-C19D-4CD5-8C7F-4F6A1247A5DB}" type="CELLREF">
+                      <a:rPr lang="en-US" altLang="zh-TW"/>
+                      <a:pPr/>
+                      <a:t>[CELLREF]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{5B781122-C19D-4CD5-8C7F-4F6A1247A5DB}</c15:txfldGUID>
+                      <c15:f>'2-1'!$S$10</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>E24</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-2C55-4FDD-A297-95D3223E46E8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" altLang="zh-TW"/>
+                      <a:t>E34</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-2C55-4FDD-A297-95D3223E46E8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>'2-1'!$V$2:$V$11</c:f>
@@ -2919,34 +3301,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.8072414066441036</c:v>
+                  <c:v>0.37028231482430768</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.8611104263027665</c:v>
+                  <c:v>4.8468381389957669</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-3.1635117030665367</c:v>
+                  <c:v>-1.9874976058939908</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1635117030665367</c:v>
+                  <c:v>-0.37028231482430729</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-4.8611104263027665</c:v>
+                  <c:v>3.0540254758336389</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.714740953705669</c:v>
+                  <c:v>-1.1354116267361563</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-7.7147409537056744</c:v>
+                  <c:v>1.9874976058939908</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.58938055216341467</c:v>
+                  <c:v>-4.8468381389957695</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.58938055216341401</c:v>
+                  <c:v>1.1354116267361563</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.8072414066441036</c:v>
+                  <c:v>-3.0540254758336389</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2958,34 +3340,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>5.1634132609253989</c:v>
+                  <c:v>2.9783443018428795</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.0283338580530383</c:v>
+                  <c:v>7.5764626510917266</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-3.9046644456128949</c:v>
+                  <c:v>-2.2953276215420204</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.0046207049365847</c:v>
+                  <c:v>1.4410351811521878</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-4.2797869595714246</c:v>
+                  <c:v>7.4852399579443656</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.8484347444410414</c:v>
+                  <c:v>-0.98774011557397845</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-11.175145023916301</c:v>
+                  <c:v>4.4965610861247036</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.505968400020552</c:v>
+                  <c:v>-6.434317599148538</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.94557012742281255</c:v>
+                  <c:v>3.1574451816076907</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.2688340874221198</c:v>
+                  <c:v>-6.1796009301131409</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3012,6 +3394,9 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>'2-1'!$T$2:$T$11</c:f>
@@ -3019,34 +3404,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>5.1634132609253989</c:v>
+                  <c:v>2.9783443018428795</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.0283338580530383</c:v>
+                  <c:v>7.5764626510917266</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-3.9046644456128949</c:v>
+                  <c:v>-2.2953276215420204</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.0046207049365847</c:v>
+                  <c:v>1.4410351811521878</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-4.2797869595714246</c:v>
+                  <c:v>7.4852399579443656</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.8484347444410414</c:v>
+                  <c:v>-0.98774011557397845</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-11.175145023916301</c:v>
+                  <c:v>4.4965610861247036</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.505968400020552</c:v>
+                  <c:v>-6.434317599148538</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.94557012742281255</c:v>
+                  <c:v>3.1574451816076907</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.2688340874221198</c:v>
+                  <c:v>-6.1796009301131409</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3058,34 +3443,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>5.1634132609253989</c:v>
+                  <c:v>2.9783443018428795</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.0283338580530383</c:v>
+                  <c:v>7.5764626510917266</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-3.9046644456128949</c:v>
+                  <c:v>-2.2953276215420204</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.0046207049365847</c:v>
+                  <c:v>1.4410351811521878</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-4.2797869595714246</c:v>
+                  <c:v>7.4852399579443656</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.8484347444410414</c:v>
+                  <c:v>-0.98774011557397845</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-11.175145023916301</c:v>
+                  <c:v>4.4965610861247036</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.505968400020552</c:v>
+                  <c:v>-6.434317599148538</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.94557012742281255</c:v>
+                  <c:v>3.1574451816076907</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.2688340874221198</c:v>
+                  <c:v>-6.1796009301131409</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3098,8 +3483,9 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -3393,13 +3779,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>-4.2876260016149566</c:v>
+                  <c:v>-2.9593349832695965</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.1634132609253989</c:v>
+                  <c:v>2.9783443018428795</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.614452523465754</c:v>
+                  <c:v>8.9160235869553546</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3462,13 +3848,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>-1.4227054044873171</c:v>
+                  <c:v>1.6387833659792506</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.0283338580530383</c:v>
+                  <c:v>7.5764626510917266</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.479373120593394</c:v>
+                  <c:v>13.514141936204203</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3531,13 +3917,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>-13.35570370815325</c:v>
+                  <c:v>-8.2330069066544969</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-3.9046644456128949</c:v>
+                  <c:v>-2.2953276215420204</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.5463748169274609</c:v>
+                  <c:v>3.6423516635704556</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3600,13 +3986,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>-3.4464185576037707</c:v>
+                  <c:v>-4.4966441039602882</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.0046207049365847</c:v>
+                  <c:v>1.4410351811521878</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.45565996747694</c:v>
+                  <c:v>7.3787144662646638</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3669,13 +4055,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>-13.73082622211178</c:v>
+                  <c:v>1.5475606728318896</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-4.2797869595714246</c:v>
+                  <c:v>7.4852399579443656</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.1712523029689308</c:v>
+                  <c:v>13.422919243056842</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3738,13 +4124,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>-0.60260451809931403</c:v>
+                  <c:v>-6.9254194006864545</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.8484347444410414</c:v>
+                  <c:v>-0.98774011557397845</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.299474006981399</c:v>
+                  <c:v>4.9499391695384976</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3809,13 +4195,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>-20.626184286456656</c:v>
+                  <c:v>-1.4411181989877724</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-11.175145023916301</c:v>
+                  <c:v>4.4965610861247036</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.7241057613759452</c:v>
+                  <c:v>10.434240371237181</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3880,13 +4266,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>-5.9450708625198034</c:v>
+                  <c:v>-12.371996884261014</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.505968400020552</c:v>
+                  <c:v>-6.434317599148538</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.957007662560908</c:v>
+                  <c:v>-0.49663831403606196</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3951,13 +4337,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>-8.5054691351175435</c:v>
+                  <c:v>-2.7802341035047853</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.94557012742281255</c:v>
+                  <c:v>3.1574451816076907</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.396609389963167</c:v>
+                  <c:v>9.0951244667201667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4022,13 +4408,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>-10.719873349962475</c:v>
+                  <c:v>-12.117280215225616</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.2688340874221198</c:v>
+                  <c:v>-6.1796009301131409</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.1822051751182361</c:v>
+                  <c:v>-0.24192164500066493</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4093,13 +4479,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>-6.0918765420145622</c:v>
+                  <c:v>-6.4224388028816701</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.3591627205257928</c:v>
+                  <c:v>-0.48475951776919457</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.810201983066149</c:v>
+                  <c:v>5.4529197673432819</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4164,13 +4550,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>-4.298544538614463</c:v>
+                  <c:v>-4.3535047010252743</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.1524947239258925</c:v>
+                  <c:v>1.5841745840872017</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.603533986466248</c:v>
+                  <c:v>7.5218538691996777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4236,13 +4622,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>-11.388645056407531</c:v>
+                  <c:v>-8.0971470840151163</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.9376057938671765</c:v>
+                  <c:v>-2.1594677989026403</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.5134334686731794</c:v>
+                  <c:v>3.7782114862098357</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4308,13 +4694,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>-10.46127849597144</c:v>
+                  <c:v>-5.8002998478008845</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.0102392334310841</c:v>
+                  <c:v>0.13737943731159163</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.4408000291092709</c:v>
+                  <c:v>6.0750587224240675</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4380,13 +4766,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>-1.2422520935274406</c:v>
+                  <c:v>-11.936637271730438</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.2087871690129148</c:v>
+                  <c:v>-5.9989579866179623</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.65982643155327</c:v>
+                  <c:v>-6.127870150548631E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8120,16 +8506,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>88444</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>125185</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>646337</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>40819</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>666749</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>163283</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8156,16 +8542,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>142872</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>193220</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>197302</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>43541</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>299356</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>353785</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>149678</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10637,10 +11023,10 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="K19:K25">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
       <formula>$L$19</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="greaterThan">
       <formula>$M$19</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11711,10 +12097,10 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C23:L23">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
       <formula>$M$23</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
       <formula>$N$23</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11728,10 +12114,13 @@
   <dimension ref="A1:V56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55:F56"/>
+      <selection activeCell="M52" sqref="M52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="9" width="9" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -11802,23 +12191,23 @@
         <v>0.92480000000000007</v>
       </c>
       <c r="J2">
-        <f>10*LOG(H2^2/I2)</f>
-        <v>-2.0442063651487121</v>
+        <f>-10*LOG10(((F2-0)^2+(G2-0)^2)/2)</f>
+        <v>-0.1703333929878037</v>
       </c>
       <c r="S2" t="s">
         <v>16</v>
       </c>
       <c r="T2">
         <f>B37</f>
-        <v>5.1634132609253989</v>
+        <v>2.9783443018428795</v>
       </c>
       <c r="U2">
         <f>(_xlfn.RANK.EQ(T2,$T$2:$T$11,1)-0.5)/10*100</f>
-        <v>65</v>
+        <v>55.000000000000007</v>
       </c>
       <c r="V2">
         <f>_xlfn.NORM.INV(U2/100,0,$R$37)</f>
-        <v>1.8072414066441036</v>
+        <v>0.37028231482430768</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
@@ -11852,23 +12241,23 @@
         <v>0.30420000000000025</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J17" si="2">10*LOG(H3^2/I3)</f>
-        <v>8.0909686163949601</v>
+        <f t="shared" ref="J3:J17" si="2">-10*LOG10(((F3-0)^2+(G3-0)^2)/2)</f>
+        <v>-3.2471447656066834</v>
       </c>
       <c r="S3" t="s">
         <v>17</v>
       </c>
       <c r="T3">
         <f>C37</f>
-        <v>8.0283338580530383</v>
+        <v>7.5764626510917266</v>
       </c>
       <c r="U3">
         <f t="shared" ref="U3:U11" si="3">(_xlfn.RANK.EQ(T3,$T$2:$T$11,1)-0.5)/10*100</f>
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="V3">
         <f t="shared" ref="V3:V11" si="4">_xlfn.NORM.INV(U3/100,0,$R$37)</f>
-        <v>4.8611104263027665</v>
+        <v>4.8468381389957669</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
@@ -11903,14 +12292,14 @@
       </c>
       <c r="J4">
         <f t="shared" si="2"/>
-        <v>5.1050069670400724</v>
+        <v>10.433514207947967</v>
       </c>
       <c r="S4" t="s">
         <v>96</v>
       </c>
       <c r="T4">
         <f>D37</f>
-        <v>-3.9046644456128949</v>
+        <v>-2.2953276215420204</v>
       </c>
       <c r="U4">
         <f t="shared" si="3"/>
@@ -11918,7 +12307,7 @@
       </c>
       <c r="V4">
         <f t="shared" si="4"/>
-        <v>-3.1635117030665367</v>
+        <v>-1.9874976058939908</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
@@ -11953,22 +12342,22 @@
       </c>
       <c r="J5">
         <f t="shared" si="2"/>
-        <v>6.0748674785633527</v>
+        <v>8.1304366453458776</v>
       </c>
       <c r="S5" t="s">
         <v>131</v>
       </c>
       <c r="T5">
         <f>E37</f>
-        <v>6.0046207049365847</v>
+        <v>1.4410351811521878</v>
       </c>
       <c r="U5">
         <f t="shared" si="3"/>
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="V5">
         <f t="shared" si="4"/>
-        <v>3.1635117030665367</v>
+        <v>-0.37028231482430729</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
@@ -12003,22 +12392,22 @@
       </c>
       <c r="J6">
         <f t="shared" si="2"/>
-        <v>-24.831909343586464</v>
+        <v>14.628107737563553</v>
       </c>
       <c r="S6" t="s">
         <v>19</v>
       </c>
       <c r="T6">
         <f>F37</f>
-        <v>-4.2797869595714246</v>
+        <v>7.4852399579443656</v>
       </c>
       <c r="U6">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="V6">
         <f t="shared" si="4"/>
-        <v>-4.8611104263027665</v>
+        <v>3.0540254758336389</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
@@ -12053,22 +12442,22 @@
       </c>
       <c r="J7">
         <f t="shared" si="2"/>
-        <v>16.574595611547892</v>
+        <v>2.8663547939044607</v>
       </c>
       <c r="S7" t="s">
         <v>21</v>
       </c>
       <c r="T7">
         <f>G37</f>
-        <v>8.8484347444410414</v>
+        <v>-0.98774011557397845</v>
       </c>
       <c r="U7">
         <f t="shared" si="3"/>
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="V7">
         <f t="shared" si="4"/>
-        <v>7.714740953705669</v>
+        <v>-1.1354116267361563</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -12103,22 +12492,22 @@
       </c>
       <c r="J8">
         <f t="shared" si="2"/>
-        <v>1.0489681524798404</v>
+        <v>1.0601643278815294</v>
       </c>
       <c r="S8" t="s">
         <v>118</v>
       </c>
       <c r="T8">
         <f>H37</f>
-        <v>-11.175145023916301</v>
+        <v>4.4965610861247036</v>
       </c>
       <c r="U8">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="V8">
         <f t="shared" si="4"/>
-        <v>-7.7147409537056744</v>
+        <v>1.9874976058939908</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
@@ -12153,22 +12542,22 @@
       </c>
       <c r="J9">
         <f t="shared" si="2"/>
-        <v>13.89166084364531</v>
+        <v>12.128939069634299</v>
       </c>
       <c r="S9" t="s">
         <v>20</v>
       </c>
       <c r="T9">
         <f>I37</f>
-        <v>3.505968400020552</v>
+        <v>-6.434317599148538</v>
       </c>
       <c r="U9">
         <f t="shared" si="3"/>
-        <v>55.000000000000007</v>
+        <v>5</v>
       </c>
       <c r="V9">
         <f t="shared" si="4"/>
-        <v>0.58938055216341467</v>
+        <v>-4.8468381389957695</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
@@ -12203,22 +12592,22 @@
       </c>
       <c r="J10">
         <f t="shared" si="2"/>
-        <v>9.4546858513181977</v>
+        <v>5.357340659659247</v>
       </c>
       <c r="S10" t="s">
         <v>119</v>
       </c>
       <c r="T10">
         <f>J37</f>
-        <v>0.94557012742281255</v>
+        <v>3.1574451816076907</v>
       </c>
       <c r="U10">
         <f t="shared" si="3"/>
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="V10">
         <f t="shared" si="4"/>
-        <v>-0.58938055216341401</v>
+        <v>1.1354116267361563</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
@@ -12253,22 +12642,22 @@
       </c>
       <c r="J11">
         <f t="shared" si="2"/>
-        <v>7.2273672629376673</v>
+        <v>0.42632191568472555</v>
       </c>
       <c r="S11" t="s">
         <v>120</v>
       </c>
       <c r="T11">
         <f>K37</f>
-        <v>-1.2688340874221198</v>
+        <v>-6.1796009301131409</v>
       </c>
       <c r="U11">
         <f t="shared" si="3"/>
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="V11">
         <f t="shared" si="4"/>
-        <v>-1.8072414066441036</v>
+        <v>-3.0540254758336389</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
@@ -12303,7 +12692,7 @@
       </c>
       <c r="J12">
         <f t="shared" si="2"/>
-        <v>26.628102795388816</v>
+        <v>6.8350546077768879</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
@@ -12338,7 +12727,7 @@
       </c>
       <c r="J13">
         <f t="shared" si="2"/>
-        <v>3.010299956639813</v>
+        <v>33.010299956639813</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
@@ -12373,7 +12762,7 @@
       </c>
       <c r="J14">
         <f t="shared" si="2"/>
-        <v>6.4425790906585583</v>
+        <v>-0.15715932006950581</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
@@ -12408,7 +12797,7 @@
       </c>
       <c r="J15">
         <f t="shared" si="2"/>
-        <v>-5.0989813756516558</v>
+        <v>1.5848411157770483</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
@@ -12443,7 +12832,7 @@
       </c>
       <c r="J16">
         <f t="shared" si="2"/>
-        <v>5.4715545888307009</v>
+        <v>1.6941133131485566</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -12478,7 +12867,7 @@
       </c>
       <c r="J17">
         <f t="shared" si="2"/>
-        <v>18.811309430306839</v>
+        <v>8.6075078242839282</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
@@ -12596,7 +12985,7 @@
       </c>
       <c r="Q20">
         <f>J2</f>
-        <v>-2.0442063651487121</v>
+        <v>-0.1703333929878037</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
@@ -12661,7 +13050,7 @@
       </c>
       <c r="Q21">
         <f t="shared" ref="Q21:Q35" si="16">J3</f>
-        <v>8.0909686163949601</v>
+        <v>-3.2471447656066834</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
@@ -12726,7 +13115,7 @@
       </c>
       <c r="Q22">
         <f t="shared" si="16"/>
-        <v>5.1050069670400724</v>
+        <v>10.433514207947967</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
@@ -12791,7 +13180,7 @@
       </c>
       <c r="Q23">
         <f t="shared" si="16"/>
-        <v>6.0748674785633527</v>
+        <v>8.1304366453458776</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
@@ -12856,7 +13245,7 @@
       </c>
       <c r="Q24">
         <f t="shared" si="16"/>
-        <v>-24.831909343586464</v>
+        <v>14.628107737563553</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
@@ -12921,7 +13310,7 @@
       </c>
       <c r="Q25">
         <f t="shared" si="16"/>
-        <v>16.574595611547892</v>
+        <v>2.8663547939044607</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
@@ -12986,7 +13375,7 @@
       </c>
       <c r="Q26">
         <f>J8</f>
-        <v>1.0489681524798404</v>
+        <v>1.0601643278815294</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
@@ -13051,7 +13440,7 @@
       </c>
       <c r="Q27">
         <f t="shared" si="16"/>
-        <v>13.89166084364531</v>
+        <v>12.128939069634299</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
@@ -13116,7 +13505,7 @@
       </c>
       <c r="Q28">
         <f t="shared" si="16"/>
-        <v>9.4546858513181977</v>
+        <v>5.357340659659247</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
@@ -13181,7 +13570,7 @@
       </c>
       <c r="Q29">
         <f t="shared" si="16"/>
-        <v>7.2273672629376673</v>
+        <v>0.42632191568472555</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
@@ -13246,7 +13635,7 @@
       </c>
       <c r="Q30">
         <f t="shared" si="16"/>
-        <v>26.628102795388816</v>
+        <v>6.8350546077768879</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
@@ -13311,7 +13700,7 @@
       </c>
       <c r="Q31">
         <f t="shared" si="16"/>
-        <v>3.010299956639813</v>
+        <v>33.010299956639813</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
@@ -13376,7 +13765,7 @@
       </c>
       <c r="Q32">
         <f t="shared" si="16"/>
-        <v>6.4425790906585583</v>
+        <v>-0.15715932006950581</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
@@ -13441,7 +13830,7 @@
       </c>
       <c r="Q33">
         <f t="shared" si="16"/>
-        <v>-5.0989813756516558</v>
+        <v>1.5848411157770483</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
@@ -13506,7 +13895,7 @@
       </c>
       <c r="Q34">
         <f t="shared" si="16"/>
-        <v>5.4715545888307009</v>
+        <v>1.6941133131485566</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
@@ -13571,7 +13960,7 @@
       </c>
       <c r="Q35">
         <f t="shared" si="16"/>
-        <v>18.811309430306839</v>
+        <v>8.6075078242839282</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
@@ -13633,71 +14022,71 @@
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B37">
         <f>SUMPRODUCT(B20:B35,$Q$20:$Q$35)/8</f>
-        <v>5.1634132609253989</v>
+        <v>2.9783443018428795</v>
       </c>
       <c r="C37">
         <f t="shared" ref="C37:P37" si="17">SUMPRODUCT(C20:C35,$Q$20:$Q$35)/8</f>
-        <v>8.0283338580530383</v>
+        <v>7.5764626510917266</v>
       </c>
       <c r="D37">
         <f t="shared" si="17"/>
-        <v>-3.9046644456128949</v>
+        <v>-2.2953276215420204</v>
       </c>
       <c r="E37">
         <f t="shared" si="17"/>
-        <v>6.0046207049365847</v>
+        <v>1.4410351811521878</v>
       </c>
       <c r="F37">
         <f t="shared" si="17"/>
-        <v>-4.2797869595714246</v>
+        <v>7.4852399579443656</v>
       </c>
       <c r="G37">
         <f t="shared" si="17"/>
-        <v>8.8484347444410414</v>
+        <v>-0.98774011557397845</v>
       </c>
       <c r="H37">
         <f t="shared" si="17"/>
-        <v>-11.175145023916301</v>
+        <v>4.4965610861247036</v>
       </c>
       <c r="I37">
         <f t="shared" si="17"/>
-        <v>3.505968400020552</v>
+        <v>-6.434317599148538</v>
       </c>
       <c r="J37">
         <f t="shared" si="17"/>
-        <v>0.94557012742281255</v>
+        <v>3.1574451816076907</v>
       </c>
       <c r="K37">
         <f t="shared" si="17"/>
-        <v>-1.2688340874221198</v>
+        <v>-6.1796009301131409</v>
       </c>
       <c r="L37">
         <f t="shared" si="17"/>
-        <v>3.3591627205257928</v>
+        <v>-0.48475951776919457</v>
       </c>
       <c r="M37">
         <f t="shared" si="17"/>
-        <v>5.1524947239258925</v>
+        <v>1.5841745840872017</v>
       </c>
       <c r="N37">
         <f t="shared" si="17"/>
-        <v>-1.9376057938671765</v>
+        <v>-2.1594677989026403</v>
       </c>
       <c r="O37">
         <f t="shared" si="17"/>
-        <v>-1.0102392334310841</v>
+        <v>0.13737943731159163</v>
       </c>
       <c r="P37">
         <f t="shared" si="17"/>
-        <v>8.2087871690129148</v>
+        <v>-5.9989579866179623</v>
       </c>
       <c r="Q37" cm="1">
         <f t="array" ref="Q37">SUM((L37:P37)^2)/5</f>
-        <v>21.998252474079312</v>
+        <v>8.682854422487317</v>
       </c>
       <c r="R37">
         <f>Q37^0.5</f>
-        <v>4.6902294692348807</v>
+        <v>2.9466683597730023</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
@@ -13706,63 +14095,63 @@
       </c>
       <c r="B38">
         <f>(B37-0)/$R$37</f>
-        <v>1.1008871303193848</v>
+        <v>1.0107497479194834</v>
       </c>
       <c r="C38">
         <f t="shared" ref="C38:P38" si="18">(C37-0)/$R$37</f>
-        <v>1.7117145143354158</v>
+        <v>2.5711962549037524</v>
       </c>
       <c r="D38">
         <f t="shared" si="18"/>
-        <v>-0.83251032198428121</v>
+        <v>-0.7789568900515299</v>
       </c>
       <c r="E38">
         <f t="shared" si="18"/>
-        <v>1.2802402834068844</v>
+        <v>0.48903880763263036</v>
       </c>
       <c r="F38">
         <f t="shared" si="18"/>
-        <v>-0.91248988725269942</v>
+        <v>2.5402383451529622</v>
       </c>
       <c r="G38">
         <f t="shared" si="18"/>
-        <v>1.8865675554856147</v>
+        <v>-0.33520572897116574</v>
       </c>
       <c r="H38">
         <f t="shared" si="18"/>
-        <v>-2.3826435566145778</v>
+        <v>1.5259813922429661</v>
       </c>
       <c r="I38">
         <f t="shared" si="18"/>
-        <v>0.7475046632617065</v>
+        <v>-2.1835906907570037</v>
       </c>
       <c r="J38">
         <f t="shared" si="18"/>
-        <v>0.20160423570428504</v>
+        <v>1.0715305545449729</v>
       </c>
       <c r="K38">
         <f t="shared" si="18"/>
-        <v>-0.27052708097651035</v>
+        <v>-2.0971484319291327</v>
       </c>
       <c r="L38">
         <f t="shared" si="18"/>
-        <v>0.71620434406459321</v>
+        <v>-0.16451105403885294</v>
       </c>
       <c r="M38">
         <f t="shared" si="18"/>
-        <v>1.0985591979503768</v>
+        <v>0.53761550017431858</v>
       </c>
       <c r="N38">
         <f t="shared" si="18"/>
-        <v>-0.41311535108819719</v>
+        <v>-0.73285064189205051</v>
       </c>
       <c r="O38">
         <f t="shared" si="18"/>
-        <v>-0.21539228305515826</v>
+        <v>4.6621954199886517E-2</v>
       </c>
       <c r="P38">
         <f t="shared" si="18"/>
-        <v>1.750188817595745</v>
+        <v>-2.0358443008089631</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
@@ -13771,63 +14160,63 @@
       </c>
       <c r="B39">
         <f>IF(_xlfn.T.DIST(B38,5,1)&gt;0.5,(1-_xlfn.T.DIST(B38,5,1))*2,_xlfn.T.DIST(B38,5,1)*2)</f>
-        <v>0.32109943719317791</v>
+        <v>0.35851981756311391</v>
       </c>
       <c r="C39">
         <f t="shared" ref="C39:K39" si="19">IF(_xlfn.T.DIST(C38,5,1)&gt;0.5,(1-_xlfn.T.DIST(C38,5,1))*2,_xlfn.T.DIST(C38,5,1)*2)</f>
-        <v>0.14763041955522649</v>
+        <v>4.9962734970466105E-2</v>
       </c>
       <c r="D39">
         <f t="shared" si="19"/>
-        <v>0.44305501506302636</v>
+        <v>0.47124496720546183</v>
       </c>
       <c r="E39">
         <f t="shared" si="19"/>
-        <v>0.25663605994442973</v>
+        <v>0.64551003866192302</v>
       </c>
       <c r="F39">
         <f t="shared" si="19"/>
-        <v>0.40336254471909572</v>
+        <v>5.187874765254108E-2</v>
       </c>
       <c r="G39">
         <f t="shared" si="19"/>
-        <v>0.11787835344937903</v>
+        <v>0.75107622458220624</v>
       </c>
       <c r="H39">
         <f t="shared" si="19"/>
-        <v>6.2958471340582411E-2</v>
+        <v>0.18753686180295714</v>
       </c>
       <c r="I39">
         <f t="shared" si="19"/>
-        <v>0.48840155582216971</v>
+        <v>8.0746496472984181E-2</v>
       </c>
       <c r="J39">
         <f t="shared" si="19"/>
-        <v>0.84817155390451915</v>
+        <v>0.3329040981786533</v>
       </c>
       <c r="K39">
         <f t="shared" si="19"/>
-        <v>0.79756657906085082</v>
+        <v>9.0078650299402721E-2</v>
       </c>
       <c r="L39">
         <f t="shared" ref="L39" si="20">IF(_xlfn.T.DIST(L38,5,1)&gt;0.5,(1-_xlfn.T.DIST(L38,5,1))*2,_xlfn.T.DIST(L38,5,1)*2)</f>
-        <v>0.50591298515677185</v>
+        <v>0.87577269406559055</v>
       </c>
       <c r="M39">
         <f t="shared" ref="M39" si="21">IF(_xlfn.T.DIST(M38,5,1)&gt;0.5,(1-_xlfn.T.DIST(M38,5,1))*2,_xlfn.T.DIST(M38,5,1)*2)</f>
-        <v>0.32202221522421293</v>
+        <v>0.61389835954118599</v>
       </c>
       <c r="N39">
         <f t="shared" ref="N39" si="22">IF(_xlfn.T.DIST(N38,5,1)&gt;0.5,(1-_xlfn.T.DIST(N38,5,1))*2,_xlfn.T.DIST(N38,5,1)*2)</f>
-        <v>0.69664146306583485</v>
+        <v>0.49654583458267709</v>
       </c>
       <c r="O39">
         <f t="shared" ref="O39" si="23">IF(_xlfn.T.DIST(O38,5,1)&gt;0.5,(1-_xlfn.T.DIST(O38,5,1))*2,_xlfn.T.DIST(O38,5,1)*2)</f>
-        <v>0.83797193130472369</v>
+        <v>0.96461936796422432</v>
       </c>
       <c r="P39">
         <f t="shared" ref="P39" si="24">IF(_xlfn.T.DIST(P38,5,1)&gt;0.5,(1-_xlfn.T.DIST(P38,5,1))*2,_xlfn.T.DIST(P38,5,1)*2)</f>
-        <v>0.14048817255859802</v>
+        <v>9.738306372315518E-2</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
@@ -13910,187 +14299,187 @@
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B43">
         <f>B37-$H$40*$R$37</f>
-        <v>-4.2876260016149566</v>
+        <v>-2.9593349832695965</v>
       </c>
       <c r="C43">
         <f t="shared" ref="C43:P43" si="25">C37-$H$40*$R$37</f>
-        <v>-1.4227054044873171</v>
+        <v>1.6387833659792506</v>
       </c>
       <c r="D43">
         <f t="shared" si="25"/>
-        <v>-13.35570370815325</v>
+        <v>-8.2330069066544969</v>
       </c>
       <c r="E43">
         <f t="shared" si="25"/>
-        <v>-3.4464185576037707</v>
+        <v>-4.4966441039602882</v>
       </c>
       <c r="F43">
         <f t="shared" si="25"/>
-        <v>-13.73082622211178</v>
+        <v>1.5475606728318896</v>
       </c>
       <c r="G43">
         <f t="shared" si="25"/>
-        <v>-0.60260451809931403</v>
+        <v>-6.9254194006864545</v>
       </c>
       <c r="H43">
         <f t="shared" si="25"/>
-        <v>-20.626184286456656</v>
+        <v>-1.4411181989877724</v>
       </c>
       <c r="I43">
         <f t="shared" si="25"/>
-        <v>-5.9450708625198034</v>
+        <v>-12.371996884261014</v>
       </c>
       <c r="J43">
         <f t="shared" si="25"/>
-        <v>-8.5054691351175435</v>
+        <v>-2.7802341035047853</v>
       </c>
       <c r="K43">
         <f t="shared" si="25"/>
-        <v>-10.719873349962475</v>
+        <v>-12.117280215225616</v>
       </c>
       <c r="L43">
         <f t="shared" si="25"/>
-        <v>-6.0918765420145622</v>
+        <v>-6.4224388028816701</v>
       </c>
       <c r="M43">
         <f t="shared" si="25"/>
-        <v>-4.298544538614463</v>
+        <v>-4.3535047010252743</v>
       </c>
       <c r="N43">
         <f t="shared" si="25"/>
-        <v>-11.388645056407531</v>
+        <v>-8.0971470840151163</v>
       </c>
       <c r="O43">
         <f t="shared" si="25"/>
-        <v>-10.46127849597144</v>
+        <v>-5.8002998478008845</v>
       </c>
       <c r="P43">
         <f t="shared" si="25"/>
-        <v>-1.2422520935274406</v>
+        <v>-11.936637271730438</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B44">
         <f>B37</f>
-        <v>5.1634132609253989</v>
+        <v>2.9783443018428795</v>
       </c>
       <c r="C44">
         <f t="shared" ref="C44:P44" si="26">C37</f>
-        <v>8.0283338580530383</v>
+        <v>7.5764626510917266</v>
       </c>
       <c r="D44">
         <f t="shared" si="26"/>
-        <v>-3.9046644456128949</v>
+        <v>-2.2953276215420204</v>
       </c>
       <c r="E44">
         <f t="shared" si="26"/>
-        <v>6.0046207049365847</v>
+        <v>1.4410351811521878</v>
       </c>
       <c r="F44">
         <f t="shared" si="26"/>
-        <v>-4.2797869595714246</v>
+        <v>7.4852399579443656</v>
       </c>
       <c r="G44">
         <f t="shared" si="26"/>
-        <v>8.8484347444410414</v>
+        <v>-0.98774011557397845</v>
       </c>
       <c r="H44">
         <f t="shared" si="26"/>
-        <v>-11.175145023916301</v>
+        <v>4.4965610861247036</v>
       </c>
       <c r="I44">
         <f t="shared" si="26"/>
-        <v>3.505968400020552</v>
+        <v>-6.434317599148538</v>
       </c>
       <c r="J44">
         <f t="shared" si="26"/>
-        <v>0.94557012742281255</v>
+        <v>3.1574451816076907</v>
       </c>
       <c r="K44">
         <f t="shared" si="26"/>
-        <v>-1.2688340874221198</v>
+        <v>-6.1796009301131409</v>
       </c>
       <c r="L44">
         <f t="shared" si="26"/>
-        <v>3.3591627205257928</v>
+        <v>-0.48475951776919457</v>
       </c>
       <c r="M44">
         <f t="shared" si="26"/>
-        <v>5.1524947239258925</v>
+        <v>1.5841745840872017</v>
       </c>
       <c r="N44">
         <f t="shared" si="26"/>
-        <v>-1.9376057938671765</v>
+        <v>-2.1594677989026403</v>
       </c>
       <c r="O44">
         <f t="shared" si="26"/>
-        <v>-1.0102392334310841</v>
+        <v>0.13737943731159163</v>
       </c>
       <c r="P44">
         <f t="shared" si="26"/>
-        <v>8.2087871690129148</v>
+        <v>-5.9989579866179623</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B45">
         <f>B37+$H$40*$R$37</f>
-        <v>14.614452523465754</v>
+        <v>8.9160235869553546</v>
       </c>
       <c r="C45">
         <f t="shared" ref="C45:P45" si="27">C37+$H$40*$R$37</f>
-        <v>17.479373120593394</v>
+        <v>13.514141936204203</v>
       </c>
       <c r="D45">
         <f t="shared" si="27"/>
-        <v>5.5463748169274609</v>
+        <v>3.6423516635704556</v>
       </c>
       <c r="E45">
         <f t="shared" si="27"/>
-        <v>15.45565996747694</v>
+        <v>7.3787144662646638</v>
       </c>
       <c r="F45">
         <f t="shared" si="27"/>
-        <v>5.1712523029689308</v>
+        <v>13.422919243056842</v>
       </c>
       <c r="G45">
         <f t="shared" si="27"/>
-        <v>18.299474006981399</v>
+        <v>4.9499391695384976</v>
       </c>
       <c r="H45">
         <f t="shared" si="27"/>
-        <v>-1.7241057613759452</v>
+        <v>10.434240371237181</v>
       </c>
       <c r="I45">
         <f t="shared" si="27"/>
-        <v>12.957007662560908</v>
+        <v>-0.49663831403606196</v>
       </c>
       <c r="J45">
         <f t="shared" si="27"/>
-        <v>10.396609389963167</v>
+        <v>9.0951244667201667</v>
       </c>
       <c r="K45">
         <f t="shared" si="27"/>
-        <v>8.1822051751182361</v>
+        <v>-0.24192164500066493</v>
       </c>
       <c r="L45">
         <f t="shared" si="27"/>
-        <v>12.810201983066149</v>
+        <v>5.4529197673432819</v>
       </c>
       <c r="M45">
         <f t="shared" si="27"/>
-        <v>14.603533986466248</v>
+        <v>7.5218538691996777</v>
       </c>
       <c r="N45">
         <f t="shared" si="27"/>
-        <v>7.5134334686731794</v>
+        <v>3.7782114862098357</v>
       </c>
       <c r="O45">
         <f t="shared" si="27"/>
-        <v>8.4408000291092709</v>
+        <v>6.0750587224240675</v>
       </c>
       <c r="P45">
         <f t="shared" si="27"/>
-        <v>17.65982643155327</v>
+        <v>-6.127870150548631E-2</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
@@ -14332,67 +14721,67 @@
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52">
         <f>SUM(Q20:Q35)/16</f>
-        <v>5.9910543475853233</v>
+        <v>6.449272418536494</v>
       </c>
       <c r="B52">
         <f>B37/2</f>
-        <v>2.5817066304626994</v>
+        <v>1.4891721509214397</v>
       </c>
       <c r="C52">
         <f t="shared" ref="C52:P52" si="31">C37/2</f>
-        <v>4.0141669290265192</v>
+        <v>3.7882313255458633</v>
       </c>
       <c r="D52">
         <f t="shared" si="31"/>
-        <v>-1.9523322228064475</v>
+        <v>-1.1476638107710102</v>
       </c>
       <c r="E52">
         <f t="shared" si="31"/>
-        <v>3.0023103524682924</v>
+        <v>0.72051759057609388</v>
       </c>
       <c r="F52">
         <f t="shared" si="31"/>
-        <v>-2.1398934797857123</v>
+        <v>3.7426199789721828</v>
       </c>
       <c r="G52">
         <f t="shared" si="31"/>
-        <v>4.4242173722205207</v>
+        <v>-0.49387005778698922</v>
       </c>
       <c r="H52">
         <f>H37/2</f>
-        <v>-5.5875725119581503</v>
+        <v>2.2482805430623518</v>
       </c>
       <c r="I52">
         <f t="shared" si="31"/>
-        <v>1.752984200010276</v>
+        <v>-3.217158799574269</v>
       </c>
       <c r="J52">
         <f t="shared" si="31"/>
-        <v>0.47278506371140627</v>
+        <v>1.5787225908038454</v>
       </c>
       <c r="K52">
         <f t="shared" si="31"/>
-        <v>-0.63441704371105989</v>
+        <v>-3.0898004650565705</v>
       </c>
       <c r="L52">
         <f t="shared" si="31"/>
-        <v>1.6795813602628964</v>
+        <v>-0.24237975888459729</v>
       </c>
       <c r="M52">
         <f t="shared" si="31"/>
-        <v>2.5762473619629462</v>
+        <v>0.79208729204360084</v>
       </c>
       <c r="N52">
         <f t="shared" si="31"/>
-        <v>-0.96880289693358823</v>
+        <v>-1.0797338994513201</v>
       </c>
       <c r="O52">
         <f t="shared" si="31"/>
-        <v>-0.50511961671554206</v>
+        <v>6.8689718655795817E-2</v>
       </c>
       <c r="P52">
         <f t="shared" si="31"/>
-        <v>4.1043935845064574</v>
+        <v>-2.9994789933089812</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
@@ -14427,17 +14816,22 @@
       </c>
       <c r="F56">
         <f>A52+C52*C56+G52*B56*D56+H52*B56*E56+P52*B56*C56*D56*E56</f>
-        <v>24.121404745296971</v>
+        <v>4.4958741499240347</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B38:P39">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
       <formula>$B$40</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="greaterThan">
       <formula>$D$40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B39:P39">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>0.01</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15083,7 +15477,7 @@
   <dimension ref="A1:Q61"/>
   <sheetViews>
     <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>

--- a/統計管制與最佳化方法概論/homework/my_homework/HW12/hw_12.xlsx
+++ b/統計管制與最佳化方法概論/homework/my_homework/HW12/hw_12.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOLab\Documents\研究所資料\統計管制與最佳化方法概論\homework\my_homework\HW12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Documents\institute_information\統計管制與最佳化方法概論\homework\my_homework\HW12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E708BC69-B6BE-4CFD-9E6B-47A56BF2CCAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E4BECE-6747-492C-A5B4-F9572BBEFC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2850" yWindow="5625" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{CB8A175E-6191-4478-A7B3-8E35534C3B7C}"/>
+    <workbookView xWindow="3540" yWindow="3350" windowWidth="19200" windowHeight="11460" activeTab="4" xr2:uid="{CB8A175E-6191-4478-A7B3-8E35534C3B7C}"/>
   </bookViews>
   <sheets>
     <sheet name="1-1" sheetId="1" r:id="rId1"/>
@@ -8882,16 +8882,16 @@
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="10" max="10" width="13.75" customWidth="1"/>
-    <col min="11" max="11" width="16.125" customWidth="1"/>
-    <col min="12" max="14" width="13.5" customWidth="1"/>
+    <col min="10" max="10" width="13.7265625" customWidth="1"/>
+    <col min="11" max="11" width="16.08984375" customWidth="1"/>
+    <col min="12" max="14" width="13.453125" customWidth="1"/>
     <col min="15" max="15" width="14" customWidth="1"/>
-    <col min="17" max="17" width="12.375" customWidth="1"/>
+    <col min="17" max="17" width="12.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -8930,7 +8930,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:24" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2">
         <v>1</v>
       </c>
@@ -8968,7 +8968,7 @@
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
     </row>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B3">
         <v>2</v>
       </c>
@@ -9010,7 +9010,7 @@
       </c>
       <c r="Q3" s="4"/>
     </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B4">
         <v>3</v>
       </c>
@@ -9054,7 +9054,7 @@
         <v>0.98944603157237543</v>
       </c>
     </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B5">
         <v>4</v>
       </c>
@@ -9098,7 +9098,7 @@
         <v>0.97900344939432205</v>
       </c>
     </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B6">
         <v>5</v>
       </c>
@@ -9143,7 +9143,7 @@
         <v>0.96981745850433798</v>
       </c>
     </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B7">
         <v>6</v>
       </c>
@@ -9192,7 +9192,7 @@
         <v>3.3006009553817135</v>
       </c>
     </row>
-    <row r="8" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:24" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B8">
         <v>7</v>
       </c>
@@ -9244,7 +9244,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B9">
         <v>8</v>
       </c>
@@ -9293,7 +9293,7 @@
         <v>1.9678250627177531</v>
       </c>
     </row>
-    <row r="10" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:24" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="L10" s="1" t="s">
         <v>79</v>
       </c>
@@ -9304,7 +9304,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>3</v>
       </c>
@@ -9361,7 +9361,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B12">
         <f>C2</f>
         <v>-1</v>
@@ -9428,7 +9428,7 @@
         <v>3.2000830664664587E-12</v>
       </c>
     </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B13">
         <f t="shared" ref="B13:D13" si="5">C3</f>
         <v>1</v>
@@ -9491,7 +9491,7 @@
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
     </row>
-    <row r="14" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:24" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B14">
         <f t="shared" ref="B14:D14" si="11">C4</f>
         <v>-1</v>
@@ -9552,7 +9552,7 @@
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
     </row>
-    <row r="15" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:24" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B15">
         <f t="shared" ref="B15:D15" si="12">C5</f>
         <v>1</v>
@@ -9601,7 +9601,7 @@
         <v>1.9743508092834146</v>
       </c>
     </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B16">
         <f t="shared" ref="B16:D16" si="13">C6</f>
         <v>-1</v>
@@ -9675,7 +9675,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B17">
         <f t="shared" ref="B17:D17" si="14">C7</f>
         <v>1</v>
@@ -9751,7 +9751,7 @@
         <v>51.836575062717763</v>
       </c>
     </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B18">
         <f t="shared" ref="B18:D18" si="15">C8</f>
         <v>-1</v>
@@ -9820,7 +9820,7 @@
         <v>12.702408396051094</v>
       </c>
     </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B19">
         <f t="shared" ref="B19:D19" si="16">C9</f>
         <v>1</v>
@@ -9898,7 +9898,7 @@
         <v>2.5199083960510946</v>
       </c>
     </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B20">
         <f>C2</f>
         <v>-1</v>
@@ -9976,7 +9976,7 @@
         <v>-2.0684249372822361</v>
       </c>
     </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B21">
         <f t="shared" ref="B21:D27" si="22">C3</f>
         <v>1</v>
@@ -10054,7 +10054,7 @@
         <v>3.0490750627177619</v>
       </c>
     </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B22">
         <f t="shared" si="22"/>
         <v>-1</v>
@@ -10132,7 +10132,7 @@
         <v>16.284908396051097</v>
       </c>
     </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B23">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -10210,7 +10210,7 @@
         <v>2.7457417293844277</v>
       </c>
     </row>
-    <row r="24" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:24" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B24">
         <f t="shared" si="22"/>
         <v>-1</v>
@@ -10288,7 +10288,7 @@
         <v>1.7357417293844271</v>
       </c>
     </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B25">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -10353,7 +10353,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B26">
         <f t="shared" si="22"/>
         <v>-1</v>
@@ -10409,7 +10409,7 @@
         <v>reject</v>
       </c>
     </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B27">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -10474,7 +10474,7 @@
         <v>reject</v>
       </c>
     </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B28">
         <f>C2</f>
         <v>-1</v>
@@ -10539,7 +10539,7 @@
         <v>accept</v>
       </c>
     </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B29">
         <f t="shared" ref="B29:D29" si="34">C3</f>
         <v>1</v>
@@ -10607,7 +10607,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B30">
         <f t="shared" ref="B30:D30" si="39">C4</f>
         <v>-1</v>
@@ -10675,7 +10675,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B31">
         <f t="shared" ref="B31:D31" si="40">C5</f>
         <v>1</v>
@@ -10743,7 +10743,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B32">
         <f t="shared" ref="B32:D32" si="41">C6</f>
         <v>-1</v>
@@ -10811,7 +10811,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B33">
         <f t="shared" ref="B33:D33" si="42">C7</f>
         <v>1</v>
@@ -10876,7 +10876,7 @@
         <v>accept</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B34">
         <f t="shared" ref="B34:D34" si="43">C8</f>
         <v>-1</v>
@@ -10911,7 +10911,7 @@
       </c>
       <c r="M34" s="7"/>
     </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B35">
         <f t="shared" ref="B35:D35" si="44">C9</f>
         <v>1</v>
@@ -10958,7 +10958,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:20" x14ac:dyDescent="0.4">
       <c r="Q36">
         <v>1</v>
       </c>
@@ -10973,7 +10973,7 @@
         <v>78.956666666666649</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B37" t="str" cm="1">
         <f t="array" ref="B37:H38">TRANSPOSE(J11:K17)</f>
         <v>E1</v>
@@ -10997,7 +10997,7 @@
         <v>E123</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B38">
         <v>21.46916666666667</v>
       </c>
@@ -11044,12 +11044,12 @@
       <selection activeCell="C27" sqref="C27:F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="9" max="11" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -11081,7 +11081,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B2">
         <v>1</v>
       </c>
@@ -11135,7 +11135,7 @@
         <v>0.1848395099249342</v>
       </c>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B3">
         <v>2</v>
       </c>
@@ -11189,7 +11189,7 @@
         <v>-0.1848395099249342</v>
       </c>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B4">
         <v>3</v>
       </c>
@@ -11243,7 +11243,7 @@
         <v>-0.34211708918224021</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B5">
         <v>4</v>
       </c>
@@ -11297,7 +11297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B6">
         <v>5</v>
       </c>
@@ -11351,7 +11351,7 @@
         <v>0.34211708918224032</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B7">
         <v>6</v>
       </c>
@@ -11405,7 +11405,7 @@
         <v>-8.5482086029534915E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B8">
         <v>7</v>
       </c>
@@ -11459,7 +11459,7 @@
         <v>8.5482086029534943E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B9">
         <v>8</v>
       </c>
@@ -11498,7 +11498,7 @@
         <v>-28.626803630045615</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>0</v>
       </c>
@@ -11527,7 +11527,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B12">
         <v>1</v>
       </c>
@@ -11564,7 +11564,7 @@
         <v>-32.25847180659887</v>
       </c>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B13">
         <v>2</v>
       </c>
@@ -11601,7 +11601,7 @@
         <v>-27.4962084898306</v>
       </c>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B14">
         <v>3</v>
       </c>
@@ -11638,7 +11638,7 @@
         <v>-37.053318005467176</v>
       </c>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B15">
         <v>4</v>
       </c>
@@ -11675,7 +11675,7 @@
         <v>-33.741526243370735</v>
       </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B16">
         <v>5</v>
       </c>
@@ -11712,7 +11712,7 @@
         <v>-38.039253958242064</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B17">
         <v>6</v>
       </c>
@@ -11749,7 +11749,7 @@
         <v>-35.338081676183947</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B18">
         <v>7</v>
       </c>
@@ -11786,7 +11786,7 @@
         <v>-34.271259411334526</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B19">
         <v>8</v>
       </c>
@@ -11823,7 +11823,7 @@
         <v>-28.626803630045615</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.4">
       <c r="C20" t="s">
         <v>16</v>
       </c>
@@ -11852,7 +11852,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.4">
       <c r="C21">
         <f>SUMPRODUCT(C12:C19,$M$12:$M$19)/4</f>
         <v>4.1049207855529346</v>
@@ -11902,7 +11902,7 @@
         <v>0.23348976176368294</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.4">
       <c r="C22">
         <v>0</v>
       </c>
@@ -11940,7 +11940,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
         <v>98</v>
       </c>
@@ -11993,7 +11993,7 @@
         <v>5.8409093097333553</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
         <v>82</v>
       </c>
@@ -12019,7 +12019,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B25" s="25">
         <f>SUM(L2:L9)/8</f>
         <v>-33.353115402634195</v>
@@ -12065,7 +12065,7 @@
         <v>0.54921938173782792</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.4">
       <c r="C27" t="s">
         <v>3</v>
       </c>
@@ -12079,7 +12079,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.4">
       <c r="C28">
         <v>1</v>
       </c>
@@ -12113,16 +12113,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5508E73-7190-449A-8923-B8B0FDD3E2C3}">
   <dimension ref="A1:V56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M52" sqref="M52"/>
+    <sheetView topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56:F56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="8" max="9" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12160,7 +12160,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -12210,7 +12210,7 @@
         <v>0.37028231482430768</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -12260,7 +12260,7 @@
         <v>4.8468381389957669</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -12310,7 +12310,7 @@
         <v>-1.9874976058939908</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -12360,7 +12360,7 @@
         <v>-0.37028231482430729</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -12410,7 +12410,7 @@
         <v>3.0540254758336389</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -12460,7 +12460,7 @@
         <v>-1.1354116267361563</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -12510,7 +12510,7 @@
         <v>1.9874976058939908</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -12560,7 +12560,7 @@
         <v>-4.8468381389957695</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -12610,7 +12610,7 @@
         <v>1.1354116267361563</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -12660,7 +12660,7 @@
         <v>-3.0540254758336389</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -12695,7 +12695,7 @@
         <v>6.8350546077768879</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -12730,7 +12730,7 @@
         <v>33.010299956639813</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -12765,7 +12765,7 @@
         <v>-0.15715932006950581</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -12800,7 +12800,7 @@
         <v>1.5848411157770483</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -12835,7 +12835,7 @@
         <v>1.6941133131485566</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -12870,7 +12870,7 @@
         <v>8.6075078242839282</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -12923,7 +12923,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>1</v>
       </c>
@@ -12988,7 +12988,7 @@
         <v>-0.1703333929878037</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>2</v>
       </c>
@@ -13053,7 +13053,7 @@
         <v>-3.2471447656066834</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>3</v>
       </c>
@@ -13118,7 +13118,7 @@
         <v>10.433514207947967</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>4</v>
       </c>
@@ -13183,7 +13183,7 @@
         <v>8.1304366453458776</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>5</v>
       </c>
@@ -13248,7 +13248,7 @@
         <v>14.628107737563553</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>6</v>
       </c>
@@ -13313,7 +13313,7 @@
         <v>2.8663547939044607</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>7</v>
       </c>
@@ -13378,7 +13378,7 @@
         <v>1.0601643278815294</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>8</v>
       </c>
@@ -13443,7 +13443,7 @@
         <v>12.128939069634299</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>9</v>
       </c>
@@ -13508,7 +13508,7 @@
         <v>5.357340659659247</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>10</v>
       </c>
@@ -13573,7 +13573,7 @@
         <v>0.42632191568472555</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>11</v>
       </c>
@@ -13638,7 +13638,7 @@
         <v>6.8350546077768879</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>12</v>
       </c>
@@ -13703,7 +13703,7 @@
         <v>33.010299956639813</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>13</v>
       </c>
@@ -13768,7 +13768,7 @@
         <v>-0.15715932006950581</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>14</v>
       </c>
@@ -13833,7 +13833,7 @@
         <v>1.5848411157770483</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>15</v>
       </c>
@@ -13898,7 +13898,7 @@
         <v>1.6941133131485566</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>16</v>
       </c>
@@ -13963,7 +13963,7 @@
         <v>8.6075078242839282</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>116</v>
       </c>
@@ -14019,7 +14019,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B37">
         <f>SUMPRODUCT(B20:B35,$Q$20:$Q$35)/8</f>
         <v>2.9783443018428795</v>
@@ -14089,7 +14089,7 @@
         <v>2.9466683597730023</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>98</v>
       </c>
@@ -14154,7 +14154,7 @@
         <v>-2.0358443008089631</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>130</v>
       </c>
@@ -14219,7 +14219,7 @@
         <v>9.738306372315518E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A40" s="26" t="s">
         <v>128</v>
       </c>
@@ -14249,7 +14249,7 @@
         <v>2.0150483733330233</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B42">
         <v>15</v>
       </c>
@@ -14296,7 +14296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B43">
         <f>B37-$H$40*$R$37</f>
         <v>-2.9593349832695965</v>
@@ -14358,7 +14358,7 @@
         <v>-11.936637271730438</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B44">
         <f>B37</f>
         <v>2.9783443018428795</v>
@@ -14420,7 +14420,7 @@
         <v>-5.9989579866179623</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B45">
         <f>B37+$H$40*$R$37</f>
         <v>8.9160235869553546</v>
@@ -14482,7 +14482,7 @@
         <v>-6.127870150548631E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B47">
         <f>B42</f>
         <v>15</v>
@@ -14544,7 +14544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B48">
         <f>B42</f>
         <v>15</v>
@@ -14606,7 +14606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B49">
         <f>B48</f>
         <v>15</v>
@@ -14668,7 +14668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>82</v>
       </c>
@@ -14718,7 +14718,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A52">
         <f>SUM(Q20:Q35)/16</f>
         <v>6.449272418536494</v>
@@ -14784,7 +14784,7 @@
         <v>-2.9994789933089812</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B55" t="s">
         <v>3</v>
       </c>
@@ -14801,9 +14801,9 @@
         <v>102</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B56">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -14815,8 +14815,8 @@
         <v>1</v>
       </c>
       <c r="F56">
-        <f>A52+C52*C56+G52*B56*D56+H52*B56*E56+P52*B56*C56*D56*E56</f>
-        <v>4.4958741499240347</v>
+        <f>A52+C52*C56+I52*C56*D56+K52*D56*E56+F52*B56*C56+P52*B56*C56*D56*E56</f>
+        <v>23.28656198099436</v>
       </c>
     </row>
   </sheetData>
@@ -14847,21 +14847,21 @@
       <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B3" s="4"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>30</v>
       </c>
@@ -14869,7 +14869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
@@ -14877,7 +14877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>32</v>
       </c>
@@ -14885,7 +14885,7 @@
         <v>65535</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>33</v>
       </c>
@@ -14893,7 +14893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>34</v>
       </c>
@@ -14901,12 +14901,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
         <v>40</v>
@@ -14924,7 +14924,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>36</v>
       </c>
@@ -14944,7 +14944,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>37</v>
       </c>
@@ -14960,7 +14960,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>38</v>
       </c>
@@ -14974,8 +14974,8 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
         <v>45</v>
@@ -15002,7 +15002,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>39</v>
       </c>
@@ -15031,7 +15031,7 @@
         <v>5.9910543475853233</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>2</v>
       </c>
@@ -15060,7 +15060,7 @@
         <v>2.5817066304627003</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>4</v>
       </c>
@@ -15089,7 +15089,7 @@
         <v>4.0141669290265183</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
@@ -15118,7 +15118,7 @@
         <v>-1.9523322228064461</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>142</v>
       </c>
@@ -15147,7 +15147,7 @@
         <v>3.0023103524682937</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
@@ -15176,7 +15176,7 @@
         <v>-2.1398934797857168</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>12</v>
       </c>
@@ -15205,7 +15205,7 @@
         <v>4.4242173722205216</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>143</v>
       </c>
@@ -15234,7 +15234,7 @@
         <v>-5.5875725119581503</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>10</v>
       </c>
@@ -15263,7 +15263,7 @@
         <v>1.7529842000102775</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>144</v>
       </c>
@@ -15292,7 +15292,7 @@
         <v>0.47278506371140627</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>145</v>
       </c>
@@ -15321,7 +15321,7 @@
         <v>-0.63441704371106145</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>14</v>
       </c>
@@ -15350,7 +15350,7 @@
         <v>1.6795813602628948</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
         <v>146</v>
       </c>
@@ -15379,7 +15379,7 @@
         <v>2.5762473619629476</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
         <v>147</v>
       </c>
@@ -15408,7 +15408,7 @@
         <v>-0.96880289693358945</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
         <v>148</v>
       </c>
@@ -15437,7 +15437,7 @@
         <v>-0.50511961671554306</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A32" s="2" t="s">
         <v>149</v>
       </c>
@@ -15476,13 +15476,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEF42194-8B24-4BF4-9C6E-F07C86AABADE}">
   <dimension ref="A1:Q61"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60:E61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -15505,7 +15505,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -15528,7 +15528,7 @@
         <v>-0.08</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -15551,7 +15551,7 @@
         <v>-1.01</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -15574,7 +15574,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -15597,7 +15597,7 @@
         <v>-0.24</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -15620,7 +15620,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -15643,7 +15643,7 @@
         <v>-0.64</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -15666,7 +15666,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -15689,7 +15689,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -15712,7 +15712,7 @@
         <v>-0.65</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -15735,7 +15735,7 @@
         <v>-1.19</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -15758,7 +15758,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -15781,7 +15781,7 @@
         <v>-0.03</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -15804,7 +15804,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -15827,7 +15827,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -15850,7 +15850,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -15873,7 +15873,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
         <v>3</v>
       </c>
@@ -15920,7 +15920,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>1</v>
       </c>
@@ -15984,7 +15984,7 @@
         <v>-1.44</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>2</v>
       </c>
@@ -16048,7 +16048,7 @@
         <v>-1.79</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>3</v>
       </c>
@@ -16112,7 +16112,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>4</v>
       </c>
@@ -16176,7 +16176,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>5</v>
       </c>
@@ -16240,7 +16240,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>6</v>
       </c>
@@ -16304,7 +16304,7 @@
         <v>-0.79</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>7</v>
       </c>
@@ -16368,7 +16368,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>8</v>
       </c>
@@ -16432,7 +16432,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>9</v>
       </c>
@@ -16496,7 +16496,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>10</v>
       </c>
@@ -16560,7 +16560,7 @@
         <v>-0.63</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>11</v>
       </c>
@@ -16624,7 +16624,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>12</v>
       </c>
@@ -16688,7 +16688,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>13</v>
       </c>
@@ -16752,7 +16752,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>14</v>
       </c>
@@ -16816,7 +16816,7 @@
         <v>-1.17</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>15</v>
       </c>
@@ -16880,7 +16880,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>16</v>
       </c>
@@ -16944,7 +16944,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>1</v>
       </c>
@@ -17012,7 +17012,7 @@
         <v>-0.08</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>2</v>
       </c>
@@ -17080,7 +17080,7 @@
         <v>-1.01</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>3</v>
       </c>
@@ -17148,7 +17148,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>4</v>
       </c>
@@ -17216,7 +17216,7 @@
         <v>-0.24</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>5</v>
       </c>
@@ -17284,7 +17284,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>6</v>
       </c>
@@ -17352,7 +17352,7 @@
         <v>-0.64</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>7</v>
       </c>
@@ -17420,7 +17420,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>8</v>
       </c>
@@ -17488,7 +17488,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>9</v>
       </c>
@@ -17556,7 +17556,7 @@
         <v>-0.65</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>10</v>
       </c>
@@ -17624,7 +17624,7 @@
         <v>-1.19</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>11</v>
       </c>
@@ -17692,7 +17692,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>12</v>
       </c>
@@ -17760,7 +17760,7 @@
         <v>-0.03</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>13</v>
       </c>
@@ -17828,7 +17828,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>14</v>
       </c>
@@ -17896,7 +17896,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>15</v>
       </c>
@@ -17964,7 +17964,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>16</v>
       </c>
@@ -18032,7 +18032,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B54" t="s">
         <v>16</v>
       </c>
@@ -18079,7 +18079,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B55">
         <f>SUMPRODUCT(B21:B52,$Q$21:$Q$52)/16</f>
         <v>-0.65437499999999993</v>
@@ -18141,7 +18141,7 @@
         <v>0.12062499999999991</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>82</v>
       </c>
@@ -18191,7 +18191,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A58">
         <f>SUM(Q21:Q52)/32</f>
         <v>-8.7187499999999987E-2</v>
@@ -18257,7 +18257,7 @@
         <v>6.0312499999999956E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B60" t="s">
         <v>3</v>
       </c>
@@ -18271,19 +18271,19 @@
         <v>101</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B61">
-        <v>0</v>
+        <v>-7.7811991682638179E-2</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>9.4459443071006025E-2</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>7.5879697908941321E-2</v>
       </c>
       <c r="E61">
-        <f>B58*B61+C58*C61+D58*D61</f>
-        <v>0</v>
+        <f>A58+B58*B61+C58*C61+D58*D61</f>
+        <v>8.7187499990537543E-8</v>
       </c>
     </row>
   </sheetData>

--- a/統計管制與最佳化方法概論/homework/my_homework/HW12/hw_12.xlsx
+++ b/統計管制與最佳化方法概論/homework/my_homework/HW12/hw_12.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Documents\institute_information\統計管制與最佳化方法概論\homework\my_homework\HW12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOLab\Documents\研究所資料\統計管制與最佳化方法概論\homework\my_homework\HW12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E4BECE-6747-492C-A5B4-F9572BBEFC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF339749-170B-4D24-AEFE-650E8C3C8D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="3350" windowWidth="19200" windowHeight="11460" activeTab="4" xr2:uid="{CB8A175E-6191-4478-A7B3-8E35534C3B7C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{CB8A175E-6191-4478-A7B3-8E35534C3B7C}"/>
   </bookViews>
   <sheets>
     <sheet name="1-1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
   <definedNames>
     <definedName name="solver_adj" localSheetId="0" hidden="1">'1-1'!$Q$36:$S$36</definedName>
     <definedName name="solver_adj" localSheetId="1" hidden="1">'1-2'!$C$28:$E$28</definedName>
-    <definedName name="solver_adj" localSheetId="2" hidden="1">'2-1'!$B$56:$E$56</definedName>
+    <definedName name="solver_adj" localSheetId="2" hidden="1">'2-1'!$B$58:$E$58</definedName>
     <definedName name="solver_adj" localSheetId="4" hidden="1">'2-2'!$B$61:$D$61</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
@@ -46,30 +46,31 @@
     <definedName name="solver_itr" localSheetId="4" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">'1-1'!$Q$36</definedName>
     <definedName name="solver_lhs1" localSheetId="1" hidden="1">'1-2'!$C$28</definedName>
-    <definedName name="solver_lhs1" localSheetId="2" hidden="1">'2-1'!$B$56</definedName>
+    <definedName name="solver_lhs1" localSheetId="2" hidden="1">'2-1'!$B$58</definedName>
     <definedName name="solver_lhs1" localSheetId="4" hidden="1">'2-2'!$B$61</definedName>
     <definedName name="solver_lhs2" localSheetId="0" hidden="1">'1-1'!$Q$36</definedName>
     <definedName name="solver_lhs2" localSheetId="1" hidden="1">'1-2'!$C$28</definedName>
-    <definedName name="solver_lhs2" localSheetId="2" hidden="1">'2-1'!$B$56</definedName>
+    <definedName name="solver_lhs2" localSheetId="2" hidden="1">'2-1'!$B$58</definedName>
     <definedName name="solver_lhs2" localSheetId="4" hidden="1">'2-2'!$B$61</definedName>
     <definedName name="solver_lhs3" localSheetId="0" hidden="1">'1-1'!$R$36</definedName>
     <definedName name="solver_lhs3" localSheetId="1" hidden="1">'1-2'!$D$28</definedName>
-    <definedName name="solver_lhs3" localSheetId="2" hidden="1">'2-1'!$C$56</definedName>
+    <definedName name="solver_lhs3" localSheetId="2" hidden="1">'2-1'!$C$58</definedName>
     <definedName name="solver_lhs3" localSheetId="4" hidden="1">'2-2'!$C$61</definedName>
     <definedName name="solver_lhs4" localSheetId="0" hidden="1">'1-1'!$R$36</definedName>
     <definedName name="solver_lhs4" localSheetId="1" hidden="1">'1-2'!$D$28</definedName>
-    <definedName name="solver_lhs4" localSheetId="2" hidden="1">'2-1'!$C$56</definedName>
+    <definedName name="solver_lhs4" localSheetId="2" hidden="1">'2-1'!$C$58</definedName>
     <definedName name="solver_lhs4" localSheetId="4" hidden="1">'2-2'!$C$61</definedName>
     <definedName name="solver_lhs5" localSheetId="0" hidden="1">'1-1'!$S$36</definedName>
     <definedName name="solver_lhs5" localSheetId="1" hidden="1">'1-2'!$E$28</definedName>
-    <definedName name="solver_lhs5" localSheetId="2" hidden="1">'2-1'!$D$56</definedName>
+    <definedName name="solver_lhs5" localSheetId="2" hidden="1">'2-1'!$D$58</definedName>
     <definedName name="solver_lhs5" localSheetId="4" hidden="1">'2-2'!$D$61</definedName>
     <definedName name="solver_lhs6" localSheetId="0" hidden="1">'1-1'!$S$36</definedName>
     <definedName name="solver_lhs6" localSheetId="1" hidden="1">'1-2'!$E$28</definedName>
-    <definedName name="solver_lhs6" localSheetId="2" hidden="1">'2-1'!$D$56</definedName>
+    <definedName name="solver_lhs6" localSheetId="2" hidden="1">'2-1'!$D$58</definedName>
     <definedName name="solver_lhs6" localSheetId="4" hidden="1">'2-2'!$D$61</definedName>
-    <definedName name="solver_lhs7" localSheetId="2" hidden="1">'2-1'!$E$56</definedName>
-    <definedName name="solver_lhs8" localSheetId="2" hidden="1">'2-1'!$E$56</definedName>
+    <definedName name="solver_lhs7" localSheetId="2" hidden="1">'2-1'!$D$58</definedName>
+    <definedName name="solver_lhs8" localSheetId="2" hidden="1">'2-1'!$E$58</definedName>
+    <definedName name="solver_lhs9" localSheetId="2" hidden="1">'2-1'!$E$58</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
@@ -96,7 +97,7 @@
     <definedName name="solver_nod" localSheetId="4" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">6</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">6</definedName>
-    <definedName name="solver_num" localSheetId="2" hidden="1">8</definedName>
+    <definedName name="solver_num" localSheetId="2" hidden="1">9</definedName>
     <definedName name="solver_num" localSheetId="4" hidden="1">6</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
@@ -104,7 +105,7 @@
     <definedName name="solver_nwt" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">'1-1'!$T$36</definedName>
     <definedName name="solver_opt" localSheetId="1" hidden="1">'1-2'!$F$28</definedName>
-    <definedName name="solver_opt" localSheetId="2" hidden="1">'2-1'!$F$56</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">'2-1'!$F$58</definedName>
     <definedName name="solver_opt" localSheetId="4" hidden="1">'2-2'!$E$61</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
@@ -136,10 +137,11 @@
     <definedName name="solver_rel5" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_rel6" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel6" localSheetId="1" hidden="1">3</definedName>
-    <definedName name="solver_rel6" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_rel6" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rel6" localSheetId="4" hidden="1">3</definedName>
-    <definedName name="solver_rel7" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_rel8" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_rel7" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_rel8" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rel9" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rhs1" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rhs1" localSheetId="2" hidden="1">1</definedName>
@@ -162,10 +164,11 @@
     <definedName name="solver_rhs5" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_rhs6" localSheetId="0" hidden="1">-1</definedName>
     <definedName name="solver_rhs6" localSheetId="1" hidden="1">-1</definedName>
-    <definedName name="solver_rhs6" localSheetId="2" hidden="1">-1</definedName>
+    <definedName name="solver_rhs6" localSheetId="2" hidden="1">-('2-1'!$A$55+'2-1'!$B$55*'2-1'!$B$58+'2-1'!$C$55*'2-1'!$C$58)/'2-1'!$D$55</definedName>
     <definedName name="solver_rhs6" localSheetId="4" hidden="1">-1</definedName>
-    <definedName name="solver_rhs7" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_rhs8" localSheetId="2" hidden="1">-1</definedName>
+    <definedName name="solver_rhs7" localSheetId="2" hidden="1">-1</definedName>
+    <definedName name="solver_rhs8" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rhs9" localSheetId="2" hidden="1">-1</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
@@ -248,7 +251,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="163">
   <si>
     <t>test</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -868,6 +871,45 @@
   <si>
     <t>x1x2x3x4</t>
   </si>
+  <si>
+    <t>b0</t>
+  </si>
+  <si>
+    <t>b1</t>
+  </si>
+  <si>
+    <t>b12</t>
+  </si>
+  <si>
+    <t>b13</t>
+  </si>
+  <si>
+    <t>b14</t>
+  </si>
+  <si>
+    <t>b23</t>
+  </si>
+  <si>
+    <t>b24</t>
+  </si>
+  <si>
+    <t>b34</t>
+  </si>
+  <si>
+    <t>b123</t>
+  </si>
+  <si>
+    <t>b134</t>
+  </si>
+  <si>
+    <t>b124</t>
+  </si>
+  <si>
+    <t>b234</t>
+  </si>
+  <si>
+    <t>b1234</t>
+  </si>
 </sst>
 </file>
 
@@ -1020,7 +1062,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1104,6 +1146,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8882,16 +8927,16 @@
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="13.7265625" customWidth="1"/>
-    <col min="11" max="11" width="16.08984375" customWidth="1"/>
-    <col min="12" max="14" width="13.453125" customWidth="1"/>
+    <col min="10" max="10" width="13.75" customWidth="1"/>
+    <col min="11" max="11" width="16.125" customWidth="1"/>
+    <col min="12" max="14" width="13.5" customWidth="1"/>
     <col min="15" max="15" width="14" customWidth="1"/>
-    <col min="17" max="17" width="12.36328125" customWidth="1"/>
+    <col min="17" max="17" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -8930,7 +8975,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="2:24" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>1</v>
       </c>
@@ -8968,7 +9013,7 @@
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
     </row>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>2</v>
       </c>
@@ -9010,7 +9055,7 @@
       </c>
       <c r="Q3" s="4"/>
     </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>3</v>
       </c>
@@ -9054,7 +9099,7 @@
         <v>0.98944603157237543</v>
       </c>
     </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>4</v>
       </c>
@@ -9098,7 +9143,7 @@
         <v>0.97900344939432205</v>
       </c>
     </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>5</v>
       </c>
@@ -9143,7 +9188,7 @@
         <v>0.96981745850433798</v>
       </c>
     </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>6</v>
       </c>
@@ -9192,7 +9237,7 @@
         <v>3.3006009553817135</v>
       </c>
     </row>
-    <row r="8" spans="2:24" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>7</v>
       </c>
@@ -9244,7 +9289,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>8</v>
       </c>
@@ -9293,7 +9338,7 @@
         <v>1.9678250627177531</v>
       </c>
     </row>
-    <row r="10" spans="2:24" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L10" s="1" t="s">
         <v>79</v>
       </c>
@@ -9304,7 +9349,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>3</v>
       </c>
@@ -9361,7 +9406,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B12">
         <f>C2</f>
         <v>-1</v>
@@ -9428,7 +9473,7 @@
         <v>3.2000830664664587E-12</v>
       </c>
     </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B13">
         <f t="shared" ref="B13:D13" si="5">C3</f>
         <v>1</v>
@@ -9491,7 +9536,7 @@
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
     </row>
-    <row r="14" spans="2:24" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14">
         <f t="shared" ref="B14:D14" si="11">C4</f>
         <v>-1</v>
@@ -9552,7 +9597,7 @@
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
     </row>
-    <row r="15" spans="2:24" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15">
         <f t="shared" ref="B15:D15" si="12">C5</f>
         <v>1</v>
@@ -9601,7 +9646,7 @@
         <v>1.9743508092834146</v>
       </c>
     </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B16">
         <f t="shared" ref="B16:D16" si="13">C6</f>
         <v>-1</v>
@@ -9675,7 +9720,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B17">
         <f t="shared" ref="B17:D17" si="14">C7</f>
         <v>1</v>
@@ -9751,7 +9796,7 @@
         <v>51.836575062717763</v>
       </c>
     </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B18">
         <f t="shared" ref="B18:D18" si="15">C8</f>
         <v>-1</v>
@@ -9820,7 +9865,7 @@
         <v>12.702408396051094</v>
       </c>
     </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B19">
         <f t="shared" ref="B19:D19" si="16">C9</f>
         <v>1</v>
@@ -9898,7 +9943,7 @@
         <v>2.5199083960510946</v>
       </c>
     </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B20">
         <f>C2</f>
         <v>-1</v>
@@ -9976,7 +10021,7 @@
         <v>-2.0684249372822361</v>
       </c>
     </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B21">
         <f t="shared" ref="B21:D27" si="22">C3</f>
         <v>1</v>
@@ -10054,7 +10099,7 @@
         <v>3.0490750627177619</v>
       </c>
     </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B22">
         <f t="shared" si="22"/>
         <v>-1</v>
@@ -10132,7 +10177,7 @@
         <v>16.284908396051097</v>
       </c>
     </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B23">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -10210,7 +10255,7 @@
         <v>2.7457417293844277</v>
       </c>
     </row>
-    <row r="24" spans="2:24" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24">
         <f t="shared" si="22"/>
         <v>-1</v>
@@ -10288,7 +10333,7 @@
         <v>1.7357417293844271</v>
       </c>
     </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B25">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -10353,7 +10398,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B26">
         <f t="shared" si="22"/>
         <v>-1</v>
@@ -10409,7 +10454,7 @@
         <v>reject</v>
       </c>
     </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B27">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -10474,7 +10519,7 @@
         <v>reject</v>
       </c>
     </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B28">
         <f>C2</f>
         <v>-1</v>
@@ -10539,7 +10584,7 @@
         <v>accept</v>
       </c>
     </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B29">
         <f t="shared" ref="B29:D29" si="34">C3</f>
         <v>1</v>
@@ -10607,7 +10652,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B30">
         <f t="shared" ref="B30:D30" si="39">C4</f>
         <v>-1</v>
@@ -10675,7 +10720,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B31">
         <f t="shared" ref="B31:D31" si="40">C5</f>
         <v>1</v>
@@ -10743,7 +10788,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B32">
         <f t="shared" ref="B32:D32" si="41">C6</f>
         <v>-1</v>
@@ -10811,7 +10856,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B33">
         <f t="shared" ref="B33:D33" si="42">C7</f>
         <v>1</v>
@@ -10876,7 +10921,7 @@
         <v>accept</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B34">
         <f t="shared" ref="B34:D34" si="43">C8</f>
         <v>-1</v>
@@ -10911,7 +10956,7 @@
       </c>
       <c r="M34" s="7"/>
     </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B35">
         <f t="shared" ref="B35:D35" si="44">C9</f>
         <v>1</v>
@@ -10958,7 +11003,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:20" x14ac:dyDescent="0.25">
       <c r="Q36">
         <v>1</v>
       </c>
@@ -10973,7 +11018,7 @@
         <v>78.956666666666649</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B37" t="str" cm="1">
         <f t="array" ref="B37:H38">TRANSPOSE(J11:K17)</f>
         <v>E1</v>
@@ -10997,7 +11042,7 @@
         <v>E123</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>21.46916666666667</v>
       </c>
@@ -11044,12 +11089,12 @@
       <selection activeCell="C27" sqref="C27:F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="9" max="11" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -11081,7 +11126,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>1</v>
       </c>
@@ -11135,7 +11180,7 @@
         <v>0.1848395099249342</v>
       </c>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>2</v>
       </c>
@@ -11189,7 +11234,7 @@
         <v>-0.1848395099249342</v>
       </c>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>3</v>
       </c>
@@ -11243,7 +11288,7 @@
         <v>-0.34211708918224021</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>4</v>
       </c>
@@ -11297,7 +11342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>5</v>
       </c>
@@ -11351,7 +11396,7 @@
         <v>0.34211708918224032</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>6</v>
       </c>
@@ -11405,7 +11450,7 @@
         <v>-8.5482086029534915E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>7</v>
       </c>
@@ -11459,7 +11504,7 @@
         <v>8.5482086029534943E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>8</v>
       </c>
@@ -11498,7 +11543,7 @@
         <v>-28.626803630045615</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>0</v>
       </c>
@@ -11527,7 +11572,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>1</v>
       </c>
@@ -11564,7 +11609,7 @@
         <v>-32.25847180659887</v>
       </c>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>2</v>
       </c>
@@ -11601,7 +11646,7 @@
         <v>-27.4962084898306</v>
       </c>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>3</v>
       </c>
@@ -11638,7 +11683,7 @@
         <v>-37.053318005467176</v>
       </c>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>4</v>
       </c>
@@ -11675,7 +11720,7 @@
         <v>-33.741526243370735</v>
       </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>5</v>
       </c>
@@ -11712,7 +11757,7 @@
         <v>-38.039253958242064</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>6</v>
       </c>
@@ -11749,7 +11794,7 @@
         <v>-35.338081676183947</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>7</v>
       </c>
@@ -11786,7 +11831,7 @@
         <v>-34.271259411334526</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>8</v>
       </c>
@@ -11823,7 +11868,7 @@
         <v>-28.626803630045615</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>16</v>
       </c>
@@ -11852,7 +11897,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C21">
         <f>SUMPRODUCT(C12:C19,$M$12:$M$19)/4</f>
         <v>4.1049207855529346</v>
@@ -11902,7 +11947,7 @@
         <v>0.23348976176368294</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C22">
         <v>0</v>
       </c>
@@ -11940,7 +11985,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>98</v>
       </c>
@@ -11993,7 +12038,7 @@
         <v>5.8409093097333553</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>82</v>
       </c>
@@ -12019,7 +12064,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="25">
         <f>SUM(L2:L9)/8</f>
         <v>-33.353115402634195</v>
@@ -12065,7 +12110,7 @@
         <v>0.54921938173782792</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>3</v>
       </c>
@@ -12079,7 +12124,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C28">
         <v>1</v>
       </c>
@@ -12111,18 +12156,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5508E73-7190-449A-8923-B8B0FDD3E2C3}">
-  <dimension ref="A1:V56"/>
+  <dimension ref="A1:V63"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56:F56"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N63" sqref="N63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="8" max="9" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12160,7 +12205,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -12210,7 +12255,7 @@
         <v>0.37028231482430768</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -12260,7 +12305,7 @@
         <v>4.8468381389957669</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -12310,7 +12355,7 @@
         <v>-1.9874976058939908</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -12360,7 +12405,7 @@
         <v>-0.37028231482430729</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -12410,7 +12455,7 @@
         <v>3.0540254758336389</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -12460,7 +12505,7 @@
         <v>-1.1354116267361563</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -12510,7 +12555,7 @@
         <v>1.9874976058939908</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -12560,7 +12605,7 @@
         <v>-4.8468381389957695</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -12610,7 +12655,7 @@
         <v>1.1354116267361563</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -12660,7 +12705,7 @@
         <v>-3.0540254758336389</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -12695,7 +12740,7 @@
         <v>6.8350546077768879</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -12730,7 +12775,7 @@
         <v>33.010299956639813</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -12765,7 +12810,7 @@
         <v>-0.15715932006950581</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -12800,7 +12845,7 @@
         <v>1.5848411157770483</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -12835,7 +12880,7 @@
         <v>1.6941133131485566</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -12870,7 +12915,7 @@
         <v>8.6075078242839282</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -12923,7 +12968,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -12988,7 +13033,7 @@
         <v>-0.1703333929878037</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
@@ -13053,7 +13098,7 @@
         <v>-3.2471447656066834</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3</v>
       </c>
@@ -13118,7 +13163,7 @@
         <v>10.433514207947967</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>4</v>
       </c>
@@ -13183,7 +13228,7 @@
         <v>8.1304366453458776</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>5</v>
       </c>
@@ -13248,7 +13293,7 @@
         <v>14.628107737563553</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>6</v>
       </c>
@@ -13313,7 +13358,7 @@
         <v>2.8663547939044607</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>7</v>
       </c>
@@ -13378,7 +13423,7 @@
         <v>1.0601643278815294</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>8</v>
       </c>
@@ -13443,7 +13488,7 @@
         <v>12.128939069634299</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>9</v>
       </c>
@@ -13508,7 +13553,7 @@
         <v>5.357340659659247</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>10</v>
       </c>
@@ -13573,7 +13618,7 @@
         <v>0.42632191568472555</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>11</v>
       </c>
@@ -13638,7 +13683,7 @@
         <v>6.8350546077768879</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>12</v>
       </c>
@@ -13703,7 +13748,7 @@
         <v>33.010299956639813</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>13</v>
       </c>
@@ -13768,7 +13813,7 @@
         <v>-0.15715932006950581</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>14</v>
       </c>
@@ -13833,7 +13878,7 @@
         <v>1.5848411157770483</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>15</v>
       </c>
@@ -13898,7 +13943,7 @@
         <v>1.6941133131485566</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>16</v>
       </c>
@@ -13963,7 +14008,7 @@
         <v>8.6075078242839282</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>116</v>
       </c>
@@ -14019,7 +14064,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B37">
         <f>SUMPRODUCT(B20:B35,$Q$20:$Q$35)/8</f>
         <v>2.9783443018428795</v>
@@ -14089,7 +14134,7 @@
         <v>2.9466683597730023</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>98</v>
       </c>
@@ -14154,7 +14199,7 @@
         <v>-2.0358443008089631</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>130</v>
       </c>
@@ -14219,7 +14264,7 @@
         <v>9.738306372315518E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="26" t="s">
         <v>128</v>
       </c>
@@ -14249,7 +14294,7 @@
         <v>2.0150483733330233</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>15</v>
       </c>
@@ -14296,7 +14341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B43">
         <f>B37-$H$40*$R$37</f>
         <v>-2.9593349832695965</v>
@@ -14358,7 +14403,7 @@
         <v>-11.936637271730438</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B44">
         <f>B37</f>
         <v>2.9783443018428795</v>
@@ -14420,7 +14465,7 @@
         <v>-5.9989579866179623</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B45">
         <f>B37+$H$40*$R$37</f>
         <v>8.9160235869553546</v>
@@ -14482,7 +14527,7 @@
         <v>-6.127870150548631E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B47">
         <f>B42</f>
         <v>15</v>
@@ -14544,7 +14589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B48">
         <f>B42</f>
         <v>15</v>
@@ -14606,7 +14651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B49">
         <f>B48</f>
         <v>15</v>
@@ -14668,7 +14713,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="B50" s="28"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="28"/>
+      <c r="J50" s="28"/>
+      <c r="K50" s="28"/>
+      <c r="L50" s="28"/>
+      <c r="M50" s="28"/>
+      <c r="N50" s="28"/>
+      <c r="O50" s="28"/>
+      <c r="P50" s="28"/>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>82</v>
       </c>
@@ -14718,7 +14783,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52">
         <f>SUM(Q20:Q35)/16</f>
         <v>6.449272418536494</v>
@@ -14784,42 +14849,222 @@
         <v>-2.9994789933089812</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B55" t="s">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A53" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B53" s="28"/>
+      <c r="C53" s="28"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="28"/>
+      <c r="K53" s="28"/>
+      <c r="L53" s="28"/>
+      <c r="M53" s="28"/>
+      <c r="N53" s="28"/>
+      <c r="O53" s="28"/>
+      <c r="P53" s="28"/>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>150</v>
+      </c>
+      <c r="B54" t="s">
+        <v>151</v>
+      </c>
+      <c r="C54" t="s">
+        <v>88</v>
+      </c>
+      <c r="D54" t="s">
+        <v>89</v>
+      </c>
+      <c r="E54" t="s">
+        <v>134</v>
+      </c>
+      <c r="F54" t="s">
+        <v>152</v>
+      </c>
+      <c r="G54" t="s">
+        <v>153</v>
+      </c>
+      <c r="H54" t="s">
+        <v>154</v>
+      </c>
+      <c r="I54" t="s">
+        <v>155</v>
+      </c>
+      <c r="J54" t="s">
+        <v>156</v>
+      </c>
+      <c r="K54" t="s">
+        <v>157</v>
+      </c>
+      <c r="L54" t="s">
+        <v>158</v>
+      </c>
+      <c r="M54" t="s">
+        <v>159</v>
+      </c>
+      <c r="N54" t="s">
+        <v>160</v>
+      </c>
+      <c r="O54" t="s">
+        <v>161</v>
+      </c>
+      <c r="P54" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>-8.7187499999999987E-2</v>
+      </c>
+      <c r="B55">
+        <v>-0.32718749999999996</v>
+      </c>
+      <c r="C55">
+        <v>0.39718749999999997</v>
+      </c>
+      <c r="D55">
+        <v>0.31906250000000008</v>
+      </c>
+      <c r="E55">
+        <v>0.16093750000000001</v>
+      </c>
+      <c r="F55">
+        <v>7.3437500000000031E-2</v>
+      </c>
+      <c r="G55">
+        <v>-5.8437499999999996E-2</v>
+      </c>
+      <c r="H55">
+        <v>-1.5312499999999953E-2</v>
+      </c>
+      <c r="I55">
+        <v>-9.5312499999999981E-2</v>
+      </c>
+      <c r="J55">
+        <v>-7.7187499999999992E-2</v>
+      </c>
+      <c r="K55">
+        <v>4.6875000000000024E-3</v>
+      </c>
+      <c r="L55">
+        <v>8.5937499999999986E-2</v>
+      </c>
+      <c r="M55">
+        <v>-6.9062500000000013E-2</v>
+      </c>
+      <c r="N55">
+        <v>5.0312499999999989E-2</v>
+      </c>
+      <c r="O55">
+        <v>-5.2187500000000019E-2</v>
+      </c>
+      <c r="P55">
+        <v>6.0312499999999956E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
         <v>3</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C57" t="s">
         <v>5</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D57" t="s">
         <v>7</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E57" t="s">
         <v>109</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F57" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B56">
-        <v>1</v>
-      </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-      <c r="D56">
-        <v>-1</v>
-      </c>
-      <c r="E56">
-        <v>1</v>
-      </c>
-      <c r="F56">
-        <f>A52+C52*C56+I52*C56*D56+K52*D56*E56+F52*B56*C56+P52*B56*C56*D56*E56</f>
-        <v>23.28656198099436</v>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>3.077769532086766E-2</v>
+      </c>
+      <c r="C58">
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="D58">
+        <v>-0.94003500714089616</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <f>A52+C52*C58+I52*C58*D58+K52*D58*E58+F52*B58*C58+P52*B58*C58*D58*E58</f>
+        <v>16.368236718160308</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <f>-($A$55+$B$55*B60+$C$55*C60)/$D$55</f>
+        <v>5.3868756121449438E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61">
+        <v>-1</v>
+      </c>
+      <c r="D61">
+        <f t="shared" ref="D61:D63" si="32">-($A$55+$B$55*B61+$C$55*C61)/$D$55</f>
+        <v>2.5435847208618991</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>-1</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="32"/>
+        <v>-1.9970617042115568</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>-1</v>
+      </c>
+      <c r="C63">
+        <v>-1</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="32"/>
+        <v>0.49265426052889305</v>
       </c>
     </row>
   </sheetData>
+  <scenarios current="0">
+    <scenario name="4" count="4" user="SOLab" comment="建立者 SOLab 於 5/21/2024">
+      <inputCells r="B58" val="-1"/>
+      <inputCells r="C58" val="-1"/>
+      <inputCells r="D58" val="1"/>
+      <inputCells r="E58" val="0"/>
+    </scenario>
+  </scenarios>
+  <mergeCells count="2">
+    <mergeCell ref="A50:P50"/>
+    <mergeCell ref="A53:P53"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B38:P39">
     <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
@@ -14847,21 +15092,21 @@
       <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B3" s="4"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>30</v>
       </c>
@@ -14869,7 +15114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
@@ -14877,7 +15122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>32</v>
       </c>
@@ -14885,7 +15130,7 @@
         <v>65535</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>33</v>
       </c>
@@ -14893,7 +15138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>34</v>
       </c>
@@ -14901,12 +15146,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
         <v>40</v>
@@ -14924,7 +15169,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>36</v>
       </c>
@@ -14944,7 +15189,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>37</v>
       </c>
@@ -14960,7 +15205,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>38</v>
       </c>
@@ -14974,8 +15219,8 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
         <v>45</v>
@@ -15002,7 +15247,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>39</v>
       </c>
@@ -15031,7 +15276,7 @@
         <v>5.9910543475853233</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>2</v>
       </c>
@@ -15060,7 +15305,7 @@
         <v>2.5817066304627003</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>4</v>
       </c>
@@ -15089,7 +15334,7 @@
         <v>4.0141669290265183</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
@@ -15118,7 +15363,7 @@
         <v>-1.9523322228064461</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>142</v>
       </c>
@@ -15147,7 +15392,7 @@
         <v>3.0023103524682937</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
@@ -15176,7 +15421,7 @@
         <v>-2.1398934797857168</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>12</v>
       </c>
@@ -15205,7 +15450,7 @@
         <v>4.4242173722205216</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>143</v>
       </c>
@@ -15234,7 +15479,7 @@
         <v>-5.5875725119581503</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>10</v>
       </c>
@@ -15263,7 +15508,7 @@
         <v>1.7529842000102775</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>144</v>
       </c>
@@ -15292,7 +15537,7 @@
         <v>0.47278506371140627</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>145</v>
       </c>
@@ -15321,7 +15566,7 @@
         <v>-0.63441704371106145</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>14</v>
       </c>
@@ -15350,7 +15595,7 @@
         <v>1.6795813602628948</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>146</v>
       </c>
@@ -15379,7 +15624,7 @@
         <v>2.5762473619629476</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>147</v>
       </c>
@@ -15408,7 +15653,7 @@
         <v>-0.96880289693358945</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>148</v>
       </c>
@@ -15437,7 +15682,7 @@
         <v>-0.50511961671554306</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>149</v>
       </c>
@@ -15476,13 +15721,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEF42194-8B24-4BF4-9C6E-F07C86AABADE}">
   <dimension ref="A1:Q61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60:E61"/>
+    <sheetView topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57:P58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -15505,7 +15750,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -15528,7 +15773,7 @@
         <v>-0.08</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -15551,7 +15796,7 @@
         <v>-1.01</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -15574,7 +15819,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -15597,7 +15842,7 @@
         <v>-0.24</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -15620,7 +15865,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -15643,7 +15888,7 @@
         <v>-0.64</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -15666,7 +15911,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -15689,7 +15934,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -15712,7 +15957,7 @@
         <v>-0.65</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -15735,7 +15980,7 @@
         <v>-1.19</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -15758,7 +16003,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -15781,7 +16026,7 @@
         <v>-0.03</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -15804,7 +16049,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -15827,7 +16072,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -15850,7 +16095,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -15873,7 +16118,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>3</v>
       </c>
@@ -15920,7 +16165,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -15984,7 +16229,7 @@
         <v>-1.44</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
@@ -16048,7 +16293,7 @@
         <v>-1.79</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>3</v>
       </c>
@@ -16112,7 +16357,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>4</v>
       </c>
@@ -16176,7 +16421,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>5</v>
       </c>
@@ -16240,7 +16485,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>6</v>
       </c>
@@ -16304,7 +16549,7 @@
         <v>-0.79</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>7</v>
       </c>
@@ -16368,7 +16613,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>8</v>
       </c>
@@ -16432,7 +16677,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>9</v>
       </c>
@@ -16496,7 +16741,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>10</v>
       </c>
@@ -16560,7 +16805,7 @@
         <v>-0.63</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>11</v>
       </c>
@@ -16624,7 +16869,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>12</v>
       </c>
@@ -16688,7 +16933,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>13</v>
       </c>
@@ -16752,7 +16997,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>14</v>
       </c>
@@ -16816,7 +17061,7 @@
         <v>-1.17</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>15</v>
       </c>
@@ -16880,7 +17125,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>16</v>
       </c>
@@ -16944,7 +17189,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1</v>
       </c>
@@ -17012,7 +17257,7 @@
         <v>-0.08</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2</v>
       </c>
@@ -17080,7 +17325,7 @@
         <v>-1.01</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3</v>
       </c>
@@ -17148,7 +17393,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>4</v>
       </c>
@@ -17216,7 +17461,7 @@
         <v>-0.24</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>5</v>
       </c>
@@ -17284,7 +17529,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>6</v>
       </c>
@@ -17352,7 +17597,7 @@
         <v>-0.64</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>7</v>
       </c>
@@ -17420,7 +17665,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>8</v>
       </c>
@@ -17488,7 +17733,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>9</v>
       </c>
@@ -17556,7 +17801,7 @@
         <v>-0.65</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>10</v>
       </c>
@@ -17624,7 +17869,7 @@
         <v>-1.19</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>11</v>
       </c>
@@ -17692,7 +17937,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>12</v>
       </c>
@@ -17760,7 +18005,7 @@
         <v>-0.03</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>13</v>
       </c>
@@ -17828,7 +18073,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>14</v>
       </c>
@@ -17896,7 +18141,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>15</v>
       </c>
@@ -17964,7 +18209,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>16</v>
       </c>
@@ -18032,7 +18277,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>16</v>
       </c>
@@ -18079,7 +18324,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B55">
         <f>SUMPRODUCT(B21:B52,$Q$21:$Q$52)/16</f>
         <v>-0.65437499999999993</v>
@@ -18141,7 +18386,7 @@
         <v>0.12062499999999991</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>82</v>
       </c>
@@ -18191,7 +18436,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58">
         <f>SUM(Q21:Q52)/32</f>
         <v>-8.7187499999999987E-2</v>
@@ -18257,7 +18502,7 @@
         <v>6.0312499999999956E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>3</v>
       </c>
@@ -18271,7 +18516,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>-7.7811991682638179E-2</v>
       </c>

--- a/統計管制與最佳化方法概論/homework/my_homework/HW12/hw_12.xlsx
+++ b/統計管制與最佳化方法概論/homework/my_homework/HW12/hw_12.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOLab\Documents\研究所資料\統計管制與最佳化方法概論\homework\my_homework\HW12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF339749-170B-4D24-AEFE-650E8C3C8D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37CD5FEC-8C10-4357-97F2-D0AE6F631931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{CB8A175E-6191-4478-A7B3-8E35534C3B7C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CB8A175E-6191-4478-A7B3-8E35534C3B7C}"/>
   </bookViews>
   <sheets>
     <sheet name="1-1" sheetId="1" r:id="rId1"/>
@@ -8923,8 +8923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA86B193-2B35-417B-B01D-578CD466CFC5}">
   <dimension ref="B1:X38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="G22" workbookViewId="0">
+      <selection activeCell="T36" sqref="T36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -12158,7 +12158,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5508E73-7190-449A-8923-B8B0FDD3E2C3}">
   <dimension ref="A1:V63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="N63" sqref="N63"/>
     </sheetView>
   </sheetViews>

--- a/統計管制與最佳化方法概論/homework/my_homework/HW12/hw_12.xlsx
+++ b/統計管制與最佳化方法概論/homework/my_homework/HW12/hw_12.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOLab\Documents\研究所資料\統計管制與最佳化方法概論\homework\my_homework\HW12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37CD5FEC-8C10-4357-97F2-D0AE6F631931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D53A3A97-1023-4A86-B5C4-CF9D347E5980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CB8A175E-6191-4478-A7B3-8E35534C3B7C}"/>
+    <workbookView xWindow="5250" yWindow="3315" windowWidth="21600" windowHeight="11295" xr2:uid="{CB8A175E-6191-4478-A7B3-8E35534C3B7C}"/>
   </bookViews>
   <sheets>
     <sheet name="1-1" sheetId="1" r:id="rId1"/>
@@ -8397,16 +8397,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>466724</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>92075</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8433,16 +8433,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>41275</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>174625</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8923,8 +8923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA86B193-2B35-417B-B01D-578CD466CFC5}">
   <dimension ref="B1:X38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G22" workbookViewId="0">
-      <selection activeCell="T36" sqref="T36"/>
+    <sheetView tabSelected="1" topLeftCell="L7" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>

--- a/統計管制與最佳化方法概論/homework/my_homework/HW12/hw_12.xlsx
+++ b/統計管制與最佳化方法概論/homework/my_homework/HW12/hw_12.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOLab\Documents\研究所資料\統計管制與最佳化方法概論\homework\my_homework\HW12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Documents\institute_information\統計管制與最佳化方法概論\homework\my_homework\HW12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D53A3A97-1023-4A86-B5C4-CF9D347E5980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC960B46-B3BC-4A40-85B1-7FBE3C3C615D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5250" yWindow="3315" windowWidth="21600" windowHeight="11295" xr2:uid="{CB8A175E-6191-4478-A7B3-8E35534C3B7C}"/>
+    <workbookView xWindow="5370" yWindow="2420" windowWidth="19200" windowHeight="11460" xr2:uid="{CB8A175E-6191-4478-A7B3-8E35534C3B7C}"/>
   </bookViews>
   <sheets>
     <sheet name="1-1" sheetId="1" r:id="rId1"/>
@@ -8397,16 +8397,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>152399</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>53975</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>647699</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>333374</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>365124</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8923,20 +8923,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA86B193-2B35-417B-B01D-578CD466CFC5}">
   <dimension ref="B1:X38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L7" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="10" max="10" width="13.75" customWidth="1"/>
-    <col min="11" max="11" width="16.125" customWidth="1"/>
-    <col min="12" max="14" width="13.5" customWidth="1"/>
+    <col min="10" max="10" width="13.7265625" customWidth="1"/>
+    <col min="11" max="11" width="16.08984375" customWidth="1"/>
+    <col min="12" max="14" width="13.453125" customWidth="1"/>
     <col min="15" max="15" width="14" customWidth="1"/>
-    <col min="17" max="17" width="12.375" customWidth="1"/>
+    <col min="17" max="17" width="12.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -8975,7 +8975,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:24" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2">
         <v>1</v>
       </c>
@@ -9013,7 +9013,7 @@
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
     </row>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B3">
         <v>2</v>
       </c>
@@ -9055,7 +9055,7 @@
       </c>
       <c r="Q3" s="4"/>
     </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B4">
         <v>3</v>
       </c>
@@ -9099,7 +9099,7 @@
         <v>0.98944603157237543</v>
       </c>
     </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B5">
         <v>4</v>
       </c>
@@ -9143,7 +9143,7 @@
         <v>0.97900344939432205</v>
       </c>
     </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B6">
         <v>5</v>
       </c>
@@ -9188,7 +9188,7 @@
         <v>0.96981745850433798</v>
       </c>
     </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B7">
         <v>6</v>
       </c>
@@ -9237,7 +9237,7 @@
         <v>3.3006009553817135</v>
       </c>
     </row>
-    <row r="8" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:24" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B8">
         <v>7</v>
       </c>
@@ -9289,7 +9289,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B9">
         <v>8</v>
       </c>
@@ -9338,7 +9338,7 @@
         <v>1.9678250627177531</v>
       </c>
     </row>
-    <row r="10" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:24" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="L10" s="1" t="s">
         <v>79</v>
       </c>
@@ -9349,7 +9349,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>3</v>
       </c>
@@ -9406,7 +9406,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B12">
         <f>C2</f>
         <v>-1</v>
@@ -9473,7 +9473,7 @@
         <v>3.2000830664664587E-12</v>
       </c>
     </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B13">
         <f t="shared" ref="B13:D13" si="5">C3</f>
         <v>1</v>
@@ -9536,7 +9536,7 @@
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
     </row>
-    <row r="14" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:24" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B14">
         <f t="shared" ref="B14:D14" si="11">C4</f>
         <v>-1</v>
@@ -9597,7 +9597,7 @@
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
     </row>
-    <row r="15" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:24" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B15">
         <f t="shared" ref="B15:D15" si="12">C5</f>
         <v>1</v>
@@ -9646,7 +9646,7 @@
         <v>1.9743508092834146</v>
       </c>
     </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B16">
         <f t="shared" ref="B16:D16" si="13">C6</f>
         <v>-1</v>
@@ -9720,7 +9720,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B17">
         <f t="shared" ref="B17:D17" si="14">C7</f>
         <v>1</v>
@@ -9796,7 +9796,7 @@
         <v>51.836575062717763</v>
       </c>
     </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B18">
         <f t="shared" ref="B18:D18" si="15">C8</f>
         <v>-1</v>
@@ -9865,7 +9865,7 @@
         <v>12.702408396051094</v>
       </c>
     </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B19">
         <f t="shared" ref="B19:D19" si="16">C9</f>
         <v>1</v>
@@ -9943,7 +9943,7 @@
         <v>2.5199083960510946</v>
       </c>
     </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B20">
         <f>C2</f>
         <v>-1</v>
@@ -10021,7 +10021,7 @@
         <v>-2.0684249372822361</v>
       </c>
     </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B21">
         <f t="shared" ref="B21:D27" si="22">C3</f>
         <v>1</v>
@@ -10099,7 +10099,7 @@
         <v>3.0490750627177619</v>
       </c>
     </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B22">
         <f t="shared" si="22"/>
         <v>-1</v>
@@ -10177,7 +10177,7 @@
         <v>16.284908396051097</v>
       </c>
     </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B23">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -10255,7 +10255,7 @@
         <v>2.7457417293844277</v>
       </c>
     </row>
-    <row r="24" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:24" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B24">
         <f t="shared" si="22"/>
         <v>-1</v>
@@ -10333,7 +10333,7 @@
         <v>1.7357417293844271</v>
       </c>
     </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B25">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -10398,7 +10398,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B26">
         <f t="shared" si="22"/>
         <v>-1</v>
@@ -10454,7 +10454,7 @@
         <v>reject</v>
       </c>
     </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B27">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -10519,7 +10519,7 @@
         <v>reject</v>
       </c>
     </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B28">
         <f>C2</f>
         <v>-1</v>
@@ -10584,7 +10584,7 @@
         <v>accept</v>
       </c>
     </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B29">
         <f t="shared" ref="B29:D29" si="34">C3</f>
         <v>1</v>
@@ -10652,7 +10652,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B30">
         <f t="shared" ref="B30:D30" si="39">C4</f>
         <v>-1</v>
@@ -10720,7 +10720,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B31">
         <f t="shared" ref="B31:D31" si="40">C5</f>
         <v>1</v>
@@ -10788,7 +10788,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B32">
         <f t="shared" ref="B32:D32" si="41">C6</f>
         <v>-1</v>
@@ -10856,7 +10856,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B33">
         <f t="shared" ref="B33:D33" si="42">C7</f>
         <v>1</v>
@@ -10921,7 +10921,7 @@
         <v>accept</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B34">
         <f t="shared" ref="B34:D34" si="43">C8</f>
         <v>-1</v>
@@ -10956,7 +10956,7 @@
       </c>
       <c r="M34" s="7"/>
     </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B35">
         <f t="shared" ref="B35:D35" si="44">C9</f>
         <v>1</v>
@@ -11003,7 +11003,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:20" x14ac:dyDescent="0.4">
       <c r="Q36">
         <v>1</v>
       </c>
@@ -11018,7 +11018,7 @@
         <v>78.956666666666649</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B37" t="str" cm="1">
         <f t="array" ref="B37:H38">TRANSPOSE(J11:K17)</f>
         <v>E1</v>
@@ -11042,7 +11042,7 @@
         <v>E123</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B38">
         <v>21.46916666666667</v>
       </c>
@@ -11089,12 +11089,12 @@
       <selection activeCell="C27" sqref="C27:F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="9" max="11" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -11126,7 +11126,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B2">
         <v>1</v>
       </c>
@@ -11180,7 +11180,7 @@
         <v>0.1848395099249342</v>
       </c>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B3">
         <v>2</v>
       </c>
@@ -11234,7 +11234,7 @@
         <v>-0.1848395099249342</v>
       </c>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B4">
         <v>3</v>
       </c>
@@ -11288,7 +11288,7 @@
         <v>-0.34211708918224021</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B5">
         <v>4</v>
       </c>
@@ -11342,7 +11342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B6">
         <v>5</v>
       </c>
@@ -11396,7 +11396,7 @@
         <v>0.34211708918224032</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B7">
         <v>6</v>
       </c>
@@ -11450,7 +11450,7 @@
         <v>-8.5482086029534915E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B8">
         <v>7</v>
       </c>
@@ -11504,7 +11504,7 @@
         <v>8.5482086029534943E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B9">
         <v>8</v>
       </c>
@@ -11543,7 +11543,7 @@
         <v>-28.626803630045615</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>0</v>
       </c>
@@ -11572,7 +11572,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B12">
         <v>1</v>
       </c>
@@ -11609,7 +11609,7 @@
         <v>-32.25847180659887</v>
       </c>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B13">
         <v>2</v>
       </c>
@@ -11646,7 +11646,7 @@
         <v>-27.4962084898306</v>
       </c>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B14">
         <v>3</v>
       </c>
@@ -11683,7 +11683,7 @@
         <v>-37.053318005467176</v>
       </c>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B15">
         <v>4</v>
       </c>
@@ -11720,7 +11720,7 @@
         <v>-33.741526243370735</v>
       </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B16">
         <v>5</v>
       </c>
@@ -11757,7 +11757,7 @@
         <v>-38.039253958242064</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B17">
         <v>6</v>
       </c>
@@ -11794,7 +11794,7 @@
         <v>-35.338081676183947</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B18">
         <v>7</v>
       </c>
@@ -11831,7 +11831,7 @@
         <v>-34.271259411334526</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B19">
         <v>8</v>
       </c>
@@ -11868,7 +11868,7 @@
         <v>-28.626803630045615</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.4">
       <c r="C20" t="s">
         <v>16</v>
       </c>
@@ -11897,7 +11897,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.4">
       <c r="C21">
         <f>SUMPRODUCT(C12:C19,$M$12:$M$19)/4</f>
         <v>4.1049207855529346</v>
@@ -11947,7 +11947,7 @@
         <v>0.23348976176368294</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.4">
       <c r="C22">
         <v>0</v>
       </c>
@@ -11985,7 +11985,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
         <v>98</v>
       </c>
@@ -12038,7 +12038,7 @@
         <v>5.8409093097333553</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
         <v>82</v>
       </c>
@@ -12064,7 +12064,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B25" s="25">
         <f>SUM(L2:L9)/8</f>
         <v>-33.353115402634195</v>
@@ -12110,7 +12110,7 @@
         <v>0.54921938173782792</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.4">
       <c r="C27" t="s">
         <v>3</v>
       </c>
@@ -12124,7 +12124,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.4">
       <c r="C28">
         <v>1</v>
       </c>
@@ -12162,12 +12162,12 @@
       <selection activeCell="N63" sqref="N63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="8" max="9" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12205,7 +12205,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -12255,7 +12255,7 @@
         <v>0.37028231482430768</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -12305,7 +12305,7 @@
         <v>4.8468381389957669</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -12355,7 +12355,7 @@
         <v>-1.9874976058939908</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -12405,7 +12405,7 @@
         <v>-0.37028231482430729</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -12455,7 +12455,7 @@
         <v>3.0540254758336389</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -12505,7 +12505,7 @@
         <v>-1.1354116267361563</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -12555,7 +12555,7 @@
         <v>1.9874976058939908</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -12605,7 +12605,7 @@
         <v>-4.8468381389957695</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -12655,7 +12655,7 @@
         <v>1.1354116267361563</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -12705,7 +12705,7 @@
         <v>-3.0540254758336389</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -12740,7 +12740,7 @@
         <v>6.8350546077768879</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -12775,7 +12775,7 @@
         <v>33.010299956639813</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -12810,7 +12810,7 @@
         <v>-0.15715932006950581</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -12845,7 +12845,7 @@
         <v>1.5848411157770483</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -12880,7 +12880,7 @@
         <v>1.6941133131485566</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -12915,7 +12915,7 @@
         <v>8.6075078242839282</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -12968,7 +12968,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>1</v>
       </c>
@@ -13033,7 +13033,7 @@
         <v>-0.1703333929878037</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>2</v>
       </c>
@@ -13098,7 +13098,7 @@
         <v>-3.2471447656066834</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>3</v>
       </c>
@@ -13163,7 +13163,7 @@
         <v>10.433514207947967</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>4</v>
       </c>
@@ -13228,7 +13228,7 @@
         <v>8.1304366453458776</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>5</v>
       </c>
@@ -13293,7 +13293,7 @@
         <v>14.628107737563553</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>6</v>
       </c>
@@ -13358,7 +13358,7 @@
         <v>2.8663547939044607</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>7</v>
       </c>
@@ -13423,7 +13423,7 @@
         <v>1.0601643278815294</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>8</v>
       </c>
@@ -13488,7 +13488,7 @@
         <v>12.128939069634299</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>9</v>
       </c>
@@ -13553,7 +13553,7 @@
         <v>5.357340659659247</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>10</v>
       </c>
@@ -13618,7 +13618,7 @@
         <v>0.42632191568472555</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>11</v>
       </c>
@@ -13683,7 +13683,7 @@
         <v>6.8350546077768879</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>12</v>
       </c>
@@ -13748,7 +13748,7 @@
         <v>33.010299956639813</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>13</v>
       </c>
@@ -13813,7 +13813,7 @@
         <v>-0.15715932006950581</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>14</v>
       </c>
@@ -13878,7 +13878,7 @@
         <v>1.5848411157770483</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>15</v>
       </c>
@@ -13943,7 +13943,7 @@
         <v>1.6941133131485566</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>16</v>
       </c>
@@ -14008,7 +14008,7 @@
         <v>8.6075078242839282</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>116</v>
       </c>
@@ -14064,7 +14064,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B37">
         <f>SUMPRODUCT(B20:B35,$Q$20:$Q$35)/8</f>
         <v>2.9783443018428795</v>
@@ -14134,7 +14134,7 @@
         <v>2.9466683597730023</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>98</v>
       </c>
@@ -14199,7 +14199,7 @@
         <v>-2.0358443008089631</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>130</v>
       </c>
@@ -14264,7 +14264,7 @@
         <v>9.738306372315518E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A40" s="26" t="s">
         <v>128</v>
       </c>
@@ -14294,7 +14294,7 @@
         <v>2.0150483733330233</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B42">
         <v>15</v>
       </c>
@@ -14341,7 +14341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B43">
         <f>B37-$H$40*$R$37</f>
         <v>-2.9593349832695965</v>
@@ -14403,7 +14403,7 @@
         <v>-11.936637271730438</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B44">
         <f>B37</f>
         <v>2.9783443018428795</v>
@@ -14465,7 +14465,7 @@
         <v>-5.9989579866179623</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B45">
         <f>B37+$H$40*$R$37</f>
         <v>8.9160235869553546</v>
@@ -14527,7 +14527,7 @@
         <v>-6.127870150548631E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B47">
         <f>B42</f>
         <v>15</v>
@@ -14589,7 +14589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B48">
         <f>B42</f>
         <v>15</v>
@@ -14651,7 +14651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B49">
         <f>B48</f>
         <v>15</v>
@@ -14713,7 +14713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A50" s="28" t="s">
         <v>94</v>
       </c>
@@ -14733,7 +14733,7 @@
       <c r="O50" s="28"/>
       <c r="P50" s="28"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>82</v>
       </c>
@@ -14783,7 +14783,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A52">
         <f>SUM(Q20:Q35)/16</f>
         <v>6.449272418536494</v>
@@ -14849,7 +14849,7 @@
         <v>-2.9994789933089812</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A53" s="28" t="s">
         <v>1</v>
       </c>
@@ -14869,7 +14869,7 @@
       <c r="O53" s="28"/>
       <c r="P53" s="28"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>150</v>
       </c>
@@ -14919,7 +14919,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>-8.7187499999999987E-2</v>
       </c>
@@ -14969,7 +14969,7 @@
         <v>6.0312499999999956E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B57" t="s">
         <v>3</v>
       </c>
@@ -14986,7 +14986,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B58">
         <v>3.077769532086766E-2</v>
       </c>
@@ -15004,7 +15004,7 @@
         <v>16.368236718160308</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B60">
         <v>1</v>
       </c>
@@ -15016,7 +15016,7 @@
         <v>5.3868756121449438E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B61">
         <v>1</v>
       </c>
@@ -15028,7 +15028,7 @@
         <v>2.5435847208618991</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B62">
         <v>-1</v>
       </c>
@@ -15040,7 +15040,7 @@
         <v>-1.9970617042115568</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B63">
         <v>-1</v>
       </c>
@@ -15092,21 +15092,21 @@
       <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B3" s="4"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>30</v>
       </c>
@@ -15114,7 +15114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
@@ -15122,7 +15122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>32</v>
       </c>
@@ -15130,7 +15130,7 @@
         <v>65535</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>33</v>
       </c>
@@ -15138,7 +15138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>34</v>
       </c>
@@ -15146,12 +15146,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
         <v>40</v>
@@ -15169,7 +15169,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>36</v>
       </c>
@@ -15189,7 +15189,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>37</v>
       </c>
@@ -15205,7 +15205,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>38</v>
       </c>
@@ -15219,8 +15219,8 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
         <v>45</v>
@@ -15247,7 +15247,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>39</v>
       </c>
@@ -15276,7 +15276,7 @@
         <v>5.9910543475853233</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>2</v>
       </c>
@@ -15305,7 +15305,7 @@
         <v>2.5817066304627003</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>4</v>
       </c>
@@ -15334,7 +15334,7 @@
         <v>4.0141669290265183</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
@@ -15363,7 +15363,7 @@
         <v>-1.9523322228064461</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>142</v>
       </c>
@@ -15392,7 +15392,7 @@
         <v>3.0023103524682937</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
@@ -15421,7 +15421,7 @@
         <v>-2.1398934797857168</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>12</v>
       </c>
@@ -15450,7 +15450,7 @@
         <v>4.4242173722205216</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>143</v>
       </c>
@@ -15479,7 +15479,7 @@
         <v>-5.5875725119581503</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>10</v>
       </c>
@@ -15508,7 +15508,7 @@
         <v>1.7529842000102775</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>144</v>
       </c>
@@ -15537,7 +15537,7 @@
         <v>0.47278506371140627</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>145</v>
       </c>
@@ -15566,7 +15566,7 @@
         <v>-0.63441704371106145</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>14</v>
       </c>
@@ -15595,7 +15595,7 @@
         <v>1.6795813602628948</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
         <v>146</v>
       </c>
@@ -15624,7 +15624,7 @@
         <v>2.5762473619629476</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
         <v>147</v>
       </c>
@@ -15653,7 +15653,7 @@
         <v>-0.96880289693358945</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
         <v>148</v>
       </c>
@@ -15682,7 +15682,7 @@
         <v>-0.50511961671554306</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A32" s="2" t="s">
         <v>149</v>
       </c>
@@ -15725,9 +15725,9 @@
       <selection activeCell="A57" sqref="A57:P58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -15750,7 +15750,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -15773,7 +15773,7 @@
         <v>-0.08</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -15796,7 +15796,7 @@
         <v>-1.01</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -15819,7 +15819,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -15842,7 +15842,7 @@
         <v>-0.24</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -15865,7 +15865,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -15888,7 +15888,7 @@
         <v>-0.64</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -15911,7 +15911,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -15934,7 +15934,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -15957,7 +15957,7 @@
         <v>-0.65</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -15980,7 +15980,7 @@
         <v>-1.19</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -16003,7 +16003,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -16026,7 +16026,7 @@
         <v>-0.03</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -16049,7 +16049,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -16072,7 +16072,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -16095,7 +16095,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -16118,7 +16118,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
         <v>3</v>
       </c>
@@ -16165,7 +16165,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>1</v>
       </c>
@@ -16229,7 +16229,7 @@
         <v>-1.44</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>2</v>
       </c>
@@ -16293,7 +16293,7 @@
         <v>-1.79</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>3</v>
       </c>
@@ -16357,7 +16357,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>4</v>
       </c>
@@ -16421,7 +16421,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>5</v>
       </c>
@@ -16485,7 +16485,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>6</v>
       </c>
@@ -16549,7 +16549,7 @@
         <v>-0.79</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>7</v>
       </c>
@@ -16613,7 +16613,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>8</v>
       </c>
@@ -16677,7 +16677,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>9</v>
       </c>
@@ -16741,7 +16741,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>10</v>
       </c>
@@ -16805,7 +16805,7 @@
         <v>-0.63</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>11</v>
       </c>
@@ -16869,7 +16869,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>12</v>
       </c>
@@ -16933,7 +16933,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>13</v>
       </c>
@@ -16997,7 +16997,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>14</v>
       </c>
@@ -17061,7 +17061,7 @@
         <v>-1.17</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>15</v>
       </c>
@@ -17125,7 +17125,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>16</v>
       </c>
@@ -17189,7 +17189,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>1</v>
       </c>
@@ -17257,7 +17257,7 @@
         <v>-0.08</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>2</v>
       </c>
@@ -17325,7 +17325,7 @@
         <v>-1.01</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>3</v>
       </c>
@@ -17393,7 +17393,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>4</v>
       </c>
@@ -17461,7 +17461,7 @@
         <v>-0.24</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>5</v>
       </c>
@@ -17529,7 +17529,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>6</v>
       </c>
@@ -17597,7 +17597,7 @@
         <v>-0.64</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>7</v>
       </c>
@@ -17665,7 +17665,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>8</v>
       </c>
@@ -17733,7 +17733,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>9</v>
       </c>
@@ -17801,7 +17801,7 @@
         <v>-0.65</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>10</v>
       </c>
@@ -17869,7 +17869,7 @@
         <v>-1.19</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>11</v>
       </c>
@@ -17937,7 +17937,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>12</v>
       </c>
@@ -18005,7 +18005,7 @@
         <v>-0.03</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>13</v>
       </c>
@@ -18073,7 +18073,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>14</v>
       </c>
@@ -18141,7 +18141,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>15</v>
       </c>
@@ -18209,7 +18209,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>16</v>
       </c>
@@ -18277,7 +18277,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B54" t="s">
         <v>16</v>
       </c>
@@ -18324,7 +18324,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B55">
         <f>SUMPRODUCT(B21:B52,$Q$21:$Q$52)/16</f>
         <v>-0.65437499999999993</v>
@@ -18386,7 +18386,7 @@
         <v>0.12062499999999991</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>82</v>
       </c>
@@ -18436,7 +18436,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A58">
         <f>SUM(Q21:Q52)/32</f>
         <v>-8.7187499999999987E-2</v>
@@ -18502,7 +18502,7 @@
         <v>6.0312499999999956E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B60" t="s">
         <v>3</v>
       </c>
@@ -18516,7 +18516,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B61">
         <v>-7.7811991682638179E-2</v>
       </c>

--- a/統計管制與最佳化方法概論/homework/my_homework/HW12/hw_12.xlsx
+++ b/統計管制與最佳化方法概論/homework/my_homework/HW12/hw_12.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Documents\institute_information\統計管制與最佳化方法概論\homework\my_homework\HW12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOLab\Documents\研究所資料\統計管制與最佳化方法概論\homework\my_homework\HW12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC960B46-B3BC-4A40-85B1-7FBE3C3C615D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8DB33F-DAD5-44CC-90F7-D6642C44B689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5370" yWindow="2420" windowWidth="19200" windowHeight="11460" xr2:uid="{CB8A175E-6191-4478-A7B3-8E35534C3B7C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CB8A175E-6191-4478-A7B3-8E35534C3B7C}"/>
   </bookViews>
   <sheets>
     <sheet name="1-1" sheetId="1" r:id="rId1"/>
@@ -8923,20 +8923,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA86B193-2B35-417B-B01D-578CD466CFC5}">
   <dimension ref="B1:X38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="13.7265625" customWidth="1"/>
-    <col min="11" max="11" width="16.08984375" customWidth="1"/>
-    <col min="12" max="14" width="13.453125" customWidth="1"/>
+    <col min="10" max="10" width="13.75" customWidth="1"/>
+    <col min="11" max="11" width="16.125" customWidth="1"/>
+    <col min="12" max="14" width="13.5" customWidth="1"/>
     <col min="15" max="15" width="14" customWidth="1"/>
-    <col min="17" max="17" width="12.36328125" customWidth="1"/>
+    <col min="17" max="17" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -8975,7 +8975,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="2:24" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>1</v>
       </c>
@@ -9013,7 +9013,7 @@
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
     </row>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>2</v>
       </c>
@@ -9055,7 +9055,7 @@
       </c>
       <c r="Q3" s="4"/>
     </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>3</v>
       </c>
@@ -9099,7 +9099,7 @@
         <v>0.98944603157237543</v>
       </c>
     </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>4</v>
       </c>
@@ -9143,7 +9143,7 @@
         <v>0.97900344939432205</v>
       </c>
     </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>5</v>
       </c>
@@ -9188,7 +9188,7 @@
         <v>0.96981745850433798</v>
       </c>
     </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>6</v>
       </c>
@@ -9237,7 +9237,7 @@
         <v>3.3006009553817135</v>
       </c>
     </row>
-    <row r="8" spans="2:24" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>7</v>
       </c>
@@ -9289,7 +9289,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>8</v>
       </c>
@@ -9338,7 +9338,7 @@
         <v>1.9678250627177531</v>
       </c>
     </row>
-    <row r="10" spans="2:24" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L10" s="1" t="s">
         <v>79</v>
       </c>
@@ -9349,7 +9349,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>3</v>
       </c>
@@ -9406,7 +9406,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B12">
         <f>C2</f>
         <v>-1</v>
@@ -9473,7 +9473,7 @@
         <v>3.2000830664664587E-12</v>
       </c>
     </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B13">
         <f t="shared" ref="B13:D13" si="5">C3</f>
         <v>1</v>
@@ -9536,7 +9536,7 @@
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
     </row>
-    <row r="14" spans="2:24" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14">
         <f t="shared" ref="B14:D14" si="11">C4</f>
         <v>-1</v>
@@ -9597,7 +9597,7 @@
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
     </row>
-    <row r="15" spans="2:24" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15">
         <f t="shared" ref="B15:D15" si="12">C5</f>
         <v>1</v>
@@ -9646,7 +9646,7 @@
         <v>1.9743508092834146</v>
       </c>
     </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B16">
         <f t="shared" ref="B16:D16" si="13">C6</f>
         <v>-1</v>
@@ -9720,7 +9720,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B17">
         <f t="shared" ref="B17:D17" si="14">C7</f>
         <v>1</v>
@@ -9796,7 +9796,7 @@
         <v>51.836575062717763</v>
       </c>
     </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B18">
         <f t="shared" ref="B18:D18" si="15">C8</f>
         <v>-1</v>
@@ -9865,7 +9865,7 @@
         <v>12.702408396051094</v>
       </c>
     </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B19">
         <f t="shared" ref="B19:D19" si="16">C9</f>
         <v>1</v>
@@ -9943,7 +9943,7 @@
         <v>2.5199083960510946</v>
       </c>
     </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B20">
         <f>C2</f>
         <v>-1</v>
@@ -10021,7 +10021,7 @@
         <v>-2.0684249372822361</v>
       </c>
     </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B21">
         <f t="shared" ref="B21:D27" si="22">C3</f>
         <v>1</v>
@@ -10099,7 +10099,7 @@
         <v>3.0490750627177619</v>
       </c>
     </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B22">
         <f t="shared" si="22"/>
         <v>-1</v>
@@ -10177,7 +10177,7 @@
         <v>16.284908396051097</v>
       </c>
     </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B23">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -10255,7 +10255,7 @@
         <v>2.7457417293844277</v>
       </c>
     </row>
-    <row r="24" spans="2:24" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24">
         <f t="shared" si="22"/>
         <v>-1</v>
@@ -10333,7 +10333,7 @@
         <v>1.7357417293844271</v>
       </c>
     </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B25">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -10398,7 +10398,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B26">
         <f t="shared" si="22"/>
         <v>-1</v>
@@ -10454,7 +10454,7 @@
         <v>reject</v>
       </c>
     </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B27">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -10519,7 +10519,7 @@
         <v>reject</v>
       </c>
     </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B28">
         <f>C2</f>
         <v>-1</v>
@@ -10584,7 +10584,7 @@
         <v>accept</v>
       </c>
     </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B29">
         <f t="shared" ref="B29:D29" si="34">C3</f>
         <v>1</v>
@@ -10652,7 +10652,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B30">
         <f t="shared" ref="B30:D30" si="39">C4</f>
         <v>-1</v>
@@ -10720,7 +10720,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B31">
         <f t="shared" ref="B31:D31" si="40">C5</f>
         <v>1</v>
@@ -10788,7 +10788,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B32">
         <f t="shared" ref="B32:D32" si="41">C6</f>
         <v>-1</v>
@@ -10856,7 +10856,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B33">
         <f t="shared" ref="B33:D33" si="42">C7</f>
         <v>1</v>
@@ -10921,7 +10921,7 @@
         <v>accept</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B34">
         <f t="shared" ref="B34:D34" si="43">C8</f>
         <v>-1</v>
@@ -10956,7 +10956,7 @@
       </c>
       <c r="M34" s="7"/>
     </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B35">
         <f t="shared" ref="B35:D35" si="44">C9</f>
         <v>1</v>
@@ -11003,7 +11003,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:20" x14ac:dyDescent="0.25">
       <c r="Q36">
         <v>1</v>
       </c>
@@ -11018,7 +11018,7 @@
         <v>78.956666666666649</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B37" t="str" cm="1">
         <f t="array" ref="B37:H38">TRANSPOSE(J11:K17)</f>
         <v>E1</v>
@@ -11042,7 +11042,7 @@
         <v>E123</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>21.46916666666667</v>
       </c>
@@ -11089,12 +11089,12 @@
       <selection activeCell="C27" sqref="C27:F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="9" max="11" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -11126,7 +11126,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>1</v>
       </c>
@@ -11180,7 +11180,7 @@
         <v>0.1848395099249342</v>
       </c>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>2</v>
       </c>
@@ -11234,7 +11234,7 @@
         <v>-0.1848395099249342</v>
       </c>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>3</v>
       </c>
@@ -11288,7 +11288,7 @@
         <v>-0.34211708918224021</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>4</v>
       </c>
@@ -11342,7 +11342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>5</v>
       </c>
@@ -11396,7 +11396,7 @@
         <v>0.34211708918224032</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>6</v>
       </c>
@@ -11450,7 +11450,7 @@
         <v>-8.5482086029534915E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>7</v>
       </c>
@@ -11504,7 +11504,7 @@
         <v>8.5482086029534943E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>8</v>
       </c>
@@ -11543,7 +11543,7 @@
         <v>-28.626803630045615</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>0</v>
       </c>
@@ -11572,7 +11572,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>1</v>
       </c>
@@ -11609,7 +11609,7 @@
         <v>-32.25847180659887</v>
       </c>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>2</v>
       </c>
@@ -11646,7 +11646,7 @@
         <v>-27.4962084898306</v>
       </c>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>3</v>
       </c>
@@ -11683,7 +11683,7 @@
         <v>-37.053318005467176</v>
       </c>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>4</v>
       </c>
@@ -11720,7 +11720,7 @@
         <v>-33.741526243370735</v>
       </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>5</v>
       </c>
@@ -11757,7 +11757,7 @@
         <v>-38.039253958242064</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>6</v>
       </c>
@@ -11794,7 +11794,7 @@
         <v>-35.338081676183947</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>7</v>
       </c>
@@ -11831,7 +11831,7 @@
         <v>-34.271259411334526</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>8</v>
       </c>
@@ -11868,7 +11868,7 @@
         <v>-28.626803630045615</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>16</v>
       </c>
@@ -11897,7 +11897,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C21">
         <f>SUMPRODUCT(C12:C19,$M$12:$M$19)/4</f>
         <v>4.1049207855529346</v>
@@ -11947,7 +11947,7 @@
         <v>0.23348976176368294</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C22">
         <v>0</v>
       </c>
@@ -11985,7 +11985,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>98</v>
       </c>
@@ -12038,7 +12038,7 @@
         <v>5.8409093097333553</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>82</v>
       </c>
@@ -12064,7 +12064,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="25">
         <f>SUM(L2:L9)/8</f>
         <v>-33.353115402634195</v>
@@ -12110,7 +12110,7 @@
         <v>0.54921938173782792</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>3</v>
       </c>
@@ -12124,7 +12124,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C28">
         <v>1</v>
       </c>
@@ -12162,12 +12162,12 @@
       <selection activeCell="N63" sqref="N63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="8" max="9" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12205,7 +12205,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -12255,7 +12255,7 @@
         <v>0.37028231482430768</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -12305,7 +12305,7 @@
         <v>4.8468381389957669</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -12355,7 +12355,7 @@
         <v>-1.9874976058939908</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -12405,7 +12405,7 @@
         <v>-0.37028231482430729</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -12455,7 +12455,7 @@
         <v>3.0540254758336389</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -12505,7 +12505,7 @@
         <v>-1.1354116267361563</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -12555,7 +12555,7 @@
         <v>1.9874976058939908</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -12605,7 +12605,7 @@
         <v>-4.8468381389957695</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -12655,7 +12655,7 @@
         <v>1.1354116267361563</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -12705,7 +12705,7 @@
         <v>-3.0540254758336389</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -12740,7 +12740,7 @@
         <v>6.8350546077768879</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -12775,7 +12775,7 @@
         <v>33.010299956639813</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -12810,7 +12810,7 @@
         <v>-0.15715932006950581</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -12845,7 +12845,7 @@
         <v>1.5848411157770483</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -12880,7 +12880,7 @@
         <v>1.6941133131485566</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -12915,7 +12915,7 @@
         <v>8.6075078242839282</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -12968,7 +12968,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -13033,7 +13033,7 @@
         <v>-0.1703333929878037</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
@@ -13098,7 +13098,7 @@
         <v>-3.2471447656066834</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3</v>
       </c>
@@ -13163,7 +13163,7 @@
         <v>10.433514207947967</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>4</v>
       </c>
@@ -13228,7 +13228,7 @@
         <v>8.1304366453458776</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>5</v>
       </c>
@@ -13293,7 +13293,7 @@
         <v>14.628107737563553</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>6</v>
       </c>
@@ -13358,7 +13358,7 @@
         <v>2.8663547939044607</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>7</v>
       </c>
@@ -13423,7 +13423,7 @@
         <v>1.0601643278815294</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>8</v>
       </c>
@@ -13488,7 +13488,7 @@
         <v>12.128939069634299</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>9</v>
       </c>
@@ -13553,7 +13553,7 @@
         <v>5.357340659659247</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>10</v>
       </c>
@@ -13618,7 +13618,7 @@
         <v>0.42632191568472555</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>11</v>
       </c>
@@ -13683,7 +13683,7 @@
         <v>6.8350546077768879</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>12</v>
       </c>
@@ -13748,7 +13748,7 @@
         <v>33.010299956639813</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>13</v>
       </c>
@@ -13813,7 +13813,7 @@
         <v>-0.15715932006950581</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>14</v>
       </c>
@@ -13878,7 +13878,7 @@
         <v>1.5848411157770483</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>15</v>
       </c>
@@ -13943,7 +13943,7 @@
         <v>1.6941133131485566</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>16</v>
       </c>
@@ -14008,7 +14008,7 @@
         <v>8.6075078242839282</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>116</v>
       </c>
@@ -14064,7 +14064,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B37">
         <f>SUMPRODUCT(B20:B35,$Q$20:$Q$35)/8</f>
         <v>2.9783443018428795</v>
@@ -14134,7 +14134,7 @@
         <v>2.9466683597730023</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>98</v>
       </c>
@@ -14199,7 +14199,7 @@
         <v>-2.0358443008089631</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>130</v>
       </c>
@@ -14264,7 +14264,7 @@
         <v>9.738306372315518E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="26" t="s">
         <v>128</v>
       </c>
@@ -14294,7 +14294,7 @@
         <v>2.0150483733330233</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>15</v>
       </c>
@@ -14341,7 +14341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B43">
         <f>B37-$H$40*$R$37</f>
         <v>-2.9593349832695965</v>
@@ -14403,7 +14403,7 @@
         <v>-11.936637271730438</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B44">
         <f>B37</f>
         <v>2.9783443018428795</v>
@@ -14465,7 +14465,7 @@
         <v>-5.9989579866179623</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B45">
         <f>B37+$H$40*$R$37</f>
         <v>8.9160235869553546</v>
@@ -14527,7 +14527,7 @@
         <v>-6.127870150548631E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B47">
         <f>B42</f>
         <v>15</v>
@@ -14589,7 +14589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B48">
         <f>B42</f>
         <v>15</v>
@@ -14651,7 +14651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B49">
         <f>B48</f>
         <v>15</v>
@@ -14713,7 +14713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="28" t="s">
         <v>94</v>
       </c>
@@ -14733,7 +14733,7 @@
       <c r="O50" s="28"/>
       <c r="P50" s="28"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>82</v>
       </c>
@@ -14783,7 +14783,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52">
         <f>SUM(Q20:Q35)/16</f>
         <v>6.449272418536494</v>
@@ -14849,7 +14849,7 @@
         <v>-2.9994789933089812</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="28" t="s">
         <v>1</v>
       </c>
@@ -14869,7 +14869,7 @@
       <c r="O53" s="28"/>
       <c r="P53" s="28"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>150</v>
       </c>
@@ -14919,7 +14919,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>-8.7187499999999987E-2</v>
       </c>
@@ -14969,7 +14969,7 @@
         <v>6.0312499999999956E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>3</v>
       </c>
@@ -14986,7 +14986,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>3.077769532086766E-2</v>
       </c>
@@ -15004,7 +15004,7 @@
         <v>16.368236718160308</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>1</v>
       </c>
@@ -15016,7 +15016,7 @@
         <v>5.3868756121449438E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>1</v>
       </c>
@@ -15028,7 +15028,7 @@
         <v>2.5435847208618991</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>-1</v>
       </c>
@@ -15040,7 +15040,7 @@
         <v>-1.9970617042115568</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>-1</v>
       </c>
@@ -15092,21 +15092,21 @@
       <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B3" s="4"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>30</v>
       </c>
@@ -15114,7 +15114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
@@ -15122,7 +15122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>32</v>
       </c>
@@ -15130,7 +15130,7 @@
         <v>65535</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>33</v>
       </c>
@@ -15138,7 +15138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>34</v>
       </c>
@@ -15146,12 +15146,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
         <v>40</v>
@@ -15169,7 +15169,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>36</v>
       </c>
@@ -15189,7 +15189,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>37</v>
       </c>
@@ -15205,7 +15205,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>38</v>
       </c>
@@ -15219,8 +15219,8 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
         <v>45</v>
@@ -15247,7 +15247,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>39</v>
       </c>
@@ -15276,7 +15276,7 @@
         <v>5.9910543475853233</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>2</v>
       </c>
@@ -15305,7 +15305,7 @@
         <v>2.5817066304627003</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>4</v>
       </c>
@@ -15334,7 +15334,7 @@
         <v>4.0141669290265183</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
@@ -15363,7 +15363,7 @@
         <v>-1.9523322228064461</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>142</v>
       </c>
@@ -15392,7 +15392,7 @@
         <v>3.0023103524682937</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
@@ -15421,7 +15421,7 @@
         <v>-2.1398934797857168</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>12</v>
       </c>
@@ -15450,7 +15450,7 @@
         <v>4.4242173722205216</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>143</v>
       </c>
@@ -15479,7 +15479,7 @@
         <v>-5.5875725119581503</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>10</v>
       </c>
@@ -15508,7 +15508,7 @@
         <v>1.7529842000102775</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>144</v>
       </c>
@@ -15537,7 +15537,7 @@
         <v>0.47278506371140627</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>145</v>
       </c>
@@ -15566,7 +15566,7 @@
         <v>-0.63441704371106145</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>14</v>
       </c>
@@ -15595,7 +15595,7 @@
         <v>1.6795813602628948</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>146</v>
       </c>
@@ -15624,7 +15624,7 @@
         <v>2.5762473619629476</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>147</v>
       </c>
@@ -15653,7 +15653,7 @@
         <v>-0.96880289693358945</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>148</v>
       </c>
@@ -15682,7 +15682,7 @@
         <v>-0.50511961671554306</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>149</v>
       </c>
@@ -15725,9 +15725,9 @@
       <selection activeCell="A57" sqref="A57:P58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -15750,7 +15750,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -15773,7 +15773,7 @@
         <v>-0.08</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -15796,7 +15796,7 @@
         <v>-1.01</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -15819,7 +15819,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -15842,7 +15842,7 @@
         <v>-0.24</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -15865,7 +15865,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -15888,7 +15888,7 @@
         <v>-0.64</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -15911,7 +15911,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -15934,7 +15934,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -15957,7 +15957,7 @@
         <v>-0.65</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -15980,7 +15980,7 @@
         <v>-1.19</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -16003,7 +16003,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -16026,7 +16026,7 @@
         <v>-0.03</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -16049,7 +16049,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -16072,7 +16072,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -16095,7 +16095,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -16118,7 +16118,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>3</v>
       </c>
@@ -16165,7 +16165,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -16229,7 +16229,7 @@
         <v>-1.44</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
@@ -16293,7 +16293,7 @@
         <v>-1.79</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>3</v>
       </c>
@@ -16357,7 +16357,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>4</v>
       </c>
@@ -16421,7 +16421,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>5</v>
       </c>
@@ -16485,7 +16485,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>6</v>
       </c>
@@ -16549,7 +16549,7 @@
         <v>-0.79</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>7</v>
       </c>
@@ -16613,7 +16613,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>8</v>
       </c>
@@ -16677,7 +16677,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>9</v>
       </c>
@@ -16741,7 +16741,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>10</v>
       </c>
@@ -16805,7 +16805,7 @@
         <v>-0.63</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>11</v>
       </c>
@@ -16869,7 +16869,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>12</v>
       </c>
@@ -16933,7 +16933,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>13</v>
       </c>
@@ -16997,7 +16997,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>14</v>
       </c>
@@ -17061,7 +17061,7 @@
         <v>-1.17</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>15</v>
       </c>
@@ -17125,7 +17125,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>16</v>
       </c>
@@ -17189,7 +17189,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1</v>
       </c>
@@ -17257,7 +17257,7 @@
         <v>-0.08</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2</v>
       </c>
@@ -17325,7 +17325,7 @@
         <v>-1.01</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3</v>
       </c>
@@ -17393,7 +17393,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>4</v>
       </c>
@@ -17461,7 +17461,7 @@
         <v>-0.24</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>5</v>
       </c>
@@ -17529,7 +17529,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>6</v>
       </c>
@@ -17597,7 +17597,7 @@
         <v>-0.64</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>7</v>
       </c>
@@ -17665,7 +17665,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>8</v>
       </c>
@@ -17733,7 +17733,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>9</v>
       </c>
@@ -17801,7 +17801,7 @@
         <v>-0.65</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>10</v>
       </c>
@@ -17869,7 +17869,7 @@
         <v>-1.19</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>11</v>
       </c>
@@ -17937,7 +17937,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>12</v>
       </c>
@@ -18005,7 +18005,7 @@
         <v>-0.03</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>13</v>
       </c>
@@ -18073,7 +18073,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>14</v>
       </c>
@@ -18141,7 +18141,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>15</v>
       </c>
@@ -18209,7 +18209,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>16</v>
       </c>
@@ -18277,7 +18277,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>16</v>
       </c>
@@ -18324,7 +18324,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B55">
         <f>SUMPRODUCT(B21:B52,$Q$21:$Q$52)/16</f>
         <v>-0.65437499999999993</v>
@@ -18386,7 +18386,7 @@
         <v>0.12062499999999991</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>82</v>
       </c>
@@ -18436,7 +18436,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58">
         <f>SUM(Q21:Q52)/32</f>
         <v>-8.7187499999999987E-2</v>
@@ -18502,7 +18502,7 @@
         <v>6.0312499999999956E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>3</v>
       </c>
@@ -18516,7 +18516,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>-7.7811991682638179E-2</v>
       </c>

--- a/統計管制與最佳化方法概論/homework/my_homework/HW12/hw_12.xlsx
+++ b/統計管制與最佳化方法概論/homework/my_homework/HW12/hw_12.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOLab\Documents\研究所資料\統計管制與最佳化方法概論\homework\my_homework\HW12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8DB33F-DAD5-44CC-90F7-D6642C44B689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{326A0ED4-C433-461D-8A4C-0B29BA391675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CB8A175E-6191-4478-A7B3-8E35534C3B7C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{CB8A175E-6191-4478-A7B3-8E35534C3B7C}"/>
   </bookViews>
   <sheets>
     <sheet name="1-1" sheetId="1" r:id="rId1"/>
@@ -8397,16 +8397,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>647699</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>552449</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>365124</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>631824</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8510,16 +8510,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>15874</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>384175</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>196849</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>488950</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>60325</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8923,7 +8923,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA86B193-2B35-417B-B01D-578CD466CFC5}">
   <dimension ref="B1:X38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
@@ -11085,8 +11085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D9BEF8B-69CA-4F86-AD0A-3E25766E2F37}">
   <dimension ref="B1:Q28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27:F28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
